--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="458">
   <si>
     <t>id</t>
   </si>
@@ -1304,28 +1304,113 @@
   </si>
   <si>
     <t>3528</t>
+  </si>
+  <si>
+    <t>21900</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>Линейный привод DoorHan Swing.5000</t>
+  </si>
+  <si>
+    <t>23500</t>
+  </si>
+  <si>
+    <t>Линейный привод KRONO 310</t>
+  </si>
+  <si>
+    <t>24900</t>
+  </si>
+  <si>
+    <t>Линейный привод CAME ATI 3000</t>
+  </si>
+  <si>
+    <t>27900</t>
+  </si>
+  <si>
+    <t>Рычажный привод CAME FAST 7000</t>
+  </si>
+  <si>
+    <t>31900</t>
+  </si>
+  <si>
+    <t>Рычажный привод CAME FERNI 1000</t>
+  </si>
+  <si>
+    <t>Дорожные знаки треугольные</t>
+  </si>
+  <si>
+    <t>Дорожные знаки квадратные</t>
+  </si>
+  <si>
+    <t>Дорожные знаки круглые</t>
+  </si>
+  <si>
+    <t>Дорожные знаки</t>
+  </si>
+  <si>
+    <t>Дорожные знаки таблички</t>
+  </si>
+  <si>
+    <t>Дорожные знаки СТОП</t>
+  </si>
+  <si>
+    <t>Дорожные знаки сервиса</t>
+  </si>
+  <si>
+    <t>Дорожные знаки движения по полосам</t>
+  </si>
+  <si>
+    <t>Дорожные знаки выезд</t>
+  </si>
+  <si>
+    <t>Дорожные знаки ЖД</t>
+  </si>
+  <si>
+    <t>Дорожные знаки поворота</t>
+  </si>
+  <si>
+    <t>Дорожные знаки препятствия</t>
+  </si>
+  <si>
+    <t>Дорожные знаки указатели</t>
+  </si>
+  <si>
+    <t>Дорожные знаки щиты</t>
+  </si>
+  <si>
+    <t>Фундамент дорожного знака</t>
+  </si>
+  <si>
+    <t>Стойка дорожного знака</t>
+  </si>
+  <si>
+    <t>Крепеж дорожного знака</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1340,26 +1425,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1647,20 +1746,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D330"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D408"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1674,12 +1769,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1027</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>2899</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1688,8 +1783,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1028</v>
       </c>
       <c r="B3" t="s">
@@ -1702,8 +1797,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1029</v>
       </c>
       <c r="B4" t="s">
@@ -1716,8 +1811,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1030</v>
       </c>
       <c r="B5" t="s">
@@ -1730,8 +1825,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1031</v>
       </c>
       <c r="B6" t="s">
@@ -1744,8 +1839,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1032</v>
       </c>
       <c r="B7" t="s">
@@ -1758,8 +1853,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1033</v>
       </c>
       <c r="B8" t="s">
@@ -1772,8 +1867,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1034</v>
       </c>
       <c r="B9" t="s">
@@ -1786,8 +1881,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>1035</v>
       </c>
       <c r="B10" t="s">
@@ -1800,8 +1895,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>1036</v>
       </c>
       <c r="B11" t="s">
@@ -1814,8 +1909,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>1037</v>
       </c>
       <c r="B12" t="s">
@@ -1828,8 +1923,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>1038</v>
       </c>
       <c r="B13" t="s">
@@ -1842,8 +1937,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>1039</v>
       </c>
       <c r="B14" t="s">
@@ -1856,8 +1951,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>1040</v>
       </c>
       <c r="B15" t="s">
@@ -1870,8 +1965,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>1041</v>
       </c>
       <c r="B16" t="s">
@@ -1884,8 +1979,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>1042</v>
       </c>
       <c r="B17" t="s">
@@ -1898,8 +1993,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>1043</v>
       </c>
       <c r="B18" t="s">
@@ -1912,8 +2007,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>1044</v>
       </c>
       <c r="B19" t="s">
@@ -1926,8 +2021,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>1045</v>
       </c>
       <c r="B20" t="s">
@@ -1940,8 +2035,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>1046</v>
       </c>
       <c r="B21" t="s">
@@ -1954,8 +2049,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>1047</v>
       </c>
       <c r="B22" t="s">
@@ -1968,8 +2063,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>1048</v>
       </c>
       <c r="B23" t="s">
@@ -1982,8 +2077,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>1049</v>
       </c>
       <c r="B24" t="s">
@@ -1996,8 +2091,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>1050</v>
       </c>
       <c r="B25" t="s">
@@ -2010,8 +2105,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>1051</v>
       </c>
       <c r="B26" t="s">
@@ -2024,8 +2119,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>1052</v>
       </c>
       <c r="B27" t="s">
@@ -2038,8 +2133,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>1053</v>
       </c>
       <c r="B28" t="s">
@@ -2052,8 +2147,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>1054</v>
       </c>
       <c r="B29" t="s">
@@ -2066,8 +2161,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>1055</v>
       </c>
       <c r="B30" t="s">
@@ -2080,8 +2175,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>1056</v>
       </c>
       <c r="B31" t="s">
@@ -2094,8 +2189,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>1057</v>
       </c>
       <c r="B32" t="s">
@@ -2108,8 +2203,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>1058</v>
       </c>
       <c r="B33" t="s">
@@ -2122,8 +2217,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>1059</v>
       </c>
       <c r="B34" t="s">
@@ -2136,8 +2231,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>1060</v>
       </c>
       <c r="B35" t="s">
@@ -2150,8 +2245,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>1061</v>
       </c>
       <c r="B36" t="s">
@@ -2164,8 +2259,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>1062</v>
       </c>
       <c r="B37" t="s">
@@ -2178,8 +2273,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>1063</v>
       </c>
       <c r="B38" t="s">
@@ -2192,8 +2287,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>1064</v>
       </c>
       <c r="B39" t="s">
@@ -2206,8 +2301,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>1065</v>
       </c>
       <c r="B40" t="s">
@@ -2220,8 +2315,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>1066</v>
       </c>
       <c r="B41" t="s">
@@ -2234,8 +2329,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>1067</v>
       </c>
       <c r="B42" t="s">
@@ -2248,8 +2343,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>1068</v>
       </c>
       <c r="B43" t="s">
@@ -2262,8 +2357,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>1069</v>
       </c>
       <c r="B44" t="s">
@@ -2276,8 +2371,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>1070</v>
       </c>
       <c r="B45" t="s">
@@ -2290,8 +2385,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>1071</v>
       </c>
       <c r="B46" t="s">
@@ -2304,8 +2399,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>1072</v>
       </c>
       <c r="B47" t="s">
@@ -2318,8 +2413,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>1073</v>
       </c>
       <c r="B48" t="s">
@@ -2332,8 +2427,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>1074</v>
       </c>
       <c r="B49" t="s">
@@ -2346,8 +2441,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>1075</v>
       </c>
       <c r="B50" t="s">
@@ -2360,8 +2455,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>1076</v>
       </c>
       <c r="B51" t="s">
@@ -2374,8 +2469,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>1077</v>
       </c>
       <c r="B52" t="s">
@@ -2388,8 +2483,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>1078</v>
       </c>
       <c r="B53" t="s">
@@ -2402,8 +2497,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>1079</v>
       </c>
       <c r="B54" t="s">
@@ -2416,8 +2511,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>1080</v>
       </c>
       <c r="B55" t="s">
@@ -2430,8 +2525,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>1081</v>
       </c>
       <c r="B56" t="s">
@@ -2444,8 +2539,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>1082</v>
       </c>
       <c r="B57" t="s">
@@ -2458,8 +2553,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>1083</v>
       </c>
       <c r="B58" t="s">
@@ -2472,8 +2567,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>1084</v>
       </c>
       <c r="B59" t="s">
@@ -2486,8 +2581,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>1085</v>
       </c>
       <c r="B60" t="s">
@@ -2500,8 +2595,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>1086</v>
       </c>
       <c r="B61" t="s">
@@ -2514,8 +2609,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>1087</v>
       </c>
       <c r="B62" t="s">
@@ -2528,8 +2623,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>1088</v>
       </c>
       <c r="B63" t="s">
@@ -2542,8 +2637,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>1089</v>
       </c>
       <c r="B64" t="s">
@@ -2556,8 +2651,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>1090</v>
       </c>
       <c r="B65" t="s">
@@ -2570,8 +2665,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>1091</v>
       </c>
       <c r="B66" t="s">
@@ -2584,8 +2679,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>1092</v>
       </c>
       <c r="B67" t="s">
@@ -2598,8 +2693,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>1093</v>
       </c>
       <c r="B68" t="s">
@@ -2612,8 +2707,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>1094</v>
       </c>
       <c r="B69" t="s">
@@ -2626,8 +2721,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>1095</v>
       </c>
       <c r="B70" t="s">
@@ -2640,8 +2735,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>1096</v>
       </c>
       <c r="B71" t="s">
@@ -2654,8 +2749,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>1097</v>
       </c>
       <c r="B72" t="s">
@@ -2668,8 +2763,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>1098</v>
       </c>
       <c r="B73" t="s">
@@ -2682,8 +2777,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>1099</v>
       </c>
       <c r="B74" t="s">
@@ -2696,8 +2791,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>1100</v>
       </c>
       <c r="B75" t="s">
@@ -2710,8 +2805,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>1101</v>
       </c>
       <c r="B76" t="s">
@@ -2724,8 +2819,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>1102</v>
       </c>
       <c r="B77" t="s">
@@ -2738,8 +2833,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>1103</v>
       </c>
       <c r="B78" t="s">
@@ -2752,8 +2847,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>1104</v>
       </c>
       <c r="B79" t="s">
@@ -2766,8 +2861,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>1105</v>
       </c>
       <c r="B80" t="s">
@@ -2780,8 +2875,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>1106</v>
       </c>
       <c r="B81" t="s">
@@ -2794,8 +2889,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>1107</v>
       </c>
       <c r="B82" t="s">
@@ -2808,8 +2903,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>1108</v>
       </c>
       <c r="B83" t="s">
@@ -2822,8 +2917,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>1109</v>
       </c>
       <c r="B84" t="s">
@@ -2836,8 +2931,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>1110</v>
       </c>
       <c r="B85" t="s">
@@ -2850,8 +2945,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>1111</v>
       </c>
       <c r="B86" t="s">
@@ -2864,8 +2959,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>1112</v>
       </c>
       <c r="B87" t="s">
@@ -2878,8 +2973,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>1113</v>
       </c>
       <c r="B88" t="s">
@@ -2892,8 +2987,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>1114</v>
       </c>
       <c r="B89" t="s">
@@ -2906,8 +3001,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>1115</v>
       </c>
       <c r="B90" t="s">
@@ -2920,8 +3015,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>1116</v>
       </c>
       <c r="B91" t="s">
@@ -2934,8 +3029,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>1117</v>
       </c>
       <c r="B92" t="s">
@@ -2948,8 +3043,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>1118</v>
       </c>
       <c r="B93" t="s">
@@ -2962,8 +3057,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>1119</v>
       </c>
       <c r="B94" t="s">
@@ -2976,8 +3071,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>1120</v>
       </c>
       <c r="B95" t="s">
@@ -2990,8 +3085,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>1121</v>
       </c>
       <c r="B96" t="s">
@@ -3004,8 +3099,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>1122</v>
       </c>
       <c r="B97" t="s">
@@ -3018,8 +3113,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>1123</v>
       </c>
       <c r="B98" t="s">
@@ -3032,8 +3127,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>1124</v>
       </c>
       <c r="B99" t="s">
@@ -3046,8 +3141,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>1125</v>
       </c>
       <c r="B100" t="s">
@@ -3060,8 +3155,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>1126</v>
       </c>
       <c r="B101" t="s">
@@ -3074,8 +3169,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>1127</v>
       </c>
       <c r="B102" t="s">
@@ -3088,8 +3183,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>1128</v>
       </c>
       <c r="B103" t="s">
@@ -3102,8 +3197,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>1129</v>
       </c>
       <c r="B104" t="s">
@@ -3116,8 +3211,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>1130</v>
       </c>
       <c r="B105" t="s">
@@ -3130,8 +3225,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>1131</v>
       </c>
       <c r="B106" t="s">
@@ -3144,8 +3239,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>1132</v>
       </c>
       <c r="B107" t="s">
@@ -3158,8 +3253,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>1133</v>
       </c>
       <c r="B108" t="s">
@@ -3172,8 +3267,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>1134</v>
       </c>
       <c r="B109" t="s">
@@ -3186,8 +3281,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>1135</v>
       </c>
       <c r="B110" t="s">
@@ -3200,8 +3295,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>1136</v>
       </c>
       <c r="B111" t="s">
@@ -3214,8 +3309,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>1137</v>
       </c>
       <c r="B112" t="s">
@@ -3228,8 +3323,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>1138</v>
       </c>
       <c r="B113" t="s">
@@ -3242,8 +3337,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>1139</v>
       </c>
       <c r="B114" t="s">
@@ -3256,8 +3351,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>1140</v>
       </c>
       <c r="B115" t="s">
@@ -3270,8 +3365,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>1141</v>
       </c>
       <c r="B116" t="s">
@@ -3284,8 +3379,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>1142</v>
       </c>
       <c r="B117" t="s">
@@ -3298,8 +3393,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>1143</v>
       </c>
       <c r="B118" t="s">
@@ -3312,8 +3407,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>1144</v>
       </c>
       <c r="B119" t="s">
@@ -3326,8 +3421,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>1145</v>
       </c>
       <c r="B120" t="s">
@@ -3340,8 +3435,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>1146</v>
       </c>
       <c r="B121" t="s">
@@ -3354,8 +3449,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>1147</v>
       </c>
       <c r="B122" t="s">
@@ -3368,8 +3463,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>1148</v>
       </c>
       <c r="B123" t="s">
@@ -3382,8 +3477,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>1149</v>
       </c>
       <c r="B124" t="s">
@@ -3396,8 +3491,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>1150</v>
       </c>
       <c r="B125" t="s">
@@ -3410,8 +3505,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>1151</v>
       </c>
       <c r="B126" t="s">
@@ -3424,8 +3519,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>1152</v>
       </c>
       <c r="B127" t="s">
@@ -3438,8 +3533,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>1153</v>
       </c>
       <c r="B128" t="s">
@@ -3452,8 +3547,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>1154</v>
       </c>
       <c r="B129" t="s">
@@ -3466,8 +3561,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>1155</v>
       </c>
       <c r="B130" t="s">
@@ -3480,8 +3575,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>1156</v>
       </c>
       <c r="B131" t="s">
@@ -3494,8 +3589,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>1157</v>
       </c>
       <c r="B132" t="s">
@@ -3508,8 +3603,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>1158</v>
       </c>
       <c r="B133" t="s">
@@ -3522,8 +3617,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>1159</v>
       </c>
       <c r="B134" t="s">
@@ -3536,8 +3631,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>1160</v>
       </c>
       <c r="B135" t="s">
@@ -3550,8 +3645,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>1161</v>
       </c>
       <c r="B136" t="s">
@@ -3564,8 +3659,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>1162</v>
       </c>
       <c r="B137" t="s">
@@ -3578,8 +3673,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>1163</v>
       </c>
       <c r="B138" t="s">
@@ -3592,8 +3687,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>1164</v>
       </c>
       <c r="B139" t="s">
@@ -3606,8 +3701,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>1165</v>
       </c>
       <c r="B140" t="s">
@@ -3620,8 +3715,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>1166</v>
       </c>
       <c r="B141" t="s">
@@ -3634,8 +3729,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>1167</v>
       </c>
       <c r="B142" t="s">
@@ -3648,8 +3743,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>1168</v>
       </c>
       <c r="B143" t="s">
@@ -3662,8 +3757,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>1169</v>
       </c>
       <c r="B144" t="s">
@@ -3676,8 +3771,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>1170</v>
       </c>
       <c r="B145" t="s">
@@ -3690,8 +3785,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>1171</v>
       </c>
       <c r="B146" t="s">
@@ -3704,8 +3799,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>1172</v>
       </c>
       <c r="B147" t="s">
@@ -3718,8 +3813,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>1173</v>
       </c>
       <c r="B148" t="s">
@@ -3732,8 +3827,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>1174</v>
       </c>
       <c r="B149" t="s">
@@ -3746,8 +3841,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>1175</v>
       </c>
       <c r="B150" t="s">
@@ -3760,8 +3855,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>1176</v>
       </c>
       <c r="B151" t="s">
@@ -3774,8 +3869,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>1177</v>
       </c>
       <c r="B152" t="s">
@@ -3788,8 +3883,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>1178</v>
       </c>
       <c r="B153" t="s">
@@ -3802,8 +3897,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>1179</v>
       </c>
       <c r="B154" t="s">
@@ -3816,8 +3911,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>1180</v>
       </c>
       <c r="B155" t="s">
@@ -3830,8 +3925,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>1181</v>
       </c>
       <c r="B156" t="s">
@@ -3844,8 +3939,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>1182</v>
       </c>
       <c r="B157" t="s">
@@ -3858,8 +3953,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>1183</v>
       </c>
       <c r="B158" t="s">
@@ -3872,8 +3967,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>1184</v>
       </c>
       <c r="B159" t="s">
@@ -3886,8 +3981,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>1185</v>
       </c>
       <c r="B160" t="s">
@@ -3900,8 +3995,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>1186</v>
       </c>
       <c r="B161" t="s">
@@ -3914,8 +4009,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>1187</v>
       </c>
       <c r="B162" t="s">
@@ -3928,8 +4023,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>1188</v>
       </c>
       <c r="B163" t="s">
@@ -3942,8 +4037,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>1189</v>
       </c>
       <c r="B164" t="s">
@@ -3956,8 +4051,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>1190</v>
       </c>
       <c r="B165" t="s">
@@ -3970,8 +4065,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>1191</v>
       </c>
       <c r="B166" t="s">
@@ -3984,8 +4079,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>1192</v>
       </c>
       <c r="B167" t="s">
@@ -3998,8 +4093,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>1193</v>
       </c>
       <c r="B168" t="s">
@@ -4012,8 +4107,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>1194</v>
       </c>
       <c r="B169" t="s">
@@ -4026,8 +4121,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>1195</v>
       </c>
       <c r="B170" t="s">
@@ -4040,8 +4135,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>1196</v>
       </c>
       <c r="B171" t="s">
@@ -4054,8 +4149,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>1197</v>
       </c>
       <c r="B172" t="s">
@@ -4068,8 +4163,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>1198</v>
       </c>
       <c r="B173" t="s">
@@ -4082,8 +4177,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>1199</v>
       </c>
       <c r="B174" t="s">
@@ -4096,8 +4191,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>1200</v>
       </c>
       <c r="B175" t="s">
@@ -4110,8 +4205,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>1201</v>
       </c>
       <c r="B176" t="s">
@@ -4124,8 +4219,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>1202</v>
       </c>
       <c r="B177" t="s">
@@ -4138,8 +4233,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>1203</v>
       </c>
       <c r="B178" t="s">
@@ -4152,8 +4247,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>1204</v>
       </c>
       <c r="B179" t="s">
@@ -4166,8 +4261,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>1205</v>
       </c>
       <c r="B180" t="s">
@@ -4180,8 +4275,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>1206</v>
       </c>
       <c r="B181" t="s">
@@ -4194,8 +4289,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>1207</v>
       </c>
       <c r="B182" t="s">
@@ -4208,8 +4303,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>1208</v>
       </c>
       <c r="B183" t="s">
@@ -4222,8 +4317,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>1209</v>
       </c>
       <c r="B184" t="s">
@@ -4236,8 +4331,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>1210</v>
       </c>
       <c r="B185" t="s">
@@ -4250,8 +4345,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>1211</v>
       </c>
       <c r="B186" t="s">
@@ -4264,8 +4359,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>1212</v>
       </c>
       <c r="B187" t="s">
@@ -4278,8 +4373,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>1213</v>
       </c>
       <c r="B188" t="s">
@@ -4292,8 +4387,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>1214</v>
       </c>
       <c r="B189" t="s">
@@ -4306,8 +4401,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>1215</v>
       </c>
       <c r="B190" t="s">
@@ -4320,8 +4415,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>1216</v>
       </c>
       <c r="B191" t="s">
@@ -4334,8 +4429,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>1217</v>
       </c>
       <c r="B192" t="s">
@@ -4348,8 +4443,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
         <v>1218</v>
       </c>
       <c r="B193" t="s">
@@ -4362,8 +4457,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>1219</v>
       </c>
       <c r="B194" t="s">
@@ -4376,8 +4471,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>1220</v>
       </c>
       <c r="B195" t="s">
@@ -4390,8 +4485,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>1221</v>
       </c>
       <c r="B196" t="s">
@@ -4404,8 +4499,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>1222</v>
       </c>
       <c r="B197" t="s">
@@ -4418,8 +4513,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>1223</v>
       </c>
       <c r="B198" t="s">
@@ -4432,8 +4527,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>1224</v>
       </c>
       <c r="B199" t="s">
@@ -4446,8 +4541,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>1225</v>
       </c>
       <c r="B200" t="s">
@@ -4460,8 +4555,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>1226</v>
       </c>
       <c r="B201" t="s">
@@ -4474,8 +4569,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>1227</v>
       </c>
       <c r="B202" t="s">
@@ -4488,8 +4583,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>1228</v>
       </c>
       <c r="B203" t="s">
@@ -4502,8 +4597,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>1229</v>
       </c>
       <c r="B204" t="s">
@@ -4516,8 +4611,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>1230</v>
       </c>
       <c r="B205" t="s">
@@ -4530,8 +4625,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>1231</v>
       </c>
       <c r="B206" t="s">
@@ -4544,8 +4639,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>1232</v>
       </c>
       <c r="B207" t="s">
@@ -4558,8 +4653,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>1233</v>
       </c>
       <c r="B208" t="s">
@@ -4572,8 +4667,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>1234</v>
       </c>
       <c r="B209" t="s">
@@ -4586,8 +4681,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>1235</v>
       </c>
       <c r="B210" t="s">
@@ -4600,8 +4695,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>1236</v>
       </c>
       <c r="B211" t="s">
@@ -4614,8 +4709,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>1237</v>
       </c>
       <c r="B212" t="s">
@@ -4628,8 +4723,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>1238</v>
       </c>
       <c r="B213" t="s">
@@ -4642,8 +4737,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>1239</v>
       </c>
       <c r="B214" t="s">
@@ -4656,8 +4751,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>1240</v>
       </c>
       <c r="B215" t="s">
@@ -4670,8 +4765,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>1241</v>
       </c>
       <c r="B216" t="s">
@@ -4684,8 +4779,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
         <v>1242</v>
       </c>
       <c r="B217" t="s">
@@ -4698,8 +4793,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>1243</v>
       </c>
       <c r="B218" t="s">
@@ -4712,8 +4807,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>1244</v>
       </c>
       <c r="B219" t="s">
@@ -4726,8 +4821,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>1245</v>
       </c>
       <c r="B220" t="s">
@@ -4740,8 +4835,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>1246</v>
       </c>
       <c r="B221" t="s">
@@ -4754,8 +4849,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>1247</v>
       </c>
       <c r="B222" t="s">
@@ -4768,8 +4863,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>1248</v>
       </c>
       <c r="B223" t="s">
@@ -4782,8 +4877,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>1249</v>
       </c>
       <c r="B224" t="s">
@@ -4796,8 +4891,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
         <v>1250</v>
       </c>
       <c r="B225" t="s">
@@ -4810,8 +4905,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>1251</v>
       </c>
       <c r="B226" t="s">
@@ -4824,8 +4919,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>1252</v>
       </c>
       <c r="B227" t="s">
@@ -4838,8 +4933,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
         <v>1253</v>
       </c>
       <c r="B228" t="s">
@@ -4852,8 +4947,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>1254</v>
       </c>
       <c r="B229" t="s">
@@ -4866,8 +4961,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
         <v>1255</v>
       </c>
       <c r="B230" t="s">
@@ -4880,8 +4975,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
         <v>1256</v>
       </c>
       <c r="B231" t="s">
@@ -4894,8 +4989,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
         <v>1257</v>
       </c>
       <c r="B232" t="s">
@@ -4908,8 +5003,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
         <v>1258</v>
       </c>
       <c r="B233" t="s">
@@ -4922,8 +5017,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="1" t="n">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
         <v>1259</v>
       </c>
       <c r="B234" t="s">
@@ -4936,8 +5031,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="1" t="n">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
         <v>1260</v>
       </c>
       <c r="B235" t="s">
@@ -4950,8 +5045,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="1" t="n">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
         <v>1261</v>
       </c>
       <c r="B236" t="s">
@@ -4964,8 +5059,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
         <v>1262</v>
       </c>
       <c r="B237" t="s">
@@ -4978,8 +5073,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
         <v>1263</v>
       </c>
       <c r="B238" t="s">
@@ -4992,8 +5087,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
         <v>1264</v>
       </c>
       <c r="B239" t="s">
@@ -5006,8 +5101,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
         <v>1265</v>
       </c>
       <c r="B240" t="s">
@@ -5020,8 +5115,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
         <v>1266</v>
       </c>
       <c r="B241" t="s">
@@ -5034,8 +5129,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="1" t="n">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
         <v>1267</v>
       </c>
       <c r="B242" t="s">
@@ -5048,8 +5143,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
         <v>1268</v>
       </c>
       <c r="B243" t="s">
@@ -5062,8 +5157,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
         <v>1269</v>
       </c>
       <c r="B244" t="s">
@@ -5076,8 +5171,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
         <v>1270</v>
       </c>
       <c r="B245" t="s">
@@ -5090,8 +5185,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
         <v>1271</v>
       </c>
       <c r="B246" t="s">
@@ -5104,8 +5199,8 @@
         <v>323</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
         <v>1272</v>
       </c>
       <c r="B247" t="s">
@@ -5118,8 +5213,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
         <v>1273</v>
       </c>
       <c r="B248" t="s">
@@ -5132,8 +5227,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
         <v>1274</v>
       </c>
       <c r="B249" t="s">
@@ -5146,8 +5241,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
         <v>1275</v>
       </c>
       <c r="B250" t="s">
@@ -5160,8 +5255,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
         <v>1276</v>
       </c>
       <c r="B251" t="s">
@@ -5174,8 +5269,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
         <v>1277</v>
       </c>
       <c r="B252" t="s">
@@ -5188,8 +5283,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="1" t="n">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
         <v>1278</v>
       </c>
       <c r="B253" t="s">
@@ -5202,8 +5297,8 @@
         <v>337</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="1" t="n">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
         <v>1279</v>
       </c>
       <c r="B254" t="s">
@@ -5216,8 +5311,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="1" t="n">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
         <v>1280</v>
       </c>
       <c r="B255" t="s">
@@ -5230,8 +5325,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="1" t="n">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
         <v>1281</v>
       </c>
       <c r="B256" t="s">
@@ -5244,8 +5339,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="1" t="n">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
         <v>1282</v>
       </c>
       <c r="B257" t="s">
@@ -5258,8 +5353,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="1" t="n">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>1283</v>
       </c>
       <c r="B258" t="s">
@@ -5272,8 +5367,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="1" t="n">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
         <v>1284</v>
       </c>
       <c r="B259" t="s">
@@ -5286,8 +5381,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="1" t="n">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
         <v>1285</v>
       </c>
       <c r="B260" t="s">
@@ -5300,8 +5395,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="1" t="n">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
         <v>1286</v>
       </c>
       <c r="B261" t="s">
@@ -5314,8 +5409,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="1" t="n">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
         <v>1287</v>
       </c>
       <c r="B262" t="s">
@@ -5328,8 +5423,8 @@
         <v>355</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="1" t="n">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
         <v>1288</v>
       </c>
       <c r="B263" t="s">
@@ -5342,8 +5437,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="1" t="n">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
         <v>1289</v>
       </c>
       <c r="B264" t="s">
@@ -5356,8 +5451,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="1" t="n">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
         <v>1290</v>
       </c>
       <c r="B265" t="s">
@@ -5370,8 +5465,8 @@
         <v>359</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="1" t="n">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>1291</v>
       </c>
       <c r="B266" t="s">
@@ -5384,8 +5479,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="1" t="n">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
         <v>1292</v>
       </c>
       <c r="B267" t="s">
@@ -5398,8 +5493,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="1" t="n">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
         <v>1293</v>
       </c>
       <c r="B268" t="s">
@@ -5412,8 +5507,8 @@
         <v>364</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="1" t="n">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
         <v>1294</v>
       </c>
       <c r="B269" t="s">
@@ -5426,8 +5521,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="1" t="n">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
         <v>1295</v>
       </c>
       <c r="B270" t="s">
@@ -5440,8 +5535,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="1" t="n">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
         <v>1296</v>
       </c>
       <c r="B271" t="s">
@@ -5454,8 +5549,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="1" t="n">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
         <v>1297</v>
       </c>
       <c r="B272" t="s">
@@ -5468,8 +5563,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="1" t="n">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
         <v>1298</v>
       </c>
       <c r="B273" t="s">
@@ -5482,8 +5577,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="1" t="n">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
         <v>1299</v>
       </c>
       <c r="B274" t="s">
@@ -5496,8 +5591,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="1" t="n">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
         <v>1300</v>
       </c>
       <c r="B275" t="s">
@@ -5510,8 +5605,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="1" t="n">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
         <v>1301</v>
       </c>
       <c r="B276" t="s">
@@ -5524,8 +5619,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="1" t="n">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
         <v>1302</v>
       </c>
       <c r="B277" t="s">
@@ -5538,8 +5633,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="1" t="n">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
         <v>1303</v>
       </c>
       <c r="B278" t="s">
@@ -5552,8 +5647,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="1" t="n">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
         <v>1304</v>
       </c>
       <c r="B279" t="s">
@@ -5566,8 +5661,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="1" t="n">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
         <v>1305</v>
       </c>
       <c r="B280" t="s">
@@ -5580,8 +5675,8 @@
         <v>369</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="1" t="n">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
         <v>1306</v>
       </c>
       <c r="B281" t="s">
@@ -5594,8 +5689,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="1" t="n">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
         <v>1307</v>
       </c>
       <c r="B282" t="s">
@@ -5608,8 +5703,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="1" t="n">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
         <v>1308</v>
       </c>
       <c r="B283" t="s">
@@ -5622,8 +5717,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="1" t="n">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
         <v>1309</v>
       </c>
       <c r="B284" t="s">
@@ -5636,8 +5731,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="1" t="n">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
         <v>1310</v>
       </c>
       <c r="B285" t="s">
@@ -5650,8 +5745,8 @@
         <v>369</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="1" t="n">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
         <v>1311</v>
       </c>
       <c r="B286" t="s">
@@ -5664,8 +5759,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="1" t="n">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
         <v>1312</v>
       </c>
       <c r="B287" t="s">
@@ -5678,8 +5773,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="1" t="n">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
         <v>1313</v>
       </c>
       <c r="B288" t="s">
@@ -5692,8 +5787,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="1" t="n">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
         <v>1314</v>
       </c>
       <c r="B289" t="s">
@@ -5706,8 +5801,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="1" t="n">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
         <v>1315</v>
       </c>
       <c r="B290" t="s">
@@ -5720,8 +5815,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="1" t="n">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
         <v>1316</v>
       </c>
       <c r="B291" t="s">
@@ -5734,8 +5829,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="1" t="n">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
         <v>1317</v>
       </c>
       <c r="B292" t="s">
@@ -5748,8 +5843,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="1" t="n">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
         <v>1318</v>
       </c>
       <c r="B293" t="s">
@@ -5762,8 +5857,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="1" t="n">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
         <v>1319</v>
       </c>
       <c r="B294" t="s">
@@ -5776,8 +5871,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="1" t="n">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
         <v>1320</v>
       </c>
       <c r="B295" t="s">
@@ -5790,8 +5885,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="1" t="n">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
         <v>1321</v>
       </c>
       <c r="B296" t="s">
@@ -5804,8 +5899,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="1" t="n">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
         <v>1322</v>
       </c>
       <c r="B297" t="s">
@@ -5818,8 +5913,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="1" t="n">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
         <v>1323</v>
       </c>
       <c r="B298" t="s">
@@ -5832,8 +5927,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="1" t="n">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
         <v>1324</v>
       </c>
       <c r="B299" t="s">
@@ -5846,8 +5941,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="1" t="n">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
         <v>1325</v>
       </c>
       <c r="B300" t="s">
@@ -5860,8 +5955,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="1" t="n">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
         <v>1326</v>
       </c>
       <c r="B301" t="s">
@@ -5874,8 +5969,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="1" t="n">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
         <v>1327</v>
       </c>
       <c r="B302" t="s">
@@ -5888,8 +5983,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="1" t="n">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
         <v>1328</v>
       </c>
       <c r="B303" t="s">
@@ -5902,8 +5997,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="1" t="n">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
         <v>1329</v>
       </c>
       <c r="B304" t="s">
@@ -5916,8 +6011,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="1" t="n">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
         <v>1330</v>
       </c>
       <c r="B305" t="s">
@@ -5930,8 +6025,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="1" t="n">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
         <v>1331</v>
       </c>
       <c r="B306" t="s">
@@ -5944,8 +6039,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="1" t="n">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
         <v>1332</v>
       </c>
       <c r="B307" t="s">
@@ -5958,8 +6053,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="1" t="n">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
         <v>1333</v>
       </c>
       <c r="B308" t="s">
@@ -5972,8 +6067,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="1" t="n">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
         <v>1334</v>
       </c>
       <c r="B309" t="s">
@@ -5986,8 +6081,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="1" t="n">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
         <v>1335</v>
       </c>
       <c r="B310" t="s">
@@ -6000,8 +6095,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="1" t="n">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
         <v>1336</v>
       </c>
       <c r="B311" t="s">
@@ -6014,8 +6109,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="1" t="n">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
         <v>1337</v>
       </c>
       <c r="B312" t="s">
@@ -6028,8 +6123,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="1" t="n">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
         <v>1338</v>
       </c>
       <c r="B313" t="s">
@@ -6042,8 +6137,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="1" t="n">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
         <v>1339</v>
       </c>
       <c r="B314" t="s">
@@ -6056,8 +6151,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="1" t="n">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
         <v>1340</v>
       </c>
       <c r="B315" t="s">
@@ -6070,8 +6165,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="1" t="n">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
         <v>1341</v>
       </c>
       <c r="B316" t="s">
@@ -6084,8 +6179,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="1" t="n">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
         <v>1342</v>
       </c>
       <c r="B317" t="s">
@@ -6098,8 +6193,8 @@
         <v>414</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="1" t="n">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
         <v>1343</v>
       </c>
       <c r="B318" t="s">
@@ -6112,8 +6207,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="1" t="n">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
         <v>1344</v>
       </c>
       <c r="B319" t="s">
@@ -6126,8 +6221,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="1" t="n">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
         <v>1345</v>
       </c>
       <c r="B320" t="s">
@@ -6140,8 +6235,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="1" t="n">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
         <v>1346</v>
       </c>
       <c r="B321" t="s">
@@ -6154,8 +6249,8 @@
         <v>420</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="1" t="n">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
         <v>1347</v>
       </c>
       <c r="B322" t="s">
@@ -6168,8 +6263,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="1" t="n">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
         <v>1348</v>
       </c>
       <c r="B323" t="s">
@@ -6182,8 +6277,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="1" t="n">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
         <v>1349</v>
       </c>
       <c r="B324" t="s">
@@ -6196,8 +6291,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="1" t="n">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
         <v>1350</v>
       </c>
       <c r="B325" t="s">
@@ -6210,8 +6305,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="1" t="n">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
         <v>1351</v>
       </c>
       <c r="B326" t="s">
@@ -6224,8 +6319,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="1" t="n">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
         <v>1352</v>
       </c>
       <c r="B327" t="s">
@@ -6238,8 +6333,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="1" t="n">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
         <v>1353</v>
       </c>
       <c r="B328" t="s">
@@ -6252,8 +6347,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="1" t="n">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
         <v>1354</v>
       </c>
       <c r="B329" t="s">
@@ -6266,8 +6361,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="1" t="n">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
         <v>1355</v>
       </c>
       <c r="B330" t="s">
@@ -6280,7 +6375,1099 @@
         <v>423</v>
       </c>
     </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>1356</v>
+      </c>
+      <c r="B331" t="s">
+        <v>430</v>
+      </c>
+      <c r="C331" t="s">
+        <v>431</v>
+      </c>
+      <c r="D331" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>1357</v>
+      </c>
+      <c r="B332" t="s">
+        <v>433</v>
+      </c>
+      <c r="C332" t="s">
+        <v>431</v>
+      </c>
+      <c r="D332" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>1358</v>
+      </c>
+      <c r="B333" t="s">
+        <v>435</v>
+      </c>
+      <c r="C333" t="s">
+        <v>431</v>
+      </c>
+      <c r="D333" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>1359</v>
+      </c>
+      <c r="B334" t="s">
+        <v>437</v>
+      </c>
+      <c r="C334" t="s">
+        <v>431</v>
+      </c>
+      <c r="D334" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>1360</v>
+      </c>
+      <c r="B335" t="s">
+        <v>439</v>
+      </c>
+      <c r="C335" t="s">
+        <v>431</v>
+      </c>
+      <c r="D335" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>1361</v>
+      </c>
+      <c r="B336" t="s">
+        <v>430</v>
+      </c>
+      <c r="C336" t="s">
+        <v>431</v>
+      </c>
+      <c r="D336" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>1362</v>
+      </c>
+      <c r="B337" t="s">
+        <v>433</v>
+      </c>
+      <c r="C337" t="s">
+        <v>431</v>
+      </c>
+      <c r="D337" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>1363</v>
+      </c>
+      <c r="B338" t="s">
+        <v>435</v>
+      </c>
+      <c r="C338" t="s">
+        <v>431</v>
+      </c>
+      <c r="D338" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>1364</v>
+      </c>
+      <c r="B339" t="s">
+        <v>437</v>
+      </c>
+      <c r="C339" t="s">
+        <v>431</v>
+      </c>
+      <c r="D339" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>1365</v>
+      </c>
+      <c r="B340" t="s">
+        <v>439</v>
+      </c>
+      <c r="C340" t="s">
+        <v>431</v>
+      </c>
+      <c r="D340" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>1366</v>
+      </c>
+      <c r="B341" t="s">
+        <v>430</v>
+      </c>
+      <c r="C341" t="s">
+        <v>431</v>
+      </c>
+      <c r="D341" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>1367</v>
+      </c>
+      <c r="B342" t="s">
+        <v>433</v>
+      </c>
+      <c r="C342" t="s">
+        <v>431</v>
+      </c>
+      <c r="D342" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>1368</v>
+      </c>
+      <c r="B343" t="s">
+        <v>435</v>
+      </c>
+      <c r="C343" t="s">
+        <v>431</v>
+      </c>
+      <c r="D343" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>1369</v>
+      </c>
+      <c r="B344" t="s">
+        <v>437</v>
+      </c>
+      <c r="C344" t="s">
+        <v>431</v>
+      </c>
+      <c r="D344" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>1370</v>
+      </c>
+      <c r="B345" t="s">
+        <v>439</v>
+      </c>
+      <c r="C345" t="s">
+        <v>431</v>
+      </c>
+      <c r="D345" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>1623</v>
+      </c>
+      <c r="B346" t="s">
+        <v>11</v>
+      </c>
+      <c r="C346" t="s">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>1624</v>
+      </c>
+      <c r="B347" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347" t="s">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>1625</v>
+      </c>
+      <c r="B348" t="s">
+        <v>11</v>
+      </c>
+      <c r="C348" t="s">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>1626</v>
+      </c>
+      <c r="B349" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349" t="s">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>1627</v>
+      </c>
+      <c r="B350" t="s">
+        <v>11</v>
+      </c>
+      <c r="C350" t="s">
+        <v>11</v>
+      </c>
+      <c r="D350" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>1628</v>
+      </c>
+      <c r="B351" t="s">
+        <v>11</v>
+      </c>
+      <c r="C351" t="s">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>1629</v>
+      </c>
+      <c r="B352" t="s">
+        <v>11</v>
+      </c>
+      <c r="C352" t="s">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>1630</v>
+      </c>
+      <c r="B353" t="s">
+        <v>11</v>
+      </c>
+      <c r="C353" t="s">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>1631</v>
+      </c>
+      <c r="B354" t="s">
+        <v>11</v>
+      </c>
+      <c r="C354" t="s">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>1632</v>
+      </c>
+      <c r="B355" t="s">
+        <v>11</v>
+      </c>
+      <c r="C355" t="s">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>1633</v>
+      </c>
+      <c r="B356" t="s">
+        <v>11</v>
+      </c>
+      <c r="C356" t="s">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>1634</v>
+      </c>
+      <c r="B357" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357" t="s">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>1635</v>
+      </c>
+      <c r="B358" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" t="s">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>1636</v>
+      </c>
+      <c r="B359" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>1637</v>
+      </c>
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" t="s">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>1638</v>
+      </c>
+      <c r="B361" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" t="s">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>1639</v>
+      </c>
+      <c r="B362" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362" t="s">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>1640</v>
+      </c>
+      <c r="B363" t="s">
+        <v>11</v>
+      </c>
+      <c r="C363" t="s">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>1641</v>
+      </c>
+      <c r="B364" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364" t="s">
+        <v>11</v>
+      </c>
+      <c r="D364" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>1642</v>
+      </c>
+      <c r="B365" t="s">
+        <v>11</v>
+      </c>
+      <c r="C365" t="s">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>1643</v>
+      </c>
+      <c r="B366" t="s">
+        <v>11</v>
+      </c>
+      <c r="C366" t="s">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>1644</v>
+      </c>
+      <c r="B367" t="s">
+        <v>11</v>
+      </c>
+      <c r="C367" t="s">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>1645</v>
+      </c>
+      <c r="B368" t="s">
+        <v>11</v>
+      </c>
+      <c r="C368" t="s">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>1646</v>
+      </c>
+      <c r="B369" t="s">
+        <v>11</v>
+      </c>
+      <c r="C369" t="s">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>1647</v>
+      </c>
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370" t="s">
+        <v>11</v>
+      </c>
+      <c r="D370" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>1648</v>
+      </c>
+      <c r="B371" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" t="s">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>1649</v>
+      </c>
+      <c r="B372" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372" t="s">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>1650</v>
+      </c>
+      <c r="B373" t="s">
+        <v>11</v>
+      </c>
+      <c r="C373" t="s">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>1651</v>
+      </c>
+      <c r="B374" t="s">
+        <v>11</v>
+      </c>
+      <c r="C374" t="s">
+        <v>11</v>
+      </c>
+      <c r="D374" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>1652</v>
+      </c>
+      <c r="B375" t="s">
+        <v>11</v>
+      </c>
+      <c r="C375" t="s">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>1653</v>
+      </c>
+      <c r="B376" t="s">
+        <v>11</v>
+      </c>
+      <c r="C376" t="s">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>1654</v>
+      </c>
+      <c r="B377" t="s">
+        <v>11</v>
+      </c>
+      <c r="C377" t="s">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>1655</v>
+      </c>
+      <c r="B378" t="s">
+        <v>11</v>
+      </c>
+      <c r="C378" t="s">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>1656</v>
+      </c>
+      <c r="B379" t="s">
+        <v>11</v>
+      </c>
+      <c r="C379" t="s">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>1657</v>
+      </c>
+      <c r="B380" t="s">
+        <v>11</v>
+      </c>
+      <c r="C380" t="s">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>1658</v>
+      </c>
+      <c r="B381" t="s">
+        <v>11</v>
+      </c>
+      <c r="C381" t="s">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>1659</v>
+      </c>
+      <c r="B382" t="s">
+        <v>11</v>
+      </c>
+      <c r="C382" t="s">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>1660</v>
+      </c>
+      <c r="B383" t="s">
+        <v>11</v>
+      </c>
+      <c r="C383" t="s">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>1661</v>
+      </c>
+      <c r="B384" t="s">
+        <v>11</v>
+      </c>
+      <c r="C384" t="s">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>1662</v>
+      </c>
+      <c r="B385" t="s">
+        <v>11</v>
+      </c>
+      <c r="C385" t="s">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>1663</v>
+      </c>
+      <c r="B386" t="s">
+        <v>11</v>
+      </c>
+      <c r="C386" t="s">
+        <v>11</v>
+      </c>
+      <c r="D386" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>1664</v>
+      </c>
+      <c r="B387" t="s">
+        <v>11</v>
+      </c>
+      <c r="C387" t="s">
+        <v>11</v>
+      </c>
+      <c r="D387" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>1665</v>
+      </c>
+      <c r="B388" t="s">
+        <v>11</v>
+      </c>
+      <c r="C388" t="s">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>1666</v>
+      </c>
+      <c r="B389" t="s">
+        <v>11</v>
+      </c>
+      <c r="C389" t="s">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>1667</v>
+      </c>
+      <c r="B390" t="s">
+        <v>11</v>
+      </c>
+      <c r="C390" t="s">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>1668</v>
+      </c>
+      <c r="B391" t="s">
+        <v>11</v>
+      </c>
+      <c r="C391" t="s">
+        <v>11</v>
+      </c>
+      <c r="D391" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>1669</v>
+      </c>
+      <c r="B392" t="s">
+        <v>11</v>
+      </c>
+      <c r="C392" t="s">
+        <v>11</v>
+      </c>
+      <c r="D392" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>1670</v>
+      </c>
+      <c r="B393" t="s">
+        <v>11</v>
+      </c>
+      <c r="C393" t="s">
+        <v>11</v>
+      </c>
+      <c r="D393" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>1671</v>
+      </c>
+      <c r="B394" t="s">
+        <v>11</v>
+      </c>
+      <c r="C394" t="s">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>1672</v>
+      </c>
+      <c r="B395" t="s">
+        <v>11</v>
+      </c>
+      <c r="C395" t="s">
+        <v>11</v>
+      </c>
+      <c r="D395" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>1673</v>
+      </c>
+      <c r="B396" t="s">
+        <v>11</v>
+      </c>
+      <c r="C396" t="s">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>1674</v>
+      </c>
+      <c r="B397" t="s">
+        <v>11</v>
+      </c>
+      <c r="C397" t="s">
+        <v>11</v>
+      </c>
+      <c r="D397" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>1675</v>
+      </c>
+      <c r="B398" t="s">
+        <v>11</v>
+      </c>
+      <c r="C398" t="s">
+        <v>11</v>
+      </c>
+      <c r="D398" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>1676</v>
+      </c>
+      <c r="B399" t="s">
+        <v>11</v>
+      </c>
+      <c r="C399" t="s">
+        <v>11</v>
+      </c>
+      <c r="D399" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>1677</v>
+      </c>
+      <c r="B400" t="s">
+        <v>11</v>
+      </c>
+      <c r="C400" t="s">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>1678</v>
+      </c>
+      <c r="B401" t="s">
+        <v>11</v>
+      </c>
+      <c r="C401" t="s">
+        <v>11</v>
+      </c>
+      <c r="D401" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>1679</v>
+      </c>
+      <c r="B402" t="s">
+        <v>11</v>
+      </c>
+      <c r="C402" t="s">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>1680</v>
+      </c>
+      <c r="B403" t="s">
+        <v>11</v>
+      </c>
+      <c r="C403" t="s">
+        <v>11</v>
+      </c>
+      <c r="D403" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>1681</v>
+      </c>
+      <c r="B404" t="s">
+        <v>11</v>
+      </c>
+      <c r="C404" t="s">
+        <v>11</v>
+      </c>
+      <c r="D404" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>1682</v>
+      </c>
+      <c r="B405" t="s">
+        <v>11</v>
+      </c>
+      <c r="C405" t="s">
+        <v>11</v>
+      </c>
+      <c r="D405" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>1683</v>
+      </c>
+      <c r="B406" t="s">
+        <v>11</v>
+      </c>
+      <c r="C406" t="s">
+        <v>11</v>
+      </c>
+      <c r="D406" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>1684</v>
+      </c>
+      <c r="B407" t="s">
+        <v>11</v>
+      </c>
+      <c r="C407" t="s">
+        <v>11</v>
+      </c>
+      <c r="D407" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>1685</v>
+      </c>
+      <c r="B408" t="s">
+        <v>11</v>
+      </c>
+      <c r="C408" t="s">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s">
+        <v>457</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
   <si>
     <t>id</t>
   </si>
@@ -1393,24 +1393,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1425,40 +1424,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1746,16 +1731,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1769,12 +1758,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="n">
         <v>1027</v>
       </c>
-      <c r="B2">
-        <v>2899</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1783,8 +1772,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="n">
         <v>1028</v>
       </c>
       <c r="B3" t="s">
@@ -1797,8 +1786,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="n">
         <v>1029</v>
       </c>
       <c r="B4" t="s">
@@ -1811,8 +1800,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="n">
         <v>1030</v>
       </c>
       <c r="B5" t="s">
@@ -1825,8 +1814,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="n">
         <v>1031</v>
       </c>
       <c r="B6" t="s">
@@ -1839,8 +1828,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="n">
         <v>1032</v>
       </c>
       <c r="B7" t="s">
@@ -1853,8 +1842,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="n">
         <v>1033</v>
       </c>
       <c r="B8" t="s">
@@ -1867,8 +1856,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="n">
         <v>1034</v>
       </c>
       <c r="B9" t="s">
@@ -1881,8 +1870,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="n">
         <v>1035</v>
       </c>
       <c r="B10" t="s">
@@ -1895,8 +1884,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="n">
         <v>1036</v>
       </c>
       <c r="B11" t="s">
@@ -1909,8 +1898,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="n">
         <v>1037</v>
       </c>
       <c r="B12" t="s">
@@ -1923,8 +1912,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="n">
         <v>1038</v>
       </c>
       <c r="B13" t="s">
@@ -1937,8 +1926,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="n">
         <v>1039</v>
       </c>
       <c r="B14" t="s">
@@ -1951,8 +1940,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="n">
         <v>1040</v>
       </c>
       <c r="B15" t="s">
@@ -1965,8 +1954,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="n">
         <v>1041</v>
       </c>
       <c r="B16" t="s">
@@ -1979,8 +1968,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="n">
         <v>1042</v>
       </c>
       <c r="B17" t="s">
@@ -1993,8 +1982,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="n">
         <v>1043</v>
       </c>
       <c r="B18" t="s">
@@ -2007,8 +1996,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="n">
         <v>1044</v>
       </c>
       <c r="B19" t="s">
@@ -2021,8 +2010,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="n">
         <v>1045</v>
       </c>
       <c r="B20" t="s">
@@ -2035,8 +2024,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="n">
         <v>1046</v>
       </c>
       <c r="B21" t="s">
@@ -2049,8 +2038,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="n">
         <v>1047</v>
       </c>
       <c r="B22" t="s">
@@ -2063,8 +2052,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="n">
         <v>1048</v>
       </c>
       <c r="B23" t="s">
@@ -2077,8 +2066,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="n">
         <v>1049</v>
       </c>
       <c r="B24" t="s">
@@ -2091,8 +2080,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="n">
         <v>1050</v>
       </c>
       <c r="B25" t="s">
@@ -2105,8 +2094,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="n">
         <v>1051</v>
       </c>
       <c r="B26" t="s">
@@ -2119,8 +2108,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="n">
         <v>1052</v>
       </c>
       <c r="B27" t="s">
@@ -2133,8 +2122,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="n">
         <v>1053</v>
       </c>
       <c r="B28" t="s">
@@ -2147,8 +2136,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="n">
         <v>1054</v>
       </c>
       <c r="B29" t="s">
@@ -2161,8 +2150,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="n">
         <v>1055</v>
       </c>
       <c r="B30" t="s">
@@ -2175,8 +2164,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="n">
         <v>1056</v>
       </c>
       <c r="B31" t="s">
@@ -2189,8 +2178,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="n">
         <v>1057</v>
       </c>
       <c r="B32" t="s">
@@ -2203,8 +2192,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="n">
         <v>1058</v>
       </c>
       <c r="B33" t="s">
@@ -2217,8 +2206,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="n">
         <v>1059</v>
       </c>
       <c r="B34" t="s">
@@ -2231,8 +2220,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="n">
         <v>1060</v>
       </c>
       <c r="B35" t="s">
@@ -2245,8 +2234,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="n">
         <v>1061</v>
       </c>
       <c r="B36" t="s">
@@ -2259,8 +2248,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="n">
         <v>1062</v>
       </c>
       <c r="B37" t="s">
@@ -2273,8 +2262,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="n">
         <v>1063</v>
       </c>
       <c r="B38" t="s">
@@ -2287,8 +2276,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="n">
         <v>1064</v>
       </c>
       <c r="B39" t="s">
@@ -2301,8 +2290,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="n">
         <v>1065</v>
       </c>
       <c r="B40" t="s">
@@ -2315,8 +2304,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="n">
         <v>1066</v>
       </c>
       <c r="B41" t="s">
@@ -2329,8 +2318,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="n">
         <v>1067</v>
       </c>
       <c r="B42" t="s">
@@ -2343,8 +2332,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="n">
         <v>1068</v>
       </c>
       <c r="B43" t="s">
@@ -2357,8 +2346,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="n">
         <v>1069</v>
       </c>
       <c r="B44" t="s">
@@ -2371,8 +2360,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="n">
         <v>1070</v>
       </c>
       <c r="B45" t="s">
@@ -2385,8 +2374,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="n">
         <v>1071</v>
       </c>
       <c r="B46" t="s">
@@ -2399,8 +2388,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="n">
         <v>1072</v>
       </c>
       <c r="B47" t="s">
@@ -2413,8 +2402,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="n">
         <v>1073</v>
       </c>
       <c r="B48" t="s">
@@ -2427,8 +2416,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="n">
         <v>1074</v>
       </c>
       <c r="B49" t="s">
@@ -2441,8 +2430,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="n">
         <v>1075</v>
       </c>
       <c r="B50" t="s">
@@ -2455,8 +2444,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="n">
         <v>1076</v>
       </c>
       <c r="B51" t="s">
@@ -2469,8 +2458,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="n">
         <v>1077</v>
       </c>
       <c r="B52" t="s">
@@ -2483,8 +2472,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="n">
         <v>1078</v>
       </c>
       <c r="B53" t="s">
@@ -2497,8 +2486,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="n">
         <v>1079</v>
       </c>
       <c r="B54" t="s">
@@ -2511,8 +2500,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="n">
         <v>1080</v>
       </c>
       <c r="B55" t="s">
@@ -2525,8 +2514,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="n">
         <v>1081</v>
       </c>
       <c r="B56" t="s">
@@ -2539,8 +2528,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="n">
         <v>1082</v>
       </c>
       <c r="B57" t="s">
@@ -2553,8 +2542,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="n">
         <v>1083</v>
       </c>
       <c r="B58" t="s">
@@ -2567,8 +2556,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="n">
         <v>1084</v>
       </c>
       <c r="B59" t="s">
@@ -2581,8 +2570,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="n">
         <v>1085</v>
       </c>
       <c r="B60" t="s">
@@ -2595,8 +2584,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="n">
         <v>1086</v>
       </c>
       <c r="B61" t="s">
@@ -2609,8 +2598,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="n">
         <v>1087</v>
       </c>
       <c r="B62" t="s">
@@ -2623,8 +2612,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="n">
         <v>1088</v>
       </c>
       <c r="B63" t="s">
@@ -2637,8 +2626,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="n">
         <v>1089</v>
       </c>
       <c r="B64" t="s">
@@ -2651,8 +2640,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="n">
         <v>1090</v>
       </c>
       <c r="B65" t="s">
@@ -2665,8 +2654,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="n">
         <v>1091</v>
       </c>
       <c r="B66" t="s">
@@ -2679,8 +2668,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="n">
         <v>1092</v>
       </c>
       <c r="B67" t="s">
@@ -2693,8 +2682,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="n">
         <v>1093</v>
       </c>
       <c r="B68" t="s">
@@ -2707,8 +2696,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="n">
         <v>1094</v>
       </c>
       <c r="B69" t="s">
@@ -2721,8 +2710,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="n">
         <v>1095</v>
       </c>
       <c r="B70" t="s">
@@ -2735,8 +2724,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="n">
         <v>1096</v>
       </c>
       <c r="B71" t="s">
@@ -2749,8 +2738,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="n">
         <v>1097</v>
       </c>
       <c r="B72" t="s">
@@ -2763,8 +2752,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="n">
         <v>1098</v>
       </c>
       <c r="B73" t="s">
@@ -2777,8 +2766,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="n">
         <v>1099</v>
       </c>
       <c r="B74" t="s">
@@ -2791,8 +2780,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="n">
         <v>1100</v>
       </c>
       <c r="B75" t="s">
@@ -2805,8 +2794,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="n">
         <v>1101</v>
       </c>
       <c r="B76" t="s">
@@ -2819,8 +2808,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="n">
         <v>1102</v>
       </c>
       <c r="B77" t="s">
@@ -2833,8 +2822,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="n">
         <v>1103</v>
       </c>
       <c r="B78" t="s">
@@ -2847,8 +2836,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="n">
         <v>1104</v>
       </c>
       <c r="B79" t="s">
@@ -2861,8 +2850,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="n">
         <v>1105</v>
       </c>
       <c r="B80" t="s">
@@ -2875,8 +2864,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="n">
         <v>1106</v>
       </c>
       <c r="B81" t="s">
@@ -2889,8 +2878,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="n">
         <v>1107</v>
       </c>
       <c r="B82" t="s">
@@ -2903,8 +2892,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="n">
         <v>1108</v>
       </c>
       <c r="B83" t="s">
@@ -2917,8 +2906,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="n">
         <v>1109</v>
       </c>
       <c r="B84" t="s">
@@ -2931,8 +2920,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="n">
         <v>1110</v>
       </c>
       <c r="B85" t="s">
@@ -2945,8 +2934,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="n">
         <v>1111</v>
       </c>
       <c r="B86" t="s">
@@ -2959,8 +2948,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="n">
         <v>1112</v>
       </c>
       <c r="B87" t="s">
@@ -2973,8 +2962,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="n">
         <v>1113</v>
       </c>
       <c r="B88" t="s">
@@ -2987,8 +2976,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="n">
         <v>1114</v>
       </c>
       <c r="B89" t="s">
@@ -3001,8 +2990,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="n">
         <v>1115</v>
       </c>
       <c r="B90" t="s">
@@ -3015,8 +3004,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="n">
         <v>1116</v>
       </c>
       <c r="B91" t="s">
@@ -3029,8 +3018,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="n">
         <v>1117</v>
       </c>
       <c r="B92" t="s">
@@ -3043,8 +3032,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="n">
         <v>1118</v>
       </c>
       <c r="B93" t="s">
@@ -3057,8 +3046,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="n">
         <v>1119</v>
       </c>
       <c r="B94" t="s">
@@ -3071,8 +3060,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="n">
         <v>1120</v>
       </c>
       <c r="B95" t="s">
@@ -3085,8 +3074,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="n">
         <v>1121</v>
       </c>
       <c r="B96" t="s">
@@ -3099,8 +3088,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="n">
         <v>1122</v>
       </c>
       <c r="B97" t="s">
@@ -3113,8 +3102,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="n">
         <v>1123</v>
       </c>
       <c r="B98" t="s">
@@ -3127,8 +3116,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="n">
         <v>1124</v>
       </c>
       <c r="B99" t="s">
@@ -3141,8 +3130,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="n">
         <v>1125</v>
       </c>
       <c r="B100" t="s">
@@ -3155,8 +3144,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="n">
         <v>1126</v>
       </c>
       <c r="B101" t="s">
@@ -3169,8 +3158,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="n">
         <v>1127</v>
       </c>
       <c r="B102" t="s">
@@ -3183,8 +3172,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="n">
         <v>1128</v>
       </c>
       <c r="B103" t="s">
@@ -3197,8 +3186,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="n">
         <v>1129</v>
       </c>
       <c r="B104" t="s">
@@ -3211,8 +3200,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="n">
         <v>1130</v>
       </c>
       <c r="B105" t="s">
@@ -3225,8 +3214,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="n">
         <v>1131</v>
       </c>
       <c r="B106" t="s">
@@ -3239,8 +3228,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="n">
         <v>1132</v>
       </c>
       <c r="B107" t="s">
@@ -3253,8 +3242,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="n">
         <v>1133</v>
       </c>
       <c r="B108" t="s">
@@ -3267,8 +3256,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="n">
         <v>1134</v>
       </c>
       <c r="B109" t="s">
@@ -3281,8 +3270,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="n">
         <v>1135</v>
       </c>
       <c r="B110" t="s">
@@ -3295,8 +3284,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="n">
         <v>1136</v>
       </c>
       <c r="B111" t="s">
@@ -3309,8 +3298,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="n">
         <v>1137</v>
       </c>
       <c r="B112" t="s">
@@ -3323,8 +3312,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="n">
         <v>1138</v>
       </c>
       <c r="B113" t="s">
@@ -3337,8 +3326,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="n">
         <v>1139</v>
       </c>
       <c r="B114" t="s">
@@ -3351,8 +3340,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="n">
         <v>1140</v>
       </c>
       <c r="B115" t="s">
@@ -3365,8 +3354,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="n">
         <v>1141</v>
       </c>
       <c r="B116" t="s">
@@ -3379,8 +3368,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="n">
         <v>1142</v>
       </c>
       <c r="B117" t="s">
@@ -3393,8 +3382,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="n">
         <v>1143</v>
       </c>
       <c r="B118" t="s">
@@ -3407,8 +3396,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="n">
         <v>1144</v>
       </c>
       <c r="B119" t="s">
@@ -3421,8 +3410,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="n">
         <v>1145</v>
       </c>
       <c r="B120" t="s">
@@ -3435,8 +3424,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="n">
         <v>1146</v>
       </c>
       <c r="B121" t="s">
@@ -3449,8 +3438,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="n">
         <v>1147</v>
       </c>
       <c r="B122" t="s">
@@ -3463,8 +3452,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="n">
         <v>1148</v>
       </c>
       <c r="B123" t="s">
@@ -3477,8 +3466,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="n">
         <v>1149</v>
       </c>
       <c r="B124" t="s">
@@ -3491,8 +3480,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="n">
         <v>1150</v>
       </c>
       <c r="B125" t="s">
@@ -3505,8 +3494,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="n">
         <v>1151</v>
       </c>
       <c r="B126" t="s">
@@ -3519,8 +3508,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="n">
         <v>1152</v>
       </c>
       <c r="B127" t="s">
@@ -3533,8 +3522,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="n">
         <v>1153</v>
       </c>
       <c r="B128" t="s">
@@ -3547,8 +3536,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="n">
         <v>1154</v>
       </c>
       <c r="B129" t="s">
@@ -3561,8 +3550,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="n">
         <v>1155</v>
       </c>
       <c r="B130" t="s">
@@ -3575,8 +3564,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="n">
         <v>1156</v>
       </c>
       <c r="B131" t="s">
@@ -3589,8 +3578,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="n">
         <v>1157</v>
       </c>
       <c r="B132" t="s">
@@ -3603,8 +3592,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="n">
         <v>1158</v>
       </c>
       <c r="B133" t="s">
@@ -3617,8 +3606,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="n">
         <v>1159</v>
       </c>
       <c r="B134" t="s">
@@ -3631,8 +3620,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="n">
         <v>1160</v>
       </c>
       <c r="B135" t="s">
@@ -3645,8 +3634,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="n">
         <v>1161</v>
       </c>
       <c r="B136" t="s">
@@ -3659,8 +3648,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="n">
         <v>1162</v>
       </c>
       <c r="B137" t="s">
@@ -3673,8 +3662,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="n">
         <v>1163</v>
       </c>
       <c r="B138" t="s">
@@ -3687,8 +3676,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="n">
         <v>1164</v>
       </c>
       <c r="B139" t="s">
@@ -3701,8 +3690,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="n">
         <v>1165</v>
       </c>
       <c r="B140" t="s">
@@ -3715,8 +3704,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="n">
         <v>1166</v>
       </c>
       <c r="B141" t="s">
@@ -3729,8 +3718,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="n">
         <v>1167</v>
       </c>
       <c r="B142" t="s">
@@ -3743,8 +3732,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="n">
         <v>1168</v>
       </c>
       <c r="B143" t="s">
@@ -3757,8 +3746,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="n">
         <v>1169</v>
       </c>
       <c r="B144" t="s">
@@ -3771,8 +3760,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="n">
         <v>1170</v>
       </c>
       <c r="B145" t="s">
@@ -3785,8 +3774,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="n">
         <v>1171</v>
       </c>
       <c r="B146" t="s">
@@ -3799,8 +3788,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="n">
         <v>1172</v>
       </c>
       <c r="B147" t="s">
@@ -3813,8 +3802,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="n">
         <v>1173</v>
       </c>
       <c r="B148" t="s">
@@ -3827,8 +3816,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="n">
         <v>1174</v>
       </c>
       <c r="B149" t="s">
@@ -3841,8 +3830,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="n">
         <v>1175</v>
       </c>
       <c r="B150" t="s">
@@ -3855,8 +3844,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="n">
         <v>1176</v>
       </c>
       <c r="B151" t="s">
@@ -3869,8 +3858,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="n">
         <v>1177</v>
       </c>
       <c r="B152" t="s">
@@ -3883,8 +3872,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="n">
         <v>1178</v>
       </c>
       <c r="B153" t="s">
@@ -3897,8 +3886,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="n">
         <v>1179</v>
       </c>
       <c r="B154" t="s">
@@ -3911,8 +3900,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="n">
         <v>1180</v>
       </c>
       <c r="B155" t="s">
@@ -3925,8 +3914,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="n">
         <v>1181</v>
       </c>
       <c r="B156" t="s">
@@ -3939,8 +3928,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="n">
         <v>1182</v>
       </c>
       <c r="B157" t="s">
@@ -3953,8 +3942,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="n">
         <v>1183</v>
       </c>
       <c r="B158" t="s">
@@ -3967,8 +3956,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="n">
         <v>1184</v>
       </c>
       <c r="B159" t="s">
@@ -3981,8 +3970,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="n">
         <v>1185</v>
       </c>
       <c r="B160" t="s">
@@ -3995,8 +3984,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="n">
         <v>1186</v>
       </c>
       <c r="B161" t="s">
@@ -4009,8 +3998,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="n">
         <v>1187</v>
       </c>
       <c r="B162" t="s">
@@ -4023,8 +4012,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="n">
         <v>1188</v>
       </c>
       <c r="B163" t="s">
@@ -4037,8 +4026,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="n">
         <v>1189</v>
       </c>
       <c r="B164" t="s">
@@ -4051,8 +4040,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="n">
         <v>1190</v>
       </c>
       <c r="B165" t="s">
@@ -4065,8 +4054,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="n">
         <v>1191</v>
       </c>
       <c r="B166" t="s">
@@ -4079,8 +4068,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="n">
         <v>1192</v>
       </c>
       <c r="B167" t="s">
@@ -4093,8 +4082,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="n">
         <v>1193</v>
       </c>
       <c r="B168" t="s">
@@ -4107,8 +4096,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="n">
         <v>1194</v>
       </c>
       <c r="B169" t="s">
@@ -4121,8 +4110,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="n">
         <v>1195</v>
       </c>
       <c r="B170" t="s">
@@ -4135,8 +4124,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="n">
         <v>1196</v>
       </c>
       <c r="B171" t="s">
@@ -4149,8 +4138,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="n">
         <v>1197</v>
       </c>
       <c r="B172" t="s">
@@ -4163,8 +4152,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="n">
         <v>1198</v>
       </c>
       <c r="B173" t="s">
@@ -4177,8 +4166,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="n">
         <v>1199</v>
       </c>
       <c r="B174" t="s">
@@ -4191,8 +4180,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="B175" t="s">
@@ -4205,8 +4194,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="n">
         <v>1201</v>
       </c>
       <c r="B176" t="s">
@@ -4219,8 +4208,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="n">
         <v>1202</v>
       </c>
       <c r="B177" t="s">
@@ -4233,8 +4222,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="n">
         <v>1203</v>
       </c>
       <c r="B178" t="s">
@@ -4247,8 +4236,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="n">
         <v>1204</v>
       </c>
       <c r="B179" t="s">
@@ -4261,8 +4250,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="n">
         <v>1205</v>
       </c>
       <c r="B180" t="s">
@@ -4275,8 +4264,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="n">
         <v>1206</v>
       </c>
       <c r="B181" t="s">
@@ -4289,8 +4278,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="n">
         <v>1207</v>
       </c>
       <c r="B182" t="s">
@@ -4303,8 +4292,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="n">
         <v>1208</v>
       </c>
       <c r="B183" t="s">
@@ -4317,8 +4306,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="n">
         <v>1209</v>
       </c>
       <c r="B184" t="s">
@@ -4331,8 +4320,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="n">
         <v>1210</v>
       </c>
       <c r="B185" t="s">
@@ -4345,8 +4334,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="n">
         <v>1211</v>
       </c>
       <c r="B186" t="s">
@@ -4359,8 +4348,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="n">
         <v>1212</v>
       </c>
       <c r="B187" t="s">
@@ -4373,8 +4362,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="n">
         <v>1213</v>
       </c>
       <c r="B188" t="s">
@@ -4387,8 +4376,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="n">
         <v>1214</v>
       </c>
       <c r="B189" t="s">
@@ -4401,8 +4390,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="n">
         <v>1215</v>
       </c>
       <c r="B190" t="s">
@@ -4415,8 +4404,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="n">
         <v>1216</v>
       </c>
       <c r="B191" t="s">
@@ -4429,8 +4418,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="n">
         <v>1217</v>
       </c>
       <c r="B192" t="s">
@@ -4443,8 +4432,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="n">
         <v>1218</v>
       </c>
       <c r="B193" t="s">
@@ -4457,8 +4446,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="n">
         <v>1219</v>
       </c>
       <c r="B194" t="s">
@@ -4471,8 +4460,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="n">
         <v>1220</v>
       </c>
       <c r="B195" t="s">
@@ -4485,8 +4474,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="n">
         <v>1221</v>
       </c>
       <c r="B196" t="s">
@@ -4499,8 +4488,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="n">
         <v>1222</v>
       </c>
       <c r="B197" t="s">
@@ -4513,8 +4502,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="n">
         <v>1223</v>
       </c>
       <c r="B198" t="s">
@@ -4527,8 +4516,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="n">
         <v>1224</v>
       </c>
       <c r="B199" t="s">
@@ -4541,8 +4530,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="n">
         <v>1225</v>
       </c>
       <c r="B200" t="s">
@@ -4555,8 +4544,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="n">
         <v>1226</v>
       </c>
       <c r="B201" t="s">
@@ -4569,8 +4558,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="n">
         <v>1227</v>
       </c>
       <c r="B202" t="s">
@@ -4583,8 +4572,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="n">
         <v>1228</v>
       </c>
       <c r="B203" t="s">
@@ -4597,8 +4586,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="n">
         <v>1229</v>
       </c>
       <c r="B204" t="s">
@@ -4611,8 +4600,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="n">
         <v>1230</v>
       </c>
       <c r="B205" t="s">
@@ -4625,8 +4614,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="n">
         <v>1231</v>
       </c>
       <c r="B206" t="s">
@@ -4639,8 +4628,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="n">
         <v>1232</v>
       </c>
       <c r="B207" t="s">
@@ -4653,8 +4642,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="n">
         <v>1233</v>
       </c>
       <c r="B208" t="s">
@@ -4667,8 +4656,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="n">
         <v>1234</v>
       </c>
       <c r="B209" t="s">
@@ -4681,8 +4670,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="n">
         <v>1235</v>
       </c>
       <c r="B210" t="s">
@@ -4695,8 +4684,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="n">
         <v>1236</v>
       </c>
       <c r="B211" t="s">
@@ -4709,8 +4698,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="n">
         <v>1237</v>
       </c>
       <c r="B212" t="s">
@@ -4723,8 +4712,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="n">
         <v>1238</v>
       </c>
       <c r="B213" t="s">
@@ -4737,8 +4726,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="n">
         <v>1239</v>
       </c>
       <c r="B214" t="s">
@@ -4751,8 +4740,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="n">
         <v>1240</v>
       </c>
       <c r="B215" t="s">
@@ -4765,8 +4754,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="n">
         <v>1241</v>
       </c>
       <c r="B216" t="s">
@@ -4779,8 +4768,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="n">
         <v>1242</v>
       </c>
       <c r="B217" t="s">
@@ -4793,8 +4782,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="n">
         <v>1243</v>
       </c>
       <c r="B218" t="s">
@@ -4807,8 +4796,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="n">
         <v>1244</v>
       </c>
       <c r="B219" t="s">
@@ -4821,8 +4810,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="n">
         <v>1245</v>
       </c>
       <c r="B220" t="s">
@@ -4835,8 +4824,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="n">
         <v>1246</v>
       </c>
       <c r="B221" t="s">
@@ -4849,8 +4838,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="n">
         <v>1247</v>
       </c>
       <c r="B222" t="s">
@@ -4863,8 +4852,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="n">
         <v>1248</v>
       </c>
       <c r="B223" t="s">
@@ -4877,8 +4866,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="n">
         <v>1249</v>
       </c>
       <c r="B224" t="s">
@@ -4891,8 +4880,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="n">
         <v>1250</v>
       </c>
       <c r="B225" t="s">
@@ -4905,8 +4894,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="n">
         <v>1251</v>
       </c>
       <c r="B226" t="s">
@@ -4919,8 +4908,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="n">
         <v>1252</v>
       </c>
       <c r="B227" t="s">
@@ -4933,8 +4922,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="n">
         <v>1253</v>
       </c>
       <c r="B228" t="s">
@@ -4947,8 +4936,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="n">
         <v>1254</v>
       </c>
       <c r="B229" t="s">
@@ -4961,8 +4950,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="n">
         <v>1255</v>
       </c>
       <c r="B230" t="s">
@@ -4975,8 +4964,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
+    <row r="231" spans="1:4">
+      <c r="A231" s="1" t="n">
         <v>1256</v>
       </c>
       <c r="B231" t="s">
@@ -4989,8 +4978,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
+    <row r="232" spans="1:4">
+      <c r="A232" s="1" t="n">
         <v>1257</v>
       </c>
       <c r="B232" t="s">
@@ -5003,8 +4992,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
+    <row r="233" spans="1:4">
+      <c r="A233" s="1" t="n">
         <v>1258</v>
       </c>
       <c r="B233" t="s">
@@ -5017,8 +5006,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
+    <row r="234" spans="1:4">
+      <c r="A234" s="1" t="n">
         <v>1259</v>
       </c>
       <c r="B234" t="s">
@@ -5031,8 +5020,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
+    <row r="235" spans="1:4">
+      <c r="A235" s="1" t="n">
         <v>1260</v>
       </c>
       <c r="B235" t="s">
@@ -5045,8 +5034,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
+    <row r="236" spans="1:4">
+      <c r="A236" s="1" t="n">
         <v>1261</v>
       </c>
       <c r="B236" t="s">
@@ -5059,8 +5048,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
+    <row r="237" spans="1:4">
+      <c r="A237" s="1" t="n">
         <v>1262</v>
       </c>
       <c r="B237" t="s">
@@ -5073,8 +5062,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
+    <row r="238" spans="1:4">
+      <c r="A238" s="1" t="n">
         <v>1263</v>
       </c>
       <c r="B238" t="s">
@@ -5087,8 +5076,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
+    <row r="239" spans="1:4">
+      <c r="A239" s="1" t="n">
         <v>1264</v>
       </c>
       <c r="B239" t="s">
@@ -5101,8 +5090,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
+    <row r="240" spans="1:4">
+      <c r="A240" s="1" t="n">
         <v>1265</v>
       </c>
       <c r="B240" t="s">
@@ -5115,8 +5104,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
+    <row r="241" spans="1:4">
+      <c r="A241" s="1" t="n">
         <v>1266</v>
       </c>
       <c r="B241" t="s">
@@ -5129,8 +5118,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
+    <row r="242" spans="1:4">
+      <c r="A242" s="1" t="n">
         <v>1267</v>
       </c>
       <c r="B242" t="s">
@@ -5143,8 +5132,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
+    <row r="243" spans="1:4">
+      <c r="A243" s="1" t="n">
         <v>1268</v>
       </c>
       <c r="B243" t="s">
@@ -5157,8 +5146,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
+    <row r="244" spans="1:4">
+      <c r="A244" s="1" t="n">
         <v>1269</v>
       </c>
       <c r="B244" t="s">
@@ -5171,8 +5160,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
+    <row r="245" spans="1:4">
+      <c r="A245" s="1" t="n">
         <v>1270</v>
       </c>
       <c r="B245" t="s">
@@ -5185,8 +5174,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="n">
         <v>1271</v>
       </c>
       <c r="B246" t="s">
@@ -5199,8 +5188,8 @@
         <v>323</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
+    <row r="247" spans="1:4">
+      <c r="A247" s="1" t="n">
         <v>1272</v>
       </c>
       <c r="B247" t="s">
@@ -5213,8 +5202,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
+    <row r="248" spans="1:4">
+      <c r="A248" s="1" t="n">
         <v>1273</v>
       </c>
       <c r="B248" t="s">
@@ -5227,8 +5216,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
+    <row r="249" spans="1:4">
+      <c r="A249" s="1" t="n">
         <v>1274</v>
       </c>
       <c r="B249" t="s">
@@ -5241,8 +5230,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
+    <row r="250" spans="1:4">
+      <c r="A250" s="1" t="n">
         <v>1275</v>
       </c>
       <c r="B250" t="s">
@@ -5255,8 +5244,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
+    <row r="251" spans="1:4">
+      <c r="A251" s="1" t="n">
         <v>1276</v>
       </c>
       <c r="B251" t="s">
@@ -5269,8 +5258,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
+    <row r="252" spans="1:4">
+      <c r="A252" s="1" t="n">
         <v>1277</v>
       </c>
       <c r="B252" t="s">
@@ -5283,8 +5272,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
+    <row r="253" spans="1:4">
+      <c r="A253" s="1" t="n">
         <v>1278</v>
       </c>
       <c r="B253" t="s">
@@ -5297,8 +5286,8 @@
         <v>337</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
+    <row r="254" spans="1:4">
+      <c r="A254" s="1" t="n">
         <v>1279</v>
       </c>
       <c r="B254" t="s">
@@ -5311,8 +5300,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
+    <row r="255" spans="1:4">
+      <c r="A255" s="1" t="n">
         <v>1280</v>
       </c>
       <c r="B255" t="s">
@@ -5325,8 +5314,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
+    <row r="256" spans="1:4">
+      <c r="A256" s="1" t="n">
         <v>1281</v>
       </c>
       <c r="B256" t="s">
@@ -5339,8 +5328,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="n">
         <v>1282</v>
       </c>
       <c r="B257" t="s">
@@ -5353,8 +5342,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
+    <row r="258" spans="1:4">
+      <c r="A258" s="1" t="n">
         <v>1283</v>
       </c>
       <c r="B258" t="s">
@@ -5367,8 +5356,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="n">
         <v>1284</v>
       </c>
       <c r="B259" t="s">
@@ -5381,8 +5370,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
+    <row r="260" spans="1:4">
+      <c r="A260" s="1" t="n">
         <v>1285</v>
       </c>
       <c r="B260" t="s">
@@ -5395,8 +5384,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
+    <row r="261" spans="1:4">
+      <c r="A261" s="1" t="n">
         <v>1286</v>
       </c>
       <c r="B261" t="s">
@@ -5409,8 +5398,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
+    <row r="262" spans="1:4">
+      <c r="A262" s="1" t="n">
         <v>1287</v>
       </c>
       <c r="B262" t="s">
@@ -5423,8 +5412,8 @@
         <v>355</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
+    <row r="263" spans="1:4">
+      <c r="A263" s="1" t="n">
         <v>1288</v>
       </c>
       <c r="B263" t="s">
@@ -5437,8 +5426,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
+    <row r="264" spans="1:4">
+      <c r="A264" s="1" t="n">
         <v>1289</v>
       </c>
       <c r="B264" t="s">
@@ -5451,8 +5440,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
+    <row r="265" spans="1:4">
+      <c r="A265" s="1" t="n">
         <v>1290</v>
       </c>
       <c r="B265" t="s">
@@ -5465,8 +5454,8 @@
         <v>359</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
+    <row r="266" spans="1:4">
+      <c r="A266" s="1" t="n">
         <v>1291</v>
       </c>
       <c r="B266" t="s">
@@ -5479,8 +5468,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
+    <row r="267" spans="1:4">
+      <c r="A267" s="1" t="n">
         <v>1292</v>
       </c>
       <c r="B267" t="s">
@@ -5493,8 +5482,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
+    <row r="268" spans="1:4">
+      <c r="A268" s="1" t="n">
         <v>1293</v>
       </c>
       <c r="B268" t="s">
@@ -5507,8 +5496,8 @@
         <v>364</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
+    <row r="269" spans="1:4">
+      <c r="A269" s="1" t="n">
         <v>1294</v>
       </c>
       <c r="B269" t="s">
@@ -5521,8 +5510,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
+    <row r="270" spans="1:4">
+      <c r="A270" s="1" t="n">
         <v>1295</v>
       </c>
       <c r="B270" t="s">
@@ -5535,8 +5524,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
+    <row r="271" spans="1:4">
+      <c r="A271" s="1" t="n">
         <v>1296</v>
       </c>
       <c r="B271" t="s">
@@ -5549,8 +5538,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
+    <row r="272" spans="1:4">
+      <c r="A272" s="1" t="n">
         <v>1297</v>
       </c>
       <c r="B272" t="s">
@@ -5563,8 +5552,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
+    <row r="273" spans="1:4">
+      <c r="A273" s="1" t="n">
         <v>1298</v>
       </c>
       <c r="B273" t="s">
@@ -5577,8 +5566,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
+    <row r="274" spans="1:4">
+      <c r="A274" s="1" t="n">
         <v>1299</v>
       </c>
       <c r="B274" t="s">
@@ -5591,8 +5580,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
+    <row r="275" spans="1:4">
+      <c r="A275" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="B275" t="s">
@@ -5605,8 +5594,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
+    <row r="276" spans="1:4">
+      <c r="A276" s="1" t="n">
         <v>1301</v>
       </c>
       <c r="B276" t="s">
@@ -5619,8 +5608,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
+    <row r="277" spans="1:4">
+      <c r="A277" s="1" t="n">
         <v>1302</v>
       </c>
       <c r="B277" t="s">
@@ -5633,8 +5622,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
+    <row r="278" spans="1:4">
+      <c r="A278" s="1" t="n">
         <v>1303</v>
       </c>
       <c r="B278" t="s">
@@ -5647,8 +5636,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
+    <row r="279" spans="1:4">
+      <c r="A279" s="1" t="n">
         <v>1304</v>
       </c>
       <c r="B279" t="s">
@@ -5661,8 +5650,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
+    <row r="280" spans="1:4">
+      <c r="A280" s="1" t="n">
         <v>1305</v>
       </c>
       <c r="B280" t="s">
@@ -5675,8 +5664,8 @@
         <v>369</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
+    <row r="281" spans="1:4">
+      <c r="A281" s="1" t="n">
         <v>1306</v>
       </c>
       <c r="B281" t="s">
@@ -5689,8 +5678,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
+    <row r="282" spans="1:4">
+      <c r="A282" s="1" t="n">
         <v>1307</v>
       </c>
       <c r="B282" t="s">
@@ -5703,8 +5692,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
+    <row r="283" spans="1:4">
+      <c r="A283" s="1" t="n">
         <v>1308</v>
       </c>
       <c r="B283" t="s">
@@ -5717,8 +5706,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
+    <row r="284" spans="1:4">
+      <c r="A284" s="1" t="n">
         <v>1309</v>
       </c>
       <c r="B284" t="s">
@@ -5731,8 +5720,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
+    <row r="285" spans="1:4">
+      <c r="A285" s="1" t="n">
         <v>1310</v>
       </c>
       <c r="B285" t="s">
@@ -5745,8 +5734,8 @@
         <v>369</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
+    <row r="286" spans="1:4">
+      <c r="A286" s="1" t="n">
         <v>1311</v>
       </c>
       <c r="B286" t="s">
@@ -5759,8 +5748,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
+    <row r="287" spans="1:4">
+      <c r="A287" s="1" t="n">
         <v>1312</v>
       </c>
       <c r="B287" t="s">
@@ -5773,8 +5762,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
+    <row r="288" spans="1:4">
+      <c r="A288" s="1" t="n">
         <v>1313</v>
       </c>
       <c r="B288" t="s">
@@ -5787,8 +5776,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
+    <row r="289" spans="1:4">
+      <c r="A289" s="1" t="n">
         <v>1314</v>
       </c>
       <c r="B289" t="s">
@@ -5801,8 +5790,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
+    <row r="290" spans="1:4">
+      <c r="A290" s="1" t="n">
         <v>1315</v>
       </c>
       <c r="B290" t="s">
@@ -5815,8 +5804,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
+    <row r="291" spans="1:4">
+      <c r="A291" s="1" t="n">
         <v>1316</v>
       </c>
       <c r="B291" t="s">
@@ -5829,8 +5818,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="n">
         <v>1317</v>
       </c>
       <c r="B292" t="s">
@@ -5843,8 +5832,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
+    <row r="293" spans="1:4">
+      <c r="A293" s="1" t="n">
         <v>1318</v>
       </c>
       <c r="B293" t="s">
@@ -5857,8 +5846,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
+    <row r="294" spans="1:4">
+      <c r="A294" s="1" t="n">
         <v>1319</v>
       </c>
       <c r="B294" t="s">
@@ -5871,8 +5860,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
+    <row r="295" spans="1:4">
+      <c r="A295" s="1" t="n">
         <v>1320</v>
       </c>
       <c r="B295" t="s">
@@ -5885,8 +5874,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
+    <row r="296" spans="1:4">
+      <c r="A296" s="1" t="n">
         <v>1321</v>
       </c>
       <c r="B296" t="s">
@@ -5899,8 +5888,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
+    <row r="297" spans="1:4">
+      <c r="A297" s="1" t="n">
         <v>1322</v>
       </c>
       <c r="B297" t="s">
@@ -5913,8 +5902,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
+    <row r="298" spans="1:4">
+      <c r="A298" s="1" t="n">
         <v>1323</v>
       </c>
       <c r="B298" t="s">
@@ -5927,8 +5916,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
+    <row r="299" spans="1:4">
+      <c r="A299" s="1" t="n">
         <v>1324</v>
       </c>
       <c r="B299" t="s">
@@ -5941,8 +5930,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
+    <row r="300" spans="1:4">
+      <c r="A300" s="1" t="n">
         <v>1325</v>
       </c>
       <c r="B300" t="s">
@@ -5955,8 +5944,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="n">
         <v>1326</v>
       </c>
       <c r="B301" t="s">
@@ -5969,8 +5958,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
+    <row r="302" spans="1:4">
+      <c r="A302" s="1" t="n">
         <v>1327</v>
       </c>
       <c r="B302" t="s">
@@ -5983,8 +5972,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="1">
+    <row r="303" spans="1:4">
+      <c r="A303" s="1" t="n">
         <v>1328</v>
       </c>
       <c r="B303" t="s">
@@ -5997,8 +5986,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
+    <row r="304" spans="1:4">
+      <c r="A304" s="1" t="n">
         <v>1329</v>
       </c>
       <c r="B304" t="s">
@@ -6011,8 +6000,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
+    <row r="305" spans="1:4">
+      <c r="A305" s="1" t="n">
         <v>1330</v>
       </c>
       <c r="B305" t="s">
@@ -6025,8 +6014,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="1">
+    <row r="306" spans="1:4">
+      <c r="A306" s="1" t="n">
         <v>1331</v>
       </c>
       <c r="B306" t="s">
@@ -6039,8 +6028,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
+    <row r="307" spans="1:4">
+      <c r="A307" s="1" t="n">
         <v>1332</v>
       </c>
       <c r="B307" t="s">
@@ -6053,8 +6042,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
+    <row r="308" spans="1:4">
+      <c r="A308" s="1" t="n">
         <v>1333</v>
       </c>
       <c r="B308" t="s">
@@ -6067,8 +6056,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="1">
+    <row r="309" spans="1:4">
+      <c r="A309" s="1" t="n">
         <v>1334</v>
       </c>
       <c r="B309" t="s">
@@ -6081,8 +6070,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="1">
+    <row r="310" spans="1:4">
+      <c r="A310" s="1" t="n">
         <v>1335</v>
       </c>
       <c r="B310" t="s">
@@ -6095,8 +6084,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="1">
+    <row r="311" spans="1:4">
+      <c r="A311" s="1" t="n">
         <v>1336</v>
       </c>
       <c r="B311" t="s">
@@ -6109,8 +6098,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="1">
+    <row r="312" spans="1:4">
+      <c r="A312" s="1" t="n">
         <v>1337</v>
       </c>
       <c r="B312" t="s">
@@ -6123,8 +6112,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="1">
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="n">
         <v>1338</v>
       </c>
       <c r="B313" t="s">
@@ -6137,8 +6126,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="1">
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="n">
         <v>1339</v>
       </c>
       <c r="B314" t="s">
@@ -6151,8 +6140,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
+    <row r="315" spans="1:4">
+      <c r="A315" s="1" t="n">
         <v>1340</v>
       </c>
       <c r="B315" t="s">
@@ -6165,8 +6154,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="1">
+    <row r="316" spans="1:4">
+      <c r="A316" s="1" t="n">
         <v>1341</v>
       </c>
       <c r="B316" t="s">
@@ -6179,8 +6168,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="1">
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="n">
         <v>1342</v>
       </c>
       <c r="B317" t="s">
@@ -6193,8 +6182,8 @@
         <v>414</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="1">
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="n">
         <v>1343</v>
       </c>
       <c r="B318" t="s">
@@ -6207,8 +6196,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="n">
         <v>1344</v>
       </c>
       <c r="B319" t="s">
@@ -6221,8 +6210,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="1">
+    <row r="320" spans="1:4">
+      <c r="A320" s="1" t="n">
         <v>1345</v>
       </c>
       <c r="B320" t="s">
@@ -6235,8 +6224,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="1">
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="n">
         <v>1346</v>
       </c>
       <c r="B321" t="s">
@@ -6249,8 +6238,8 @@
         <v>420</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="1">
+    <row r="322" spans="1:4">
+      <c r="A322" s="1" t="n">
         <v>1347</v>
       </c>
       <c r="B322" t="s">
@@ -6263,8 +6252,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="1">
+    <row r="323" spans="1:4">
+      <c r="A323" s="1" t="n">
         <v>1348</v>
       </c>
       <c r="B323" t="s">
@@ -6277,8 +6266,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="n">
         <v>1349</v>
       </c>
       <c r="B324" t="s">
@@ -6291,8 +6280,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="1">
+    <row r="325" spans="1:4">
+      <c r="A325" s="1" t="n">
         <v>1350</v>
       </c>
       <c r="B325" t="s">
@@ -6305,8 +6294,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="1">
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="n">
         <v>1351</v>
       </c>
       <c r="B326" t="s">
@@ -6319,8 +6308,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="n">
         <v>1352</v>
       </c>
       <c r="B327" t="s">
@@ -6333,8 +6322,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="1">
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="n">
         <v>1353</v>
       </c>
       <c r="B328" t="s">
@@ -6347,8 +6336,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
+    <row r="329" spans="1:4">
+      <c r="A329" s="1" t="n">
         <v>1354</v>
       </c>
       <c r="B329" t="s">
@@ -6361,8 +6350,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="1">
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="n">
         <v>1355</v>
       </c>
       <c r="B330" t="s">
@@ -6375,8 +6364,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="1">
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="n">
         <v>1356</v>
       </c>
       <c r="B331" t="s">
@@ -6389,8 +6378,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="1">
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="n">
         <v>1357</v>
       </c>
       <c r="B332" t="s">
@@ -6403,8 +6392,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="n">
         <v>1358</v>
       </c>
       <c r="B333" t="s">
@@ -6417,8 +6406,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="1">
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="n">
         <v>1359</v>
       </c>
       <c r="B334" t="s">
@@ -6431,8 +6420,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="1">
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="n">
         <v>1360</v>
       </c>
       <c r="B335" t="s">
@@ -6445,8 +6434,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="1">
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="n">
         <v>1361</v>
       </c>
       <c r="B336" t="s">
@@ -6459,8 +6448,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="n">
         <v>1362</v>
       </c>
       <c r="B337" t="s">
@@ -6473,8 +6462,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="1">
+    <row r="338" spans="1:4">
+      <c r="A338" s="1" t="n">
         <v>1363</v>
       </c>
       <c r="B338" t="s">
@@ -6487,8 +6476,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="n">
         <v>1364</v>
       </c>
       <c r="B339" t="s">
@@ -6501,8 +6490,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
+    <row r="340" spans="1:4">
+      <c r="A340" s="1" t="n">
         <v>1365</v>
       </c>
       <c r="B340" t="s">
@@ -6515,8 +6504,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
+    <row r="341" spans="1:4">
+      <c r="A341" s="1" t="n">
         <v>1366</v>
       </c>
       <c r="B341" t="s">
@@ -6529,8 +6518,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
+    <row r="342" spans="1:4">
+      <c r="A342" s="1" t="n">
         <v>1367</v>
       </c>
       <c r="B342" t="s">
@@ -6543,8 +6532,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="n">
         <v>1368</v>
       </c>
       <c r="B343" t="s">
@@ -6557,8 +6546,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
+    <row r="344" spans="1:4">
+      <c r="A344" s="1" t="n">
         <v>1369</v>
       </c>
       <c r="B344" t="s">
@@ -6571,8 +6560,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
+    <row r="345" spans="1:4">
+      <c r="A345" s="1" t="n">
         <v>1370</v>
       </c>
       <c r="B345" t="s">
@@ -6585,8 +6574,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
+    <row r="346" spans="1:4">
+      <c r="A346" s="1" t="n">
         <v>1623</v>
       </c>
       <c r="B346" t="s">
@@ -6599,8 +6588,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
+    <row r="347" spans="1:4">
+      <c r="A347" s="1" t="n">
         <v>1624</v>
       </c>
       <c r="B347" t="s">
@@ -6613,8 +6602,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="n">
         <v>1625</v>
       </c>
       <c r="B348" t="s">
@@ -6627,8 +6616,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="n">
         <v>1626</v>
       </c>
       <c r="B349" t="s">
@@ -6641,8 +6630,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
+    <row r="350" spans="1:4">
+      <c r="A350" s="1" t="n">
         <v>1627</v>
       </c>
       <c r="B350" t="s">
@@ -6655,8 +6644,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="n">
         <v>1628</v>
       </c>
       <c r="B351" t="s">
@@ -6669,8 +6658,8 @@
         <v>446</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
+    <row r="352" spans="1:4">
+      <c r="A352" s="1" t="n">
         <v>1629</v>
       </c>
       <c r="B352" t="s">
@@ -6683,8 +6672,8 @@
         <v>447</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="n">
         <v>1630</v>
       </c>
       <c r="B353" t="s">
@@ -6697,8 +6686,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="n">
         <v>1631</v>
       </c>
       <c r="B354" t="s">
@@ -6711,8 +6700,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="n">
         <v>1632</v>
       </c>
       <c r="B355" t="s">
@@ -6725,8 +6714,8 @@
         <v>449</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="n">
         <v>1633</v>
       </c>
       <c r="B356" t="s">
@@ -6739,8 +6728,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
+    <row r="357" spans="1:4">
+      <c r="A357" s="1" t="n">
         <v>1634</v>
       </c>
       <c r="B357" t="s">
@@ -6753,8 +6742,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
+    <row r="358" spans="1:4">
+      <c r="A358" s="1" t="n">
         <v>1635</v>
       </c>
       <c r="B358" t="s">
@@ -6767,8 +6756,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
+    <row r="359" spans="1:4">
+      <c r="A359" s="1" t="n">
         <v>1636</v>
       </c>
       <c r="B359" t="s">
@@ -6781,8 +6770,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
+    <row r="360" spans="1:4">
+      <c r="A360" s="1" t="n">
         <v>1637</v>
       </c>
       <c r="B360" t="s">
@@ -6795,8 +6784,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
+    <row r="361" spans="1:4">
+      <c r="A361" s="1" t="n">
         <v>1638</v>
       </c>
       <c r="B361" t="s">
@@ -6809,8 +6798,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="n">
         <v>1639</v>
       </c>
       <c r="B362" t="s">
@@ -6823,8 +6812,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" s="1">
+    <row r="363" spans="1:4">
+      <c r="A363" s="1" t="n">
         <v>1640</v>
       </c>
       <c r="B363" t="s">
@@ -6837,8 +6826,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="1">
+    <row r="364" spans="1:4">
+      <c r="A364" s="1" t="n">
         <v>1641</v>
       </c>
       <c r="B364" t="s">
@@ -6851,8 +6840,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="1">
+    <row r="365" spans="1:4">
+      <c r="A365" s="1" t="n">
         <v>1642</v>
       </c>
       <c r="B365" t="s">
@@ -6865,8 +6854,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="1">
+    <row r="366" spans="1:4">
+      <c r="A366" s="1" t="n">
         <v>1643</v>
       </c>
       <c r="B366" t="s">
@@ -6879,8 +6868,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" s="1">
+    <row r="367" spans="1:4">
+      <c r="A367" s="1" t="n">
         <v>1644</v>
       </c>
       <c r="B367" t="s">
@@ -6893,8 +6882,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
+    <row r="368" spans="1:4">
+      <c r="A368" s="1" t="n">
         <v>1645</v>
       </c>
       <c r="B368" t="s">
@@ -6907,8 +6896,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" s="1">
+    <row r="369" spans="1:4">
+      <c r="A369" s="1" t="n">
         <v>1646</v>
       </c>
       <c r="B369" t="s">
@@ -6921,8 +6910,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" s="1">
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="n">
         <v>1647</v>
       </c>
       <c r="B370" t="s">
@@ -6935,8 +6924,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="1">
+    <row r="371" spans="1:4">
+      <c r="A371" s="1" t="n">
         <v>1648</v>
       </c>
       <c r="B371" t="s">
@@ -6949,8 +6938,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="1">
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="n">
         <v>1649</v>
       </c>
       <c r="B372" t="s">
@@ -6963,8 +6952,8 @@
         <v>446</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="1">
+    <row r="373" spans="1:4">
+      <c r="A373" s="1" t="n">
         <v>1650</v>
       </c>
       <c r="B373" t="s">
@@ -6977,8 +6966,8 @@
         <v>447</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" s="1">
+    <row r="374" spans="1:4">
+      <c r="A374" s="1" t="n">
         <v>1651</v>
       </c>
       <c r="B374" t="s">
@@ -6991,8 +6980,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
+    <row r="375" spans="1:4">
+      <c r="A375" s="1" t="n">
         <v>1652</v>
       </c>
       <c r="B375" t="s">
@@ -7005,8 +6994,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
+    <row r="376" spans="1:4">
+      <c r="A376" s="1" t="n">
         <v>1653</v>
       </c>
       <c r="B376" t="s">
@@ -7019,8 +7008,8 @@
         <v>449</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="1">
+    <row r="377" spans="1:4">
+      <c r="A377" s="1" t="n">
         <v>1654</v>
       </c>
       <c r="B377" t="s">
@@ -7033,8 +7022,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
+    <row r="378" spans="1:4">
+      <c r="A378" s="1" t="n">
         <v>1655</v>
       </c>
       <c r="B378" t="s">
@@ -7047,8 +7036,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
+    <row r="379" spans="1:4">
+      <c r="A379" s="1" t="n">
         <v>1656</v>
       </c>
       <c r="B379" t="s">
@@ -7061,8 +7050,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
+    <row r="380" spans="1:4">
+      <c r="A380" s="1" t="n">
         <v>1657</v>
       </c>
       <c r="B380" t="s">
@@ -7075,8 +7064,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
+    <row r="381" spans="1:4">
+      <c r="A381" s="1" t="n">
         <v>1658</v>
       </c>
       <c r="B381" t="s">
@@ -7089,8 +7078,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="1">
+    <row r="382" spans="1:4">
+      <c r="A382" s="1" t="n">
         <v>1659</v>
       </c>
       <c r="B382" t="s">
@@ -7103,8 +7092,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="1">
+    <row r="383" spans="1:4">
+      <c r="A383" s="1" t="n">
         <v>1660</v>
       </c>
       <c r="B383" t="s">
@@ -7117,8 +7106,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="1">
+    <row r="384" spans="1:4">
+      <c r="A384" s="1" t="n">
         <v>1661</v>
       </c>
       <c r="B384" t="s">
@@ -7131,8 +7120,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="1">
+    <row r="385" spans="1:4">
+      <c r="A385" s="1" t="n">
         <v>1662</v>
       </c>
       <c r="B385" t="s">
@@ -7145,8 +7134,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="1">
+    <row r="386" spans="1:4">
+      <c r="A386" s="1" t="n">
         <v>1663</v>
       </c>
       <c r="B386" t="s">
@@ -7159,8 +7148,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="1">
+    <row r="387" spans="1:4">
+      <c r="A387" s="1" t="n">
         <v>1664</v>
       </c>
       <c r="B387" t="s">
@@ -7173,8 +7162,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="1">
+    <row r="388" spans="1:4">
+      <c r="A388" s="1" t="n">
         <v>1665</v>
       </c>
       <c r="B388" t="s">
@@ -7187,8 +7176,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="1">
+    <row r="389" spans="1:4">
+      <c r="A389" s="1" t="n">
         <v>1666</v>
       </c>
       <c r="B389" t="s">
@@ -7201,8 +7190,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="1">
+    <row r="390" spans="1:4">
+      <c r="A390" s="1" t="n">
         <v>1667</v>
       </c>
       <c r="B390" t="s">
@@ -7215,8 +7204,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="1">
+    <row r="391" spans="1:4">
+      <c r="A391" s="1" t="n">
         <v>1668</v>
       </c>
       <c r="B391" t="s">
@@ -7229,8 +7218,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="1">
+    <row r="392" spans="1:4">
+      <c r="A392" s="1" t="n">
         <v>1669</v>
       </c>
       <c r="B392" t="s">
@@ -7243,8 +7232,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="1">
+    <row r="393" spans="1:4">
+      <c r="A393" s="1" t="n">
         <v>1670</v>
       </c>
       <c r="B393" t="s">
@@ -7257,8 +7246,8 @@
         <v>446</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="1">
+    <row r="394" spans="1:4">
+      <c r="A394" s="1" t="n">
         <v>1671</v>
       </c>
       <c r="B394" t="s">
@@ -7271,8 +7260,8 @@
         <v>447</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="1">
+    <row r="395" spans="1:4">
+      <c r="A395" s="1" t="n">
         <v>1672</v>
       </c>
       <c r="B395" t="s">
@@ -7285,8 +7274,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="1">
+    <row r="396" spans="1:4">
+      <c r="A396" s="1" t="n">
         <v>1673</v>
       </c>
       <c r="B396" t="s">
@@ -7299,8 +7288,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="1">
+    <row r="397" spans="1:4">
+      <c r="A397" s="1" t="n">
         <v>1674</v>
       </c>
       <c r="B397" t="s">
@@ -7313,8 +7302,8 @@
         <v>449</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="1">
+    <row r="398" spans="1:4">
+      <c r="A398" s="1" t="n">
         <v>1675</v>
       </c>
       <c r="B398" t="s">
@@ -7327,8 +7316,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="1">
+    <row r="399" spans="1:4">
+      <c r="A399" s="1" t="n">
         <v>1676</v>
       </c>
       <c r="B399" t="s">
@@ -7341,8 +7330,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="1">
+    <row r="400" spans="1:4">
+      <c r="A400" s="1" t="n">
         <v>1677</v>
       </c>
       <c r="B400" t="s">
@@ -7355,8 +7344,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="1">
+    <row r="401" spans="1:4">
+      <c r="A401" s="1" t="n">
         <v>1678</v>
       </c>
       <c r="B401" t="s">
@@ -7369,8 +7358,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="1">
+    <row r="402" spans="1:4">
+      <c r="A402" s="1" t="n">
         <v>1679</v>
       </c>
       <c r="B402" t="s">
@@ -7383,8 +7372,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="1">
+    <row r="403" spans="1:4">
+      <c r="A403" s="1" t="n">
         <v>1680</v>
       </c>
       <c r="B403" t="s">
@@ -7397,8 +7386,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="1">
+    <row r="404" spans="1:4">
+      <c r="A404" s="1" t="n">
         <v>1681</v>
       </c>
       <c r="B404" t="s">
@@ -7411,8 +7400,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="1">
+    <row r="405" spans="1:4">
+      <c r="A405" s="1" t="n">
         <v>1682</v>
       </c>
       <c r="B405" t="s">
@@ -7425,8 +7414,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="1">
+    <row r="406" spans="1:4">
+      <c r="A406" s="1" t="n">
         <v>1683</v>
       </c>
       <c r="B406" t="s">
@@ -7439,8 +7428,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="1">
+    <row r="407" spans="1:4">
+      <c r="A407" s="1" t="n">
         <v>1684</v>
       </c>
       <c r="B407" t="s">
@@ -7453,8 +7442,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="1">
+    <row r="408" spans="1:4">
+      <c r="A408" s="1" t="n">
         <v>1685</v>
       </c>
       <c r="B408" t="s">
@@ -7468,6 +7457,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
   <si>
     <t>id</t>
   </si>
@@ -1393,24 +1393,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1425,40 +1424,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1746,35 +1731,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row spans="1:4" r="1">
+      <c s="1" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c s="1" r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c s="1" r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c s="1" r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row spans="1:4" r="2">
+      <c s="1" r="A2" t="n">
         <v>1027</v>
       </c>
-      <c r="B2">
-        <v>2899</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1783,8 +1772,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row spans="1:4" r="3">
+      <c s="1" r="A3" t="n">
         <v>1028</v>
       </c>
       <c r="B3" t="s">
@@ -1797,8 +1786,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row spans="1:4" r="4">
+      <c s="1" r="A4" t="n">
         <v>1029</v>
       </c>
       <c r="B4" t="s">
@@ -1811,8 +1800,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row spans="1:4" r="5">
+      <c s="1" r="A5" t="n">
         <v>1030</v>
       </c>
       <c r="B5" t="s">
@@ -1825,8 +1814,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row spans="1:4" r="6">
+      <c s="1" r="A6" t="n">
         <v>1031</v>
       </c>
       <c r="B6" t="s">
@@ -1839,8 +1828,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row spans="1:4" r="7">
+      <c s="1" r="A7" t="n">
         <v>1032</v>
       </c>
       <c r="B7" t="s">
@@ -1853,8 +1842,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row spans="1:4" r="8">
+      <c s="1" r="A8" t="n">
         <v>1033</v>
       </c>
       <c r="B8" t="s">
@@ -1867,8 +1856,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row spans="1:4" r="9">
+      <c s="1" r="A9" t="n">
         <v>1034</v>
       </c>
       <c r="B9" t="s">
@@ -1881,8 +1870,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row spans="1:4" r="10">
+      <c s="1" r="A10" t="n">
         <v>1035</v>
       </c>
       <c r="B10" t="s">
@@ -1895,8 +1884,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row spans="1:4" r="11">
+      <c s="1" r="A11" t="n">
         <v>1036</v>
       </c>
       <c r="B11" t="s">
@@ -1909,8 +1898,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row spans="1:4" r="12">
+      <c s="1" r="A12" t="n">
         <v>1037</v>
       </c>
       <c r="B12" t="s">
@@ -1923,8 +1912,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row spans="1:4" r="13">
+      <c s="1" r="A13" t="n">
         <v>1038</v>
       </c>
       <c r="B13" t="s">
@@ -1937,8 +1926,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row spans="1:4" r="14">
+      <c s="1" r="A14" t="n">
         <v>1039</v>
       </c>
       <c r="B14" t="s">
@@ -1951,8 +1940,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row spans="1:4" r="15">
+      <c s="1" r="A15" t="n">
         <v>1040</v>
       </c>
       <c r="B15" t="s">
@@ -1965,8 +1954,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row spans="1:4" r="16">
+      <c s="1" r="A16" t="n">
         <v>1041</v>
       </c>
       <c r="B16" t="s">
@@ -1979,8 +1968,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row spans="1:4" r="17">
+      <c s="1" r="A17" t="n">
         <v>1042</v>
       </c>
       <c r="B17" t="s">
@@ -1993,8 +1982,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row spans="1:4" r="18">
+      <c s="1" r="A18" t="n">
         <v>1043</v>
       </c>
       <c r="B18" t="s">
@@ -2007,8 +1996,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row spans="1:4" r="19">
+      <c s="1" r="A19" t="n">
         <v>1044</v>
       </c>
       <c r="B19" t="s">
@@ -2021,8 +2010,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row spans="1:4" r="20">
+      <c s="1" r="A20" t="n">
         <v>1045</v>
       </c>
       <c r="B20" t="s">
@@ -2035,8 +2024,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row spans="1:4" r="21">
+      <c s="1" r="A21" t="n">
         <v>1046</v>
       </c>
       <c r="B21" t="s">
@@ -2049,8 +2038,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row spans="1:4" r="22">
+      <c s="1" r="A22" t="n">
         <v>1047</v>
       </c>
       <c r="B22" t="s">
@@ -2063,8 +2052,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row spans="1:4" r="23">
+      <c s="1" r="A23" t="n">
         <v>1048</v>
       </c>
       <c r="B23" t="s">
@@ -2077,8 +2066,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row spans="1:4" r="24">
+      <c s="1" r="A24" t="n">
         <v>1049</v>
       </c>
       <c r="B24" t="s">
@@ -2091,8 +2080,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row spans="1:4" r="25">
+      <c s="1" r="A25" t="n">
         <v>1050</v>
       </c>
       <c r="B25" t="s">
@@ -2105,8 +2094,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row spans="1:4" r="26">
+      <c s="1" r="A26" t="n">
         <v>1051</v>
       </c>
       <c r="B26" t="s">
@@ -2119,8 +2108,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row spans="1:4" r="27">
+      <c s="1" r="A27" t="n">
         <v>1052</v>
       </c>
       <c r="B27" t="s">
@@ -2133,8 +2122,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row spans="1:4" r="28">
+      <c s="1" r="A28" t="n">
         <v>1053</v>
       </c>
       <c r="B28" t="s">
@@ -2147,8 +2136,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row spans="1:4" r="29">
+      <c s="1" r="A29" t="n">
         <v>1054</v>
       </c>
       <c r="B29" t="s">
@@ -2161,8 +2150,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row spans="1:4" r="30">
+      <c s="1" r="A30" t="n">
         <v>1055</v>
       </c>
       <c r="B30" t="s">
@@ -2175,8 +2164,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row spans="1:4" r="31">
+      <c s="1" r="A31" t="n">
         <v>1056</v>
       </c>
       <c r="B31" t="s">
@@ -2189,8 +2178,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row spans="1:4" r="32">
+      <c s="1" r="A32" t="n">
         <v>1057</v>
       </c>
       <c r="B32" t="s">
@@ -2203,8 +2192,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row spans="1:4" r="33">
+      <c s="1" r="A33" t="n">
         <v>1058</v>
       </c>
       <c r="B33" t="s">
@@ -2217,8 +2206,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row spans="1:4" r="34">
+      <c s="1" r="A34" t="n">
         <v>1059</v>
       </c>
       <c r="B34" t="s">
@@ -2231,8 +2220,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row spans="1:4" r="35">
+      <c s="1" r="A35" t="n">
         <v>1060</v>
       </c>
       <c r="B35" t="s">
@@ -2245,8 +2234,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row spans="1:4" r="36">
+      <c s="1" r="A36" t="n">
         <v>1061</v>
       </c>
       <c r="B36" t="s">
@@ -2259,8 +2248,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row spans="1:4" r="37">
+      <c s="1" r="A37" t="n">
         <v>1062</v>
       </c>
       <c r="B37" t="s">
@@ -2273,8 +2262,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row spans="1:4" r="38">
+      <c s="1" r="A38" t="n">
         <v>1063</v>
       </c>
       <c r="B38" t="s">
@@ -2287,8 +2276,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row spans="1:4" r="39">
+      <c s="1" r="A39" t="n">
         <v>1064</v>
       </c>
       <c r="B39" t="s">
@@ -2301,8 +2290,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row spans="1:4" r="40">
+      <c s="1" r="A40" t="n">
         <v>1065</v>
       </c>
       <c r="B40" t="s">
@@ -2315,8 +2304,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row spans="1:4" r="41">
+      <c s="1" r="A41" t="n">
         <v>1066</v>
       </c>
       <c r="B41" t="s">
@@ -2329,8 +2318,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row spans="1:4" r="42">
+      <c s="1" r="A42" t="n">
         <v>1067</v>
       </c>
       <c r="B42" t="s">
@@ -2343,8 +2332,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row spans="1:4" r="43">
+      <c s="1" r="A43" t="n">
         <v>1068</v>
       </c>
       <c r="B43" t="s">
@@ -2357,8 +2346,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row spans="1:4" r="44">
+      <c s="1" r="A44" t="n">
         <v>1069</v>
       </c>
       <c r="B44" t="s">
@@ -2371,8 +2360,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row spans="1:4" r="45">
+      <c s="1" r="A45" t="n">
         <v>1070</v>
       </c>
       <c r="B45" t="s">
@@ -2385,8 +2374,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row spans="1:4" r="46">
+      <c s="1" r="A46" t="n">
         <v>1071</v>
       </c>
       <c r="B46" t="s">
@@ -2399,8 +2388,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row spans="1:4" r="47">
+      <c s="1" r="A47" t="n">
         <v>1072</v>
       </c>
       <c r="B47" t="s">
@@ -2413,8 +2402,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row spans="1:4" r="48">
+      <c s="1" r="A48" t="n">
         <v>1073</v>
       </c>
       <c r="B48" t="s">
@@ -2427,8 +2416,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row spans="1:4" r="49">
+      <c s="1" r="A49" t="n">
         <v>1074</v>
       </c>
       <c r="B49" t="s">
@@ -2441,8 +2430,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row spans="1:4" r="50">
+      <c s="1" r="A50" t="n">
         <v>1075</v>
       </c>
       <c r="B50" t="s">
@@ -2455,8 +2444,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row spans="1:4" r="51">
+      <c s="1" r="A51" t="n">
         <v>1076</v>
       </c>
       <c r="B51" t="s">
@@ -2469,8 +2458,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row spans="1:4" r="52">
+      <c s="1" r="A52" t="n">
         <v>1077</v>
       </c>
       <c r="B52" t="s">
@@ -2483,8 +2472,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row spans="1:4" r="53">
+      <c s="1" r="A53" t="n">
         <v>1078</v>
       </c>
       <c r="B53" t="s">
@@ -2497,8 +2486,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row spans="1:4" r="54">
+      <c s="1" r="A54" t="n">
         <v>1079</v>
       </c>
       <c r="B54" t="s">
@@ -2511,8 +2500,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row spans="1:4" r="55">
+      <c s="1" r="A55" t="n">
         <v>1080</v>
       </c>
       <c r="B55" t="s">
@@ -2525,8 +2514,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row spans="1:4" r="56">
+      <c s="1" r="A56" t="n">
         <v>1081</v>
       </c>
       <c r="B56" t="s">
@@ -2539,8 +2528,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row spans="1:4" r="57">
+      <c s="1" r="A57" t="n">
         <v>1082</v>
       </c>
       <c r="B57" t="s">
@@ -2553,8 +2542,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row spans="1:4" r="58">
+      <c s="1" r="A58" t="n">
         <v>1083</v>
       </c>
       <c r="B58" t="s">
@@ -2567,8 +2556,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row spans="1:4" r="59">
+      <c s="1" r="A59" t="n">
         <v>1084</v>
       </c>
       <c r="B59" t="s">
@@ -2581,8 +2570,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row spans="1:4" r="60">
+      <c s="1" r="A60" t="n">
         <v>1085</v>
       </c>
       <c r="B60" t="s">
@@ -2595,8 +2584,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row spans="1:4" r="61">
+      <c s="1" r="A61" t="n">
         <v>1086</v>
       </c>
       <c r="B61" t="s">
@@ -2609,8 +2598,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row spans="1:4" r="62">
+      <c s="1" r="A62" t="n">
         <v>1087</v>
       </c>
       <c r="B62" t="s">
@@ -2623,8 +2612,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row spans="1:4" r="63">
+      <c s="1" r="A63" t="n">
         <v>1088</v>
       </c>
       <c r="B63" t="s">
@@ -2637,8 +2626,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row spans="1:4" r="64">
+      <c s="1" r="A64" t="n">
         <v>1089</v>
       </c>
       <c r="B64" t="s">
@@ -2651,8 +2640,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row spans="1:4" r="65">
+      <c s="1" r="A65" t="n">
         <v>1090</v>
       </c>
       <c r="B65" t="s">
@@ -2665,8 +2654,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row spans="1:4" r="66">
+      <c s="1" r="A66" t="n">
         <v>1091</v>
       </c>
       <c r="B66" t="s">
@@ -2679,8 +2668,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row spans="1:4" r="67">
+      <c s="1" r="A67" t="n">
         <v>1092</v>
       </c>
       <c r="B67" t="s">
@@ -2693,8 +2682,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row spans="1:4" r="68">
+      <c s="1" r="A68" t="n">
         <v>1093</v>
       </c>
       <c r="B68" t="s">
@@ -2707,8 +2696,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row spans="1:4" r="69">
+      <c s="1" r="A69" t="n">
         <v>1094</v>
       </c>
       <c r="B69" t="s">
@@ -2721,8 +2710,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row spans="1:4" r="70">
+      <c s="1" r="A70" t="n">
         <v>1095</v>
       </c>
       <c r="B70" t="s">
@@ -2735,8 +2724,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row spans="1:4" r="71">
+      <c s="1" r="A71" t="n">
         <v>1096</v>
       </c>
       <c r="B71" t="s">
@@ -2749,8 +2738,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row spans="1:4" r="72">
+      <c s="1" r="A72" t="n">
         <v>1097</v>
       </c>
       <c r="B72" t="s">
@@ -2763,8 +2752,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row spans="1:4" r="73">
+      <c s="1" r="A73" t="n">
         <v>1098</v>
       </c>
       <c r="B73" t="s">
@@ -2777,8 +2766,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row spans="1:4" r="74">
+      <c s="1" r="A74" t="n">
         <v>1099</v>
       </c>
       <c r="B74" t="s">
@@ -2791,8 +2780,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row spans="1:4" r="75">
+      <c s="1" r="A75" t="n">
         <v>1100</v>
       </c>
       <c r="B75" t="s">
@@ -2805,8 +2794,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row spans="1:4" r="76">
+      <c s="1" r="A76" t="n">
         <v>1101</v>
       </c>
       <c r="B76" t="s">
@@ -2819,8 +2808,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row spans="1:4" r="77">
+      <c s="1" r="A77" t="n">
         <v>1102</v>
       </c>
       <c r="B77" t="s">
@@ -2833,8 +2822,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row spans="1:4" r="78">
+      <c s="1" r="A78" t="n">
         <v>1103</v>
       </c>
       <c r="B78" t="s">
@@ -2847,8 +2836,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row spans="1:4" r="79">
+      <c s="1" r="A79" t="n">
         <v>1104</v>
       </c>
       <c r="B79" t="s">
@@ -2861,8 +2850,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row spans="1:4" r="80">
+      <c s="1" r="A80" t="n">
         <v>1105</v>
       </c>
       <c r="B80" t="s">
@@ -2875,8 +2864,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row spans="1:4" r="81">
+      <c s="1" r="A81" t="n">
         <v>1106</v>
       </c>
       <c r="B81" t="s">
@@ -2889,8 +2878,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row spans="1:4" r="82">
+      <c s="1" r="A82" t="n">
         <v>1107</v>
       </c>
       <c r="B82" t="s">
@@ -2903,8 +2892,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row spans="1:4" r="83">
+      <c s="1" r="A83" t="n">
         <v>1108</v>
       </c>
       <c r="B83" t="s">
@@ -2917,8 +2906,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row spans="1:4" r="84">
+      <c s="1" r="A84" t="n">
         <v>1109</v>
       </c>
       <c r="B84" t="s">
@@ -2931,8 +2920,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+    <row spans="1:4" r="85">
+      <c s="1" r="A85" t="n">
         <v>1110</v>
       </c>
       <c r="B85" t="s">
@@ -2945,8 +2934,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row spans="1:4" r="86">
+      <c s="1" r="A86" t="n">
         <v>1111</v>
       </c>
       <c r="B86" t="s">
@@ -2959,8 +2948,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row spans="1:4" r="87">
+      <c s="1" r="A87" t="n">
         <v>1112</v>
       </c>
       <c r="B87" t="s">
@@ -2973,8 +2962,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row spans="1:4" r="88">
+      <c s="1" r="A88" t="n">
         <v>1113</v>
       </c>
       <c r="B88" t="s">
@@ -2987,8 +2976,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+    <row spans="1:4" r="89">
+      <c s="1" r="A89" t="n">
         <v>1114</v>
       </c>
       <c r="B89" t="s">
@@ -3001,8 +2990,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+    <row spans="1:4" r="90">
+      <c s="1" r="A90" t="n">
         <v>1115</v>
       </c>
       <c r="B90" t="s">
@@ -3015,8 +3004,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+    <row spans="1:4" r="91">
+      <c s="1" r="A91" t="n">
         <v>1116</v>
       </c>
       <c r="B91" t="s">
@@ -3029,8 +3018,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+    <row spans="1:4" r="92">
+      <c s="1" r="A92" t="n">
         <v>1117</v>
       </c>
       <c r="B92" t="s">
@@ -3043,8 +3032,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row spans="1:4" r="93">
+      <c s="1" r="A93" t="n">
         <v>1118</v>
       </c>
       <c r="B93" t="s">
@@ -3057,8 +3046,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row spans="1:4" r="94">
+      <c s="1" r="A94" t="n">
         <v>1119</v>
       </c>
       <c r="B94" t="s">
@@ -3071,8 +3060,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row spans="1:4" r="95">
+      <c s="1" r="A95" t="n">
         <v>1120</v>
       </c>
       <c r="B95" t="s">
@@ -3085,8 +3074,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+    <row spans="1:4" r="96">
+      <c s="1" r="A96" t="n">
         <v>1121</v>
       </c>
       <c r="B96" t="s">
@@ -3099,8 +3088,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row spans="1:4" r="97">
+      <c s="1" r="A97" t="n">
         <v>1122</v>
       </c>
       <c r="B97" t="s">
@@ -3113,8 +3102,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row spans="1:4" r="98">
+      <c s="1" r="A98" t="n">
         <v>1123</v>
       </c>
       <c r="B98" t="s">
@@ -3127,8 +3116,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row spans="1:4" r="99">
+      <c s="1" r="A99" t="n">
         <v>1124</v>
       </c>
       <c r="B99" t="s">
@@ -3141,8 +3130,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row spans="1:4" r="100">
+      <c s="1" r="A100" t="n">
         <v>1125</v>
       </c>
       <c r="B100" t="s">
@@ -3155,8 +3144,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row spans="1:4" r="101">
+      <c s="1" r="A101" t="n">
         <v>1126</v>
       </c>
       <c r="B101" t="s">
@@ -3169,8 +3158,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+    <row spans="1:4" r="102">
+      <c s="1" r="A102" t="n">
         <v>1127</v>
       </c>
       <c r="B102" t="s">
@@ -3183,8 +3172,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+    <row spans="1:4" r="103">
+      <c s="1" r="A103" t="n">
         <v>1128</v>
       </c>
       <c r="B103" t="s">
@@ -3197,8 +3186,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+    <row spans="1:4" r="104">
+      <c s="1" r="A104" t="n">
         <v>1129</v>
       </c>
       <c r="B104" t="s">
@@ -3211,8 +3200,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+    <row spans="1:4" r="105">
+      <c s="1" r="A105" t="n">
         <v>1130</v>
       </c>
       <c r="B105" t="s">
@@ -3225,8 +3214,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row spans="1:4" r="106">
+      <c s="1" r="A106" t="n">
         <v>1131</v>
       </c>
       <c r="B106" t="s">
@@ -3239,8 +3228,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row spans="1:4" r="107">
+      <c s="1" r="A107" t="n">
         <v>1132</v>
       </c>
       <c r="B107" t="s">
@@ -3253,8 +3242,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+    <row spans="1:4" r="108">
+      <c s="1" r="A108" t="n">
         <v>1133</v>
       </c>
       <c r="B108" t="s">
@@ -3267,8 +3256,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+    <row spans="1:4" r="109">
+      <c s="1" r="A109" t="n">
         <v>1134</v>
       </c>
       <c r="B109" t="s">
@@ -3281,8 +3270,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+    <row spans="1:4" r="110">
+      <c s="1" r="A110" t="n">
         <v>1135</v>
       </c>
       <c r="B110" t="s">
@@ -3295,8 +3284,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+    <row spans="1:4" r="111">
+      <c s="1" r="A111" t="n">
         <v>1136</v>
       </c>
       <c r="B111" t="s">
@@ -3309,8 +3298,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+    <row spans="1:4" r="112">
+      <c s="1" r="A112" t="n">
         <v>1137</v>
       </c>
       <c r="B112" t="s">
@@ -3323,8 +3312,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+    <row spans="1:4" r="113">
+      <c s="1" r="A113" t="n">
         <v>1138</v>
       </c>
       <c r="B113" t="s">
@@ -3337,8 +3326,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+    <row spans="1:4" r="114">
+      <c s="1" r="A114" t="n">
         <v>1139</v>
       </c>
       <c r="B114" t="s">
@@ -3351,8 +3340,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+    <row spans="1:4" r="115">
+      <c s="1" r="A115" t="n">
         <v>1140</v>
       </c>
       <c r="B115" t="s">
@@ -3365,8 +3354,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+    <row spans="1:4" r="116">
+      <c s="1" r="A116" t="n">
         <v>1141</v>
       </c>
       <c r="B116" t="s">
@@ -3379,8 +3368,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+    <row spans="1:4" r="117">
+      <c s="1" r="A117" t="n">
         <v>1142</v>
       </c>
       <c r="B117" t="s">
@@ -3393,8 +3382,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+    <row spans="1:4" r="118">
+      <c s="1" r="A118" t="n">
         <v>1143</v>
       </c>
       <c r="B118" t="s">
@@ -3407,8 +3396,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+    <row spans="1:4" r="119">
+      <c s="1" r="A119" t="n">
         <v>1144</v>
       </c>
       <c r="B119" t="s">
@@ -3421,8 +3410,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row spans="1:4" r="120">
+      <c s="1" r="A120" t="n">
         <v>1145</v>
       </c>
       <c r="B120" t="s">
@@ -3435,8 +3424,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row spans="1:4" r="121">
+      <c s="1" r="A121" t="n">
         <v>1146</v>
       </c>
       <c r="B121" t="s">
@@ -3449,8 +3438,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+    <row spans="1:4" r="122">
+      <c s="1" r="A122" t="n">
         <v>1147</v>
       </c>
       <c r="B122" t="s">
@@ -3463,8 +3452,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+    <row spans="1:4" r="123">
+      <c s="1" r="A123" t="n">
         <v>1148</v>
       </c>
       <c r="B123" t="s">
@@ -3477,8 +3466,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+    <row spans="1:4" r="124">
+      <c s="1" r="A124" t="n">
         <v>1149</v>
       </c>
       <c r="B124" t="s">
@@ -3491,8 +3480,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+    <row spans="1:4" r="125">
+      <c s="1" r="A125" t="n">
         <v>1150</v>
       </c>
       <c r="B125" t="s">
@@ -3505,8 +3494,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+    <row spans="1:4" r="126">
+      <c s="1" r="A126" t="n">
         <v>1151</v>
       </c>
       <c r="B126" t="s">
@@ -3519,8 +3508,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+    <row spans="1:4" r="127">
+      <c s="1" r="A127" t="n">
         <v>1152</v>
       </c>
       <c r="B127" t="s">
@@ -3533,8 +3522,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+    <row spans="1:4" r="128">
+      <c s="1" r="A128" t="n">
         <v>1153</v>
       </c>
       <c r="B128" t="s">
@@ -3547,8 +3536,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+    <row spans="1:4" r="129">
+      <c s="1" r="A129" t="n">
         <v>1154</v>
       </c>
       <c r="B129" t="s">
@@ -3561,8 +3550,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+    <row spans="1:4" r="130">
+      <c s="1" r="A130" t="n">
         <v>1155</v>
       </c>
       <c r="B130" t="s">
@@ -3575,8 +3564,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+    <row spans="1:4" r="131">
+      <c s="1" r="A131" t="n">
         <v>1156</v>
       </c>
       <c r="B131" t="s">
@@ -3589,8 +3578,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+    <row spans="1:4" r="132">
+      <c s="1" r="A132" t="n">
         <v>1157</v>
       </c>
       <c r="B132" t="s">
@@ -3603,8 +3592,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+    <row spans="1:4" r="133">
+      <c s="1" r="A133" t="n">
         <v>1158</v>
       </c>
       <c r="B133" t="s">
@@ -3617,8 +3606,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+    <row spans="1:4" r="134">
+      <c s="1" r="A134" t="n">
         <v>1159</v>
       </c>
       <c r="B134" t="s">
@@ -3631,8 +3620,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+    <row spans="1:4" r="135">
+      <c s="1" r="A135" t="n">
         <v>1160</v>
       </c>
       <c r="B135" t="s">
@@ -3645,8 +3634,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+    <row spans="1:4" r="136">
+      <c s="1" r="A136" t="n">
         <v>1161</v>
       </c>
       <c r="B136" t="s">
@@ -3659,8 +3648,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+    <row spans="1:4" r="137">
+      <c s="1" r="A137" t="n">
         <v>1162</v>
       </c>
       <c r="B137" t="s">
@@ -3673,8 +3662,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+    <row spans="1:4" r="138">
+      <c s="1" r="A138" t="n">
         <v>1163</v>
       </c>
       <c r="B138" t="s">
@@ -3687,8 +3676,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+    <row spans="1:4" r="139">
+      <c s="1" r="A139" t="n">
         <v>1164</v>
       </c>
       <c r="B139" t="s">
@@ -3701,8 +3690,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+    <row spans="1:4" r="140">
+      <c s="1" r="A140" t="n">
         <v>1165</v>
       </c>
       <c r="B140" t="s">
@@ -3715,8 +3704,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+    <row spans="1:4" r="141">
+      <c s="1" r="A141" t="n">
         <v>1166</v>
       </c>
       <c r="B141" t="s">
@@ -3729,8 +3718,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+    <row spans="1:4" r="142">
+      <c s="1" r="A142" t="n">
         <v>1167</v>
       </c>
       <c r="B142" t="s">
@@ -3743,8 +3732,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+    <row spans="1:4" r="143">
+      <c s="1" r="A143" t="n">
         <v>1168</v>
       </c>
       <c r="B143" t="s">
@@ -3757,8 +3746,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+    <row spans="1:4" r="144">
+      <c s="1" r="A144" t="n">
         <v>1169</v>
       </c>
       <c r="B144" t="s">
@@ -3771,8 +3760,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+    <row spans="1:4" r="145">
+      <c s="1" r="A145" t="n">
         <v>1170</v>
       </c>
       <c r="B145" t="s">
@@ -3785,8 +3774,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+    <row spans="1:4" r="146">
+      <c s="1" r="A146" t="n">
         <v>1171</v>
       </c>
       <c r="B146" t="s">
@@ -3799,8 +3788,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+    <row spans="1:4" r="147">
+      <c s="1" r="A147" t="n">
         <v>1172</v>
       </c>
       <c r="B147" t="s">
@@ -3813,8 +3802,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+    <row spans="1:4" r="148">
+      <c s="1" r="A148" t="n">
         <v>1173</v>
       </c>
       <c r="B148" t="s">
@@ -3827,8 +3816,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+    <row spans="1:4" r="149">
+      <c s="1" r="A149" t="n">
         <v>1174</v>
       </c>
       <c r="B149" t="s">
@@ -3841,8 +3830,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+    <row spans="1:4" r="150">
+      <c s="1" r="A150" t="n">
         <v>1175</v>
       </c>
       <c r="B150" t="s">
@@ -3855,8 +3844,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+    <row spans="1:4" r="151">
+      <c s="1" r="A151" t="n">
         <v>1176</v>
       </c>
       <c r="B151" t="s">
@@ -3869,8 +3858,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+    <row spans="1:4" r="152">
+      <c s="1" r="A152" t="n">
         <v>1177</v>
       </c>
       <c r="B152" t="s">
@@ -3883,8 +3872,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+    <row spans="1:4" r="153">
+      <c s="1" r="A153" t="n">
         <v>1178</v>
       </c>
       <c r="B153" t="s">
@@ -3897,8 +3886,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+    <row spans="1:4" r="154">
+      <c s="1" r="A154" t="n">
         <v>1179</v>
       </c>
       <c r="B154" t="s">
@@ -3911,8 +3900,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+    <row spans="1:4" r="155">
+      <c s="1" r="A155" t="n">
         <v>1180</v>
       </c>
       <c r="B155" t="s">
@@ -3925,8 +3914,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+    <row spans="1:4" r="156">
+      <c s="1" r="A156" t="n">
         <v>1181</v>
       </c>
       <c r="B156" t="s">
@@ -3939,8 +3928,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+    <row spans="1:4" r="157">
+      <c s="1" r="A157" t="n">
         <v>1182</v>
       </c>
       <c r="B157" t="s">
@@ -3953,8 +3942,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+    <row spans="1:4" r="158">
+      <c s="1" r="A158" t="n">
         <v>1183</v>
       </c>
       <c r="B158" t="s">
@@ -3967,8 +3956,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+    <row spans="1:4" r="159">
+      <c s="1" r="A159" t="n">
         <v>1184</v>
       </c>
       <c r="B159" t="s">
@@ -3981,8 +3970,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+    <row spans="1:4" r="160">
+      <c s="1" r="A160" t="n">
         <v>1185</v>
       </c>
       <c r="B160" t="s">
@@ -3995,8 +3984,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+    <row spans="1:4" r="161">
+      <c s="1" r="A161" t="n">
         <v>1186</v>
       </c>
       <c r="B161" t="s">
@@ -4009,8 +3998,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+    <row spans="1:4" r="162">
+      <c s="1" r="A162" t="n">
         <v>1187</v>
       </c>
       <c r="B162" t="s">
@@ -4023,8 +4012,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+    <row spans="1:4" r="163">
+      <c s="1" r="A163" t="n">
         <v>1188</v>
       </c>
       <c r="B163" t="s">
@@ -4037,8 +4026,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+    <row spans="1:4" r="164">
+      <c s="1" r="A164" t="n">
         <v>1189</v>
       </c>
       <c r="B164" t="s">
@@ -4051,8 +4040,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+    <row spans="1:4" r="165">
+      <c s="1" r="A165" t="n">
         <v>1190</v>
       </c>
       <c r="B165" t="s">
@@ -4065,8 +4054,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+    <row spans="1:4" r="166">
+      <c s="1" r="A166" t="n">
         <v>1191</v>
       </c>
       <c r="B166" t="s">
@@ -4079,8 +4068,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+    <row spans="1:4" r="167">
+      <c s="1" r="A167" t="n">
         <v>1192</v>
       </c>
       <c r="B167" t="s">
@@ -4093,8 +4082,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+    <row spans="1:4" r="168">
+      <c s="1" r="A168" t="n">
         <v>1193</v>
       </c>
       <c r="B168" t="s">
@@ -4107,8 +4096,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+    <row spans="1:4" r="169">
+      <c s="1" r="A169" t="n">
         <v>1194</v>
       </c>
       <c r="B169" t="s">
@@ -4121,8 +4110,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
+    <row spans="1:4" r="170">
+      <c s="1" r="A170" t="n">
         <v>1195</v>
       </c>
       <c r="B170" t="s">
@@ -4135,8 +4124,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
+    <row spans="1:4" r="171">
+      <c s="1" r="A171" t="n">
         <v>1196</v>
       </c>
       <c r="B171" t="s">
@@ -4149,8 +4138,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+    <row spans="1:4" r="172">
+      <c s="1" r="A172" t="n">
         <v>1197</v>
       </c>
       <c r="B172" t="s">
@@ -4163,8 +4152,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+    <row spans="1:4" r="173">
+      <c s="1" r="A173" t="n">
         <v>1198</v>
       </c>
       <c r="B173" t="s">
@@ -4177,8 +4166,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+    <row spans="1:4" r="174">
+      <c s="1" r="A174" t="n">
         <v>1199</v>
       </c>
       <c r="B174" t="s">
@@ -4191,8 +4180,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+    <row spans="1:4" r="175">
+      <c s="1" r="A175" t="n">
         <v>1200</v>
       </c>
       <c r="B175" t="s">
@@ -4205,8 +4194,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+    <row spans="1:4" r="176">
+      <c s="1" r="A176" t="n">
         <v>1201</v>
       </c>
       <c r="B176" t="s">
@@ -4219,8 +4208,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+    <row spans="1:4" r="177">
+      <c s="1" r="A177" t="n">
         <v>1202</v>
       </c>
       <c r="B177" t="s">
@@ -4233,8 +4222,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
+    <row spans="1:4" r="178">
+      <c s="1" r="A178" t="n">
         <v>1203</v>
       </c>
       <c r="B178" t="s">
@@ -4247,8 +4236,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
+    <row spans="1:4" r="179">
+      <c s="1" r="A179" t="n">
         <v>1204</v>
       </c>
       <c r="B179" t="s">
@@ -4261,8 +4250,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+    <row spans="1:4" r="180">
+      <c s="1" r="A180" t="n">
         <v>1205</v>
       </c>
       <c r="B180" t="s">
@@ -4275,8 +4264,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+    <row spans="1:4" r="181">
+      <c s="1" r="A181" t="n">
         <v>1206</v>
       </c>
       <c r="B181" t="s">
@@ -4289,8 +4278,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+    <row spans="1:4" r="182">
+      <c s="1" r="A182" t="n">
         <v>1207</v>
       </c>
       <c r="B182" t="s">
@@ -4303,8 +4292,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
+    <row spans="1:4" r="183">
+      <c s="1" r="A183" t="n">
         <v>1208</v>
       </c>
       <c r="B183" t="s">
@@ -4317,8 +4306,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+    <row spans="1:4" r="184">
+      <c s="1" r="A184" t="n">
         <v>1209</v>
       </c>
       <c r="B184" t="s">
@@ -4331,8 +4320,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+    <row spans="1:4" r="185">
+      <c s="1" r="A185" t="n">
         <v>1210</v>
       </c>
       <c r="B185" t="s">
@@ -4345,8 +4334,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+    <row spans="1:4" r="186">
+      <c s="1" r="A186" t="n">
         <v>1211</v>
       </c>
       <c r="B186" t="s">
@@ -4359,8 +4348,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+    <row spans="1:4" r="187">
+      <c s="1" r="A187" t="n">
         <v>1212</v>
       </c>
       <c r="B187" t="s">
@@ -4373,8 +4362,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+    <row spans="1:4" r="188">
+      <c s="1" r="A188" t="n">
         <v>1213</v>
       </c>
       <c r="B188" t="s">
@@ -4387,8 +4376,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
+    <row spans="1:4" r="189">
+      <c s="1" r="A189" t="n">
         <v>1214</v>
       </c>
       <c r="B189" t="s">
@@ -4401,8 +4390,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
+    <row spans="1:4" r="190">
+      <c s="1" r="A190" t="n">
         <v>1215</v>
       </c>
       <c r="B190" t="s">
@@ -4415,8 +4404,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+    <row spans="1:4" r="191">
+      <c s="1" r="A191" t="n">
         <v>1216</v>
       </c>
       <c r="B191" t="s">
@@ -4429,8 +4418,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+    <row spans="1:4" r="192">
+      <c s="1" r="A192" t="n">
         <v>1217</v>
       </c>
       <c r="B192" t="s">
@@ -4443,8 +4432,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+    <row spans="1:4" r="193">
+      <c s="1" r="A193" t="n">
         <v>1218</v>
       </c>
       <c r="B193" t="s">
@@ -4457,8 +4446,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
+    <row spans="1:4" r="194">
+      <c s="1" r="A194" t="n">
         <v>1219</v>
       </c>
       <c r="B194" t="s">
@@ -4471,8 +4460,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
+    <row spans="1:4" r="195">
+      <c s="1" r="A195" t="n">
         <v>1220</v>
       </c>
       <c r="B195" t="s">
@@ -4485,8 +4474,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
+    <row spans="1:4" r="196">
+      <c s="1" r="A196" t="n">
         <v>1221</v>
       </c>
       <c r="B196" t="s">
@@ -4499,8 +4488,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
+    <row spans="1:4" r="197">
+      <c s="1" r="A197" t="n">
         <v>1222</v>
       </c>
       <c r="B197" t="s">
@@ -4513,8 +4502,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+    <row spans="1:4" r="198">
+      <c s="1" r="A198" t="n">
         <v>1223</v>
       </c>
       <c r="B198" t="s">
@@ -4527,8 +4516,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+    <row spans="1:4" r="199">
+      <c s="1" r="A199" t="n">
         <v>1224</v>
       </c>
       <c r="B199" t="s">
@@ -4541,8 +4530,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+    <row spans="1:4" r="200">
+      <c s="1" r="A200" t="n">
         <v>1225</v>
       </c>
       <c r="B200" t="s">
@@ -4555,8 +4544,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
+    <row spans="1:4" r="201">
+      <c s="1" r="A201" t="n">
         <v>1226</v>
       </c>
       <c r="B201" t="s">
@@ -4569,8 +4558,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
+    <row spans="1:4" r="202">
+      <c s="1" r="A202" t="n">
         <v>1227</v>
       </c>
       <c r="B202" t="s">
@@ -4583,8 +4572,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
+    <row spans="1:4" r="203">
+      <c s="1" r="A203" t="n">
         <v>1228</v>
       </c>
       <c r="B203" t="s">
@@ -4597,8 +4586,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+    <row spans="1:4" r="204">
+      <c s="1" r="A204" t="n">
         <v>1229</v>
       </c>
       <c r="B204" t="s">
@@ -4611,8 +4600,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
+    <row spans="1:4" r="205">
+      <c s="1" r="A205" t="n">
         <v>1230</v>
       </c>
       <c r="B205" t="s">
@@ -4625,8 +4614,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
+    <row spans="1:4" r="206">
+      <c s="1" r="A206" t="n">
         <v>1231</v>
       </c>
       <c r="B206" t="s">
@@ -4639,8 +4628,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+    <row spans="1:4" r="207">
+      <c s="1" r="A207" t="n">
         <v>1232</v>
       </c>
       <c r="B207" t="s">
@@ -4653,8 +4642,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
+    <row spans="1:4" r="208">
+      <c s="1" r="A208" t="n">
         <v>1233</v>
       </c>
       <c r="B208" t="s">
@@ -4667,8 +4656,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
+    <row spans="1:4" r="209">
+      <c s="1" r="A209" t="n">
         <v>1234</v>
       </c>
       <c r="B209" t="s">
@@ -4681,8 +4670,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
+    <row spans="1:4" r="210">
+      <c s="1" r="A210" t="n">
         <v>1235</v>
       </c>
       <c r="B210" t="s">
@@ -4695,8 +4684,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
+    <row spans="1:4" r="211">
+      <c s="1" r="A211" t="n">
         <v>1236</v>
       </c>
       <c r="B211" t="s">
@@ -4709,8 +4698,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
+    <row spans="1:4" r="212">
+      <c s="1" r="A212" t="n">
         <v>1237</v>
       </c>
       <c r="B212" t="s">
@@ -4723,8 +4712,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
+    <row spans="1:4" r="213">
+      <c s="1" r="A213" t="n">
         <v>1238</v>
       </c>
       <c r="B213" t="s">
@@ -4737,8 +4726,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
+    <row spans="1:4" r="214">
+      <c s="1" r="A214" t="n">
         <v>1239</v>
       </c>
       <c r="B214" t="s">
@@ -4751,8 +4740,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
+    <row spans="1:4" r="215">
+      <c s="1" r="A215" t="n">
         <v>1240</v>
       </c>
       <c r="B215" t="s">
@@ -4765,8 +4754,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
+    <row spans="1:4" r="216">
+      <c s="1" r="A216" t="n">
         <v>1241</v>
       </c>
       <c r="B216" t="s">
@@ -4779,8 +4768,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
+    <row spans="1:4" r="217">
+      <c s="1" r="A217" t="n">
         <v>1242</v>
       </c>
       <c r="B217" t="s">
@@ -4793,8 +4782,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
+    <row spans="1:4" r="218">
+      <c s="1" r="A218" t="n">
         <v>1243</v>
       </c>
       <c r="B218" t="s">
@@ -4807,8 +4796,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
+    <row spans="1:4" r="219">
+      <c s="1" r="A219" t="n">
         <v>1244</v>
       </c>
       <c r="B219" t="s">
@@ -4821,8 +4810,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
+    <row spans="1:4" r="220">
+      <c s="1" r="A220" t="n">
         <v>1245</v>
       </c>
       <c r="B220" t="s">
@@ -4835,8 +4824,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
+    <row spans="1:4" r="221">
+      <c s="1" r="A221" t="n">
         <v>1246</v>
       </c>
       <c r="B221" t="s">
@@ -4849,8 +4838,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
+    <row spans="1:4" r="222">
+      <c s="1" r="A222" t="n">
         <v>1247</v>
       </c>
       <c r="B222" t="s">
@@ -4863,8 +4852,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
+    <row spans="1:4" r="223">
+      <c s="1" r="A223" t="n">
         <v>1248</v>
       </c>
       <c r="B223" t="s">
@@ -4877,8 +4866,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+    <row spans="1:4" r="224">
+      <c s="1" r="A224" t="n">
         <v>1249</v>
       </c>
       <c r="B224" t="s">
@@ -4891,8 +4880,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
+    <row spans="1:4" r="225">
+      <c s="1" r="A225" t="n">
         <v>1250</v>
       </c>
       <c r="B225" t="s">
@@ -4905,8 +4894,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
+    <row spans="1:4" r="226">
+      <c s="1" r="A226" t="n">
         <v>1251</v>
       </c>
       <c r="B226" t="s">
@@ -4919,8 +4908,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+    <row spans="1:4" r="227">
+      <c s="1" r="A227" t="n">
         <v>1252</v>
       </c>
       <c r="B227" t="s">
@@ -4933,8 +4922,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+    <row spans="1:4" r="228">
+      <c s="1" r="A228" t="n">
         <v>1253</v>
       </c>
       <c r="B228" t="s">
@@ -4947,8 +4936,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
+    <row spans="1:4" r="229">
+      <c s="1" r="A229" t="n">
         <v>1254</v>
       </c>
       <c r="B229" t="s">
@@ -4961,8 +4950,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
+    <row spans="1:4" r="230">
+      <c s="1" r="A230" t="n">
         <v>1255</v>
       </c>
       <c r="B230" t="s">
@@ -4975,8 +4964,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
+    <row spans="1:4" r="231">
+      <c s="1" r="A231" t="n">
         <v>1256</v>
       </c>
       <c r="B231" t="s">
@@ -4989,8 +4978,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
+    <row spans="1:4" r="232">
+      <c s="1" r="A232" t="n">
         <v>1257</v>
       </c>
       <c r="B232" t="s">
@@ -5003,8 +4992,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
+    <row spans="1:4" r="233">
+      <c s="1" r="A233" t="n">
         <v>1258</v>
       </c>
       <c r="B233" t="s">
@@ -5017,8 +5006,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
+    <row spans="1:4" r="234">
+      <c s="1" r="A234" t="n">
         <v>1259</v>
       </c>
       <c r="B234" t="s">
@@ -5031,8 +5020,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
+    <row spans="1:4" r="235">
+      <c s="1" r="A235" t="n">
         <v>1260</v>
       </c>
       <c r="B235" t="s">
@@ -5045,8 +5034,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
+    <row spans="1:4" r="236">
+      <c s="1" r="A236" t="n">
         <v>1261</v>
       </c>
       <c r="B236" t="s">
@@ -5059,8 +5048,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
+    <row spans="1:4" r="237">
+      <c s="1" r="A237" t="n">
         <v>1262</v>
       </c>
       <c r="B237" t="s">
@@ -5073,8 +5062,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
+    <row spans="1:4" r="238">
+      <c s="1" r="A238" t="n">
         <v>1263</v>
       </c>
       <c r="B238" t="s">
@@ -5087,8 +5076,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
+    <row spans="1:4" r="239">
+      <c s="1" r="A239" t="n">
         <v>1264</v>
       </c>
       <c r="B239" t="s">
@@ -5101,8 +5090,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
+    <row spans="1:4" r="240">
+      <c s="1" r="A240" t="n">
         <v>1265</v>
       </c>
       <c r="B240" t="s">
@@ -5115,8 +5104,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
+    <row spans="1:4" r="241">
+      <c s="1" r="A241" t="n">
         <v>1266</v>
       </c>
       <c r="B241" t="s">
@@ -5129,8 +5118,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
+    <row spans="1:4" r="242">
+      <c s="1" r="A242" t="n">
         <v>1267</v>
       </c>
       <c r="B242" t="s">
@@ -5143,8 +5132,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
+    <row spans="1:4" r="243">
+      <c s="1" r="A243" t="n">
         <v>1268</v>
       </c>
       <c r="B243" t="s">
@@ -5157,8 +5146,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
+    <row spans="1:4" r="244">
+      <c s="1" r="A244" t="n">
         <v>1269</v>
       </c>
       <c r="B244" t="s">
@@ -5171,8 +5160,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
+    <row spans="1:4" r="245">
+      <c s="1" r="A245" t="n">
         <v>1270</v>
       </c>
       <c r="B245" t="s">
@@ -5185,8 +5174,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
+    <row spans="1:4" r="246">
+      <c s="1" r="A246" t="n">
         <v>1271</v>
       </c>
       <c r="B246" t="s">
@@ -5199,8 +5188,8 @@
         <v>323</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
+    <row spans="1:4" r="247">
+      <c s="1" r="A247" t="n">
         <v>1272</v>
       </c>
       <c r="B247" t="s">
@@ -5213,8 +5202,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
+    <row spans="1:4" r="248">
+      <c s="1" r="A248" t="n">
         <v>1273</v>
       </c>
       <c r="B248" t="s">
@@ -5227,8 +5216,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
+    <row spans="1:4" r="249">
+      <c s="1" r="A249" t="n">
         <v>1274</v>
       </c>
       <c r="B249" t="s">
@@ -5241,8 +5230,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
+    <row spans="1:4" r="250">
+      <c s="1" r="A250" t="n">
         <v>1275</v>
       </c>
       <c r="B250" t="s">
@@ -5255,8 +5244,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
+    <row spans="1:4" r="251">
+      <c s="1" r="A251" t="n">
         <v>1276</v>
       </c>
       <c r="B251" t="s">
@@ -5269,8 +5258,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
+    <row spans="1:4" r="252">
+      <c s="1" r="A252" t="n">
         <v>1277</v>
       </c>
       <c r="B252" t="s">
@@ -5283,8 +5272,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
+    <row spans="1:4" r="253">
+      <c s="1" r="A253" t="n">
         <v>1278</v>
       </c>
       <c r="B253" t="s">
@@ -5297,8 +5286,8 @@
         <v>337</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
+    <row spans="1:4" r="254">
+      <c s="1" r="A254" t="n">
         <v>1279</v>
       </c>
       <c r="B254" t="s">
@@ -5311,8 +5300,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
+    <row spans="1:4" r="255">
+      <c s="1" r="A255" t="n">
         <v>1280</v>
       </c>
       <c r="B255" t="s">
@@ -5325,8 +5314,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
+    <row spans="1:4" r="256">
+      <c s="1" r="A256" t="n">
         <v>1281</v>
       </c>
       <c r="B256" t="s">
@@ -5339,8 +5328,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
+    <row spans="1:4" r="257">
+      <c s="1" r="A257" t="n">
         <v>1282</v>
       </c>
       <c r="B257" t="s">
@@ -5353,8 +5342,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
+    <row spans="1:4" r="258">
+      <c s="1" r="A258" t="n">
         <v>1283</v>
       </c>
       <c r="B258" t="s">
@@ -5367,8 +5356,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
+    <row spans="1:4" r="259">
+      <c s="1" r="A259" t="n">
         <v>1284</v>
       </c>
       <c r="B259" t="s">
@@ -5381,8 +5370,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
+    <row spans="1:4" r="260">
+      <c s="1" r="A260" t="n">
         <v>1285</v>
       </c>
       <c r="B260" t="s">
@@ -5395,8 +5384,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
+    <row spans="1:4" r="261">
+      <c s="1" r="A261" t="n">
         <v>1286</v>
       </c>
       <c r="B261" t="s">
@@ -5409,8 +5398,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
+    <row spans="1:4" r="262">
+      <c s="1" r="A262" t="n">
         <v>1287</v>
       </c>
       <c r="B262" t="s">
@@ -5423,8 +5412,8 @@
         <v>355</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
+    <row spans="1:4" r="263">
+      <c s="1" r="A263" t="n">
         <v>1288</v>
       </c>
       <c r="B263" t="s">
@@ -5437,8 +5426,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
+    <row spans="1:4" r="264">
+      <c s="1" r="A264" t="n">
         <v>1289</v>
       </c>
       <c r="B264" t="s">
@@ -5451,8 +5440,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
+    <row spans="1:4" r="265">
+      <c s="1" r="A265" t="n">
         <v>1290</v>
       </c>
       <c r="B265" t="s">
@@ -5465,8 +5454,8 @@
         <v>359</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
+    <row spans="1:4" r="266">
+      <c s="1" r="A266" t="n">
         <v>1291</v>
       </c>
       <c r="B266" t="s">
@@ -5479,8 +5468,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
+    <row spans="1:4" r="267">
+      <c s="1" r="A267" t="n">
         <v>1292</v>
       </c>
       <c r="B267" t="s">
@@ -5493,8 +5482,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
+    <row spans="1:4" r="268">
+      <c s="1" r="A268" t="n">
         <v>1293</v>
       </c>
       <c r="B268" t="s">
@@ -5507,8 +5496,8 @@
         <v>364</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
+    <row spans="1:4" r="269">
+      <c s="1" r="A269" t="n">
         <v>1294</v>
       </c>
       <c r="B269" t="s">
@@ -5521,8 +5510,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
+    <row spans="1:4" r="270">
+      <c s="1" r="A270" t="n">
         <v>1295</v>
       </c>
       <c r="B270" t="s">
@@ -5535,8 +5524,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
+    <row spans="1:4" r="271">
+      <c s="1" r="A271" t="n">
         <v>1296</v>
       </c>
       <c r="B271" t="s">
@@ -5549,8 +5538,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
+    <row spans="1:4" r="272">
+      <c s="1" r="A272" t="n">
         <v>1297</v>
       </c>
       <c r="B272" t="s">
@@ -5563,8 +5552,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
+    <row spans="1:4" r="273">
+      <c s="1" r="A273" t="n">
         <v>1298</v>
       </c>
       <c r="B273" t="s">
@@ -5577,8 +5566,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
+    <row spans="1:4" r="274">
+      <c s="1" r="A274" t="n">
         <v>1299</v>
       </c>
       <c r="B274" t="s">
@@ -5591,8 +5580,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
+    <row spans="1:4" r="275">
+      <c s="1" r="A275" t="n">
         <v>1300</v>
       </c>
       <c r="B275" t="s">
@@ -5605,8 +5594,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
+    <row spans="1:4" r="276">
+      <c s="1" r="A276" t="n">
         <v>1301</v>
       </c>
       <c r="B276" t="s">
@@ -5619,8 +5608,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
+    <row spans="1:4" r="277">
+      <c s="1" r="A277" t="n">
         <v>1302</v>
       </c>
       <c r="B277" t="s">
@@ -5633,8 +5622,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
+    <row spans="1:4" r="278">
+      <c s="1" r="A278" t="n">
         <v>1303</v>
       </c>
       <c r="B278" t="s">
@@ -5647,8 +5636,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
+    <row spans="1:4" r="279">
+      <c s="1" r="A279" t="n">
         <v>1304</v>
       </c>
       <c r="B279" t="s">
@@ -5661,8 +5650,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
+    <row spans="1:4" r="280">
+      <c s="1" r="A280" t="n">
         <v>1305</v>
       </c>
       <c r="B280" t="s">
@@ -5675,8 +5664,8 @@
         <v>369</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
+    <row spans="1:4" r="281">
+      <c s="1" r="A281" t="n">
         <v>1306</v>
       </c>
       <c r="B281" t="s">
@@ -5689,8 +5678,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
+    <row spans="1:4" r="282">
+      <c s="1" r="A282" t="n">
         <v>1307</v>
       </c>
       <c r="B282" t="s">
@@ -5703,8 +5692,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
+    <row spans="1:4" r="283">
+      <c s="1" r="A283" t="n">
         <v>1308</v>
       </c>
       <c r="B283" t="s">
@@ -5717,8 +5706,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
+    <row spans="1:4" r="284">
+      <c s="1" r="A284" t="n">
         <v>1309</v>
       </c>
       <c r="B284" t="s">
@@ -5731,8 +5720,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
+    <row spans="1:4" r="285">
+      <c s="1" r="A285" t="n">
         <v>1310</v>
       </c>
       <c r="B285" t="s">
@@ -5745,8 +5734,8 @@
         <v>369</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
+    <row spans="1:4" r="286">
+      <c s="1" r="A286" t="n">
         <v>1311</v>
       </c>
       <c r="B286" t="s">
@@ -5759,8 +5748,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
+    <row spans="1:4" r="287">
+      <c s="1" r="A287" t="n">
         <v>1312</v>
       </c>
       <c r="B287" t="s">
@@ -5773,8 +5762,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
+    <row spans="1:4" r="288">
+      <c s="1" r="A288" t="n">
         <v>1313</v>
       </c>
       <c r="B288" t="s">
@@ -5787,8 +5776,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
+    <row spans="1:4" r="289">
+      <c s="1" r="A289" t="n">
         <v>1314</v>
       </c>
       <c r="B289" t="s">
@@ -5801,8 +5790,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
+    <row spans="1:4" r="290">
+      <c s="1" r="A290" t="n">
         <v>1315</v>
       </c>
       <c r="B290" t="s">
@@ -5815,8 +5804,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
+    <row spans="1:4" r="291">
+      <c s="1" r="A291" t="n">
         <v>1316</v>
       </c>
       <c r="B291" t="s">
@@ -5829,8 +5818,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
+    <row spans="1:4" r="292">
+      <c s="1" r="A292" t="n">
         <v>1317</v>
       </c>
       <c r="B292" t="s">
@@ -5843,8 +5832,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
+    <row spans="1:4" r="293">
+      <c s="1" r="A293" t="n">
         <v>1318</v>
       </c>
       <c r="B293" t="s">
@@ -5857,8 +5846,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
+    <row spans="1:4" r="294">
+      <c s="1" r="A294" t="n">
         <v>1319</v>
       </c>
       <c r="B294" t="s">
@@ -5871,8 +5860,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
+    <row spans="1:4" r="295">
+      <c s="1" r="A295" t="n">
         <v>1320</v>
       </c>
       <c r="B295" t="s">
@@ -5885,8 +5874,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
+    <row spans="1:4" r="296">
+      <c s="1" r="A296" t="n">
         <v>1321</v>
       </c>
       <c r="B296" t="s">
@@ -5899,8 +5888,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
+    <row spans="1:4" r="297">
+      <c s="1" r="A297" t="n">
         <v>1322</v>
       </c>
       <c r="B297" t="s">
@@ -5913,8 +5902,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
+    <row spans="1:4" r="298">
+      <c s="1" r="A298" t="n">
         <v>1323</v>
       </c>
       <c r="B298" t="s">
@@ -5927,8 +5916,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
+    <row spans="1:4" r="299">
+      <c s="1" r="A299" t="n">
         <v>1324</v>
       </c>
       <c r="B299" t="s">
@@ -5941,8 +5930,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
+    <row spans="1:4" r="300">
+      <c s="1" r="A300" t="n">
         <v>1325</v>
       </c>
       <c r="B300" t="s">
@@ -5955,8 +5944,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
+    <row spans="1:4" r="301">
+      <c s="1" r="A301" t="n">
         <v>1326</v>
       </c>
       <c r="B301" t="s">
@@ -5969,8 +5958,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
+    <row spans="1:4" r="302">
+      <c s="1" r="A302" t="n">
         <v>1327</v>
       </c>
       <c r="B302" t="s">
@@ -5983,8 +5972,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="1">
+    <row spans="1:4" r="303">
+      <c s="1" r="A303" t="n">
         <v>1328</v>
       </c>
       <c r="B303" t="s">
@@ -5997,8 +5986,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
+    <row spans="1:4" r="304">
+      <c s="1" r="A304" t="n">
         <v>1329</v>
       </c>
       <c r="B304" t="s">
@@ -6011,8 +6000,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
+    <row spans="1:4" r="305">
+      <c s="1" r="A305" t="n">
         <v>1330</v>
       </c>
       <c r="B305" t="s">
@@ -6025,8 +6014,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="1">
+    <row spans="1:4" r="306">
+      <c s="1" r="A306" t="n">
         <v>1331</v>
       </c>
       <c r="B306" t="s">
@@ -6039,8 +6028,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
+    <row spans="1:4" r="307">
+      <c s="1" r="A307" t="n">
         <v>1332</v>
       </c>
       <c r="B307" t="s">
@@ -6053,8 +6042,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
+    <row spans="1:4" r="308">
+      <c s="1" r="A308" t="n">
         <v>1333</v>
       </c>
       <c r="B308" t="s">
@@ -6067,8 +6056,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="1">
+    <row spans="1:4" r="309">
+      <c s="1" r="A309" t="n">
         <v>1334</v>
       </c>
       <c r="B309" t="s">
@@ -6081,8 +6070,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="1">
+    <row spans="1:4" r="310">
+      <c s="1" r="A310" t="n">
         <v>1335</v>
       </c>
       <c r="B310" t="s">
@@ -6095,8 +6084,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="1">
+    <row spans="1:4" r="311">
+      <c s="1" r="A311" t="n">
         <v>1336</v>
       </c>
       <c r="B311" t="s">
@@ -6109,8 +6098,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="1">
+    <row spans="1:4" r="312">
+      <c s="1" r="A312" t="n">
         <v>1337</v>
       </c>
       <c r="B312" t="s">
@@ -6123,8 +6112,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="1">
+    <row spans="1:4" r="313">
+      <c s="1" r="A313" t="n">
         <v>1338</v>
       </c>
       <c r="B313" t="s">
@@ -6137,8 +6126,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="1">
+    <row spans="1:4" r="314">
+      <c s="1" r="A314" t="n">
         <v>1339</v>
       </c>
       <c r="B314" t="s">
@@ -6151,8 +6140,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
+    <row spans="1:4" r="315">
+      <c s="1" r="A315" t="n">
         <v>1340</v>
       </c>
       <c r="B315" t="s">
@@ -6165,8 +6154,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="1">
+    <row spans="1:4" r="316">
+      <c s="1" r="A316" t="n">
         <v>1341</v>
       </c>
       <c r="B316" t="s">
@@ -6179,8 +6168,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="1">
+    <row spans="1:4" r="317">
+      <c s="1" r="A317" t="n">
         <v>1342</v>
       </c>
       <c r="B317" t="s">
@@ -6193,8 +6182,8 @@
         <v>414</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="1">
+    <row spans="1:4" r="318">
+      <c s="1" r="A318" t="n">
         <v>1343</v>
       </c>
       <c r="B318" t="s">
@@ -6207,8 +6196,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
+    <row spans="1:4" r="319">
+      <c s="1" r="A319" t="n">
         <v>1344</v>
       </c>
       <c r="B319" t="s">
@@ -6221,8 +6210,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="1">
+    <row spans="1:4" r="320">
+      <c s="1" r="A320" t="n">
         <v>1345</v>
       </c>
       <c r="B320" t="s">
@@ -6235,8 +6224,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="1">
+    <row spans="1:4" r="321">
+      <c s="1" r="A321" t="n">
         <v>1346</v>
       </c>
       <c r="B321" t="s">
@@ -6249,8 +6238,8 @@
         <v>420</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="1">
+    <row spans="1:4" r="322">
+      <c s="1" r="A322" t="n">
         <v>1347</v>
       </c>
       <c r="B322" t="s">
@@ -6263,8 +6252,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="1">
+    <row spans="1:4" r="323">
+      <c s="1" r="A323" t="n">
         <v>1348</v>
       </c>
       <c r="B323" t="s">
@@ -6277,8 +6266,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
+    <row spans="1:4" r="324">
+      <c s="1" r="A324" t="n">
         <v>1349</v>
       </c>
       <c r="B324" t="s">
@@ -6291,8 +6280,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="1">
+    <row spans="1:4" r="325">
+      <c s="1" r="A325" t="n">
         <v>1350</v>
       </c>
       <c r="B325" t="s">
@@ -6305,8 +6294,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="1">
+    <row spans="1:4" r="326">
+      <c s="1" r="A326" t="n">
         <v>1351</v>
       </c>
       <c r="B326" t="s">
@@ -6319,8 +6308,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
+    <row spans="1:4" r="327">
+      <c s="1" r="A327" t="n">
         <v>1352</v>
       </c>
       <c r="B327" t="s">
@@ -6333,8 +6322,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="1">
+    <row spans="1:4" r="328">
+      <c s="1" r="A328" t="n">
         <v>1353</v>
       </c>
       <c r="B328" t="s">
@@ -6347,8 +6336,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
+    <row spans="1:4" r="329">
+      <c s="1" r="A329" t="n">
         <v>1354</v>
       </c>
       <c r="B329" t="s">
@@ -6361,8 +6350,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="1">
+    <row spans="1:4" r="330">
+      <c s="1" r="A330" t="n">
         <v>1355</v>
       </c>
       <c r="B330" t="s">
@@ -6375,8 +6364,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="1">
+    <row spans="1:4" r="331">
+      <c s="1" r="A331" t="n">
         <v>1356</v>
       </c>
       <c r="B331" t="s">
@@ -6389,8 +6378,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="1">
+    <row spans="1:4" r="332">
+      <c s="1" r="A332" t="n">
         <v>1357</v>
       </c>
       <c r="B332" t="s">
@@ -6403,8 +6392,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
+    <row spans="1:4" r="333">
+      <c s="1" r="A333" t="n">
         <v>1358</v>
       </c>
       <c r="B333" t="s">
@@ -6417,8 +6406,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="1">
+    <row spans="1:4" r="334">
+      <c s="1" r="A334" t="n">
         <v>1359</v>
       </c>
       <c r="B334" t="s">
@@ -6431,8 +6420,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="1">
+    <row spans="1:4" r="335">
+      <c s="1" r="A335" t="n">
         <v>1360</v>
       </c>
       <c r="B335" t="s">
@@ -6445,8 +6434,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="1">
+    <row spans="1:4" r="336">
+      <c s="1" r="A336" t="n">
         <v>1361</v>
       </c>
       <c r="B336" t="s">
@@ -6459,8 +6448,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
+    <row spans="1:4" r="337">
+      <c s="1" r="A337" t="n">
         <v>1362</v>
       </c>
       <c r="B337" t="s">
@@ -6473,8 +6462,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="1">
+    <row spans="1:4" r="338">
+      <c s="1" r="A338" t="n">
         <v>1363</v>
       </c>
       <c r="B338" t="s">
@@ -6487,8 +6476,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
+    <row spans="1:4" r="339">
+      <c s="1" r="A339" t="n">
         <v>1364</v>
       </c>
       <c r="B339" t="s">
@@ -6501,8 +6490,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
+    <row spans="1:4" r="340">
+      <c s="1" r="A340" t="n">
         <v>1365</v>
       </c>
       <c r="B340" t="s">
@@ -6515,8 +6504,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
+    <row spans="1:4" r="341">
+      <c s="1" r="A341" t="n">
         <v>1366</v>
       </c>
       <c r="B341" t="s">
@@ -6529,8 +6518,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
+    <row spans="1:4" r="342">
+      <c s="1" r="A342" t="n">
         <v>1367</v>
       </c>
       <c r="B342" t="s">
@@ -6543,8 +6532,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
+    <row spans="1:4" r="343">
+      <c s="1" r="A343" t="n">
         <v>1368</v>
       </c>
       <c r="B343" t="s">
@@ -6557,8 +6546,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
+    <row spans="1:4" r="344">
+      <c s="1" r="A344" t="n">
         <v>1369</v>
       </c>
       <c r="B344" t="s">
@@ -6571,8 +6560,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
+    <row spans="1:4" r="345">
+      <c s="1" r="A345" t="n">
         <v>1370</v>
       </c>
       <c r="B345" t="s">
@@ -6585,8 +6574,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
+    <row spans="1:4" r="346">
+      <c s="1" r="A346" t="n">
         <v>1623</v>
       </c>
       <c r="B346" t="s">
@@ -6599,8 +6588,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
+    <row spans="1:4" r="347">
+      <c s="1" r="A347" t="n">
         <v>1624</v>
       </c>
       <c r="B347" t="s">
@@ -6613,8 +6602,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
+    <row spans="1:4" r="348">
+      <c s="1" r="A348" t="n">
         <v>1625</v>
       </c>
       <c r="B348" t="s">
@@ -6627,8 +6616,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
+    <row spans="1:4" r="349">
+      <c s="1" r="A349" t="n">
         <v>1626</v>
       </c>
       <c r="B349" t="s">
@@ -6641,8 +6630,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
+    <row spans="1:4" r="350">
+      <c s="1" r="A350" t="n">
         <v>1627</v>
       </c>
       <c r="B350" t="s">
@@ -6655,8 +6644,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
+    <row spans="1:4" r="351">
+      <c s="1" r="A351" t="n">
         <v>1628</v>
       </c>
       <c r="B351" t="s">
@@ -6669,8 +6658,8 @@
         <v>446</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
+    <row spans="1:4" r="352">
+      <c s="1" r="A352" t="n">
         <v>1629</v>
       </c>
       <c r="B352" t="s">
@@ -6683,8 +6672,8 @@
         <v>447</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
+    <row spans="1:4" r="353">
+      <c s="1" r="A353" t="n">
         <v>1630</v>
       </c>
       <c r="B353" t="s">
@@ -6697,8 +6686,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
+    <row spans="1:4" r="354">
+      <c s="1" r="A354" t="n">
         <v>1631</v>
       </c>
       <c r="B354" t="s">
@@ -6711,8 +6700,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
+    <row spans="1:4" r="355">
+      <c s="1" r="A355" t="n">
         <v>1632</v>
       </c>
       <c r="B355" t="s">
@@ -6725,8 +6714,8 @@
         <v>449</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
+    <row spans="1:4" r="356">
+      <c s="1" r="A356" t="n">
         <v>1633</v>
       </c>
       <c r="B356" t="s">
@@ -6739,8 +6728,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
+    <row spans="1:4" r="357">
+      <c s="1" r="A357" t="n">
         <v>1634</v>
       </c>
       <c r="B357" t="s">
@@ -6753,8 +6742,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
+    <row spans="1:4" r="358">
+      <c s="1" r="A358" t="n">
         <v>1635</v>
       </c>
       <c r="B358" t="s">
@@ -6767,8 +6756,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
+    <row spans="1:4" r="359">
+      <c s="1" r="A359" t="n">
         <v>1636</v>
       </c>
       <c r="B359" t="s">
@@ -6781,8 +6770,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
+    <row spans="1:4" r="360">
+      <c s="1" r="A360" t="n">
         <v>1637</v>
       </c>
       <c r="B360" t="s">
@@ -6795,8 +6784,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
+    <row spans="1:4" r="361">
+      <c s="1" r="A361" t="n">
         <v>1638</v>
       </c>
       <c r="B361" t="s">
@@ -6809,8 +6798,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
+    <row spans="1:4" r="362">
+      <c s="1" r="A362" t="n">
         <v>1639</v>
       </c>
       <c r="B362" t="s">
@@ -6823,8 +6812,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" s="1">
+    <row spans="1:4" r="363">
+      <c s="1" r="A363" t="n">
         <v>1640</v>
       </c>
       <c r="B363" t="s">
@@ -6837,8 +6826,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="1">
+    <row spans="1:4" r="364">
+      <c s="1" r="A364" t="n">
         <v>1641</v>
       </c>
       <c r="B364" t="s">
@@ -6851,8 +6840,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="1">
+    <row spans="1:4" r="365">
+      <c s="1" r="A365" t="n">
         <v>1642</v>
       </c>
       <c r="B365" t="s">
@@ -6865,8 +6854,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="1">
+    <row spans="1:4" r="366">
+      <c s="1" r="A366" t="n">
         <v>1643</v>
       </c>
       <c r="B366" t="s">
@@ -6879,8 +6868,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" s="1">
+    <row spans="1:4" r="367">
+      <c s="1" r="A367" t="n">
         <v>1644</v>
       </c>
       <c r="B367" t="s">
@@ -6893,8 +6882,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
+    <row spans="1:4" r="368">
+      <c s="1" r="A368" t="n">
         <v>1645</v>
       </c>
       <c r="B368" t="s">
@@ -6907,8 +6896,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" s="1">
+    <row spans="1:4" r="369">
+      <c s="1" r="A369" t="n">
         <v>1646</v>
       </c>
       <c r="B369" t="s">
@@ -6921,8 +6910,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" s="1">
+    <row spans="1:4" r="370">
+      <c s="1" r="A370" t="n">
         <v>1647</v>
       </c>
       <c r="B370" t="s">
@@ -6935,8 +6924,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="1">
+    <row spans="1:4" r="371">
+      <c s="1" r="A371" t="n">
         <v>1648</v>
       </c>
       <c r="B371" t="s">
@@ -6949,8 +6938,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="1">
+    <row spans="1:4" r="372">
+      <c s="1" r="A372" t="n">
         <v>1649</v>
       </c>
       <c r="B372" t="s">
@@ -6963,8 +6952,8 @@
         <v>446</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="1">
+    <row spans="1:4" r="373">
+      <c s="1" r="A373" t="n">
         <v>1650</v>
       </c>
       <c r="B373" t="s">
@@ -6977,8 +6966,8 @@
         <v>447</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" s="1">
+    <row spans="1:4" r="374">
+      <c s="1" r="A374" t="n">
         <v>1651</v>
       </c>
       <c r="B374" t="s">
@@ -6991,8 +6980,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
+    <row spans="1:4" r="375">
+      <c s="1" r="A375" t="n">
         <v>1652</v>
       </c>
       <c r="B375" t="s">
@@ -7005,8 +6994,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
+    <row spans="1:4" r="376">
+      <c s="1" r="A376" t="n">
         <v>1653</v>
       </c>
       <c r="B376" t="s">
@@ -7019,8 +7008,8 @@
         <v>449</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="1">
+    <row spans="1:4" r="377">
+      <c s="1" r="A377" t="n">
         <v>1654</v>
       </c>
       <c r="B377" t="s">
@@ -7033,8 +7022,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
+    <row spans="1:4" r="378">
+      <c s="1" r="A378" t="n">
         <v>1655</v>
       </c>
       <c r="B378" t="s">
@@ -7047,8 +7036,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
+    <row spans="1:4" r="379">
+      <c s="1" r="A379" t="n">
         <v>1656</v>
       </c>
       <c r="B379" t="s">
@@ -7061,8 +7050,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
+    <row spans="1:4" r="380">
+      <c s="1" r="A380" t="n">
         <v>1657</v>
       </c>
       <c r="B380" t="s">
@@ -7075,8 +7064,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
+    <row spans="1:4" r="381">
+      <c s="1" r="A381" t="n">
         <v>1658</v>
       </c>
       <c r="B381" t="s">
@@ -7089,8 +7078,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="1">
+    <row spans="1:4" r="382">
+      <c s="1" r="A382" t="n">
         <v>1659</v>
       </c>
       <c r="B382" t="s">
@@ -7103,8 +7092,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="1">
+    <row spans="1:4" r="383">
+      <c s="1" r="A383" t="n">
         <v>1660</v>
       </c>
       <c r="B383" t="s">
@@ -7117,8 +7106,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="1">
+    <row spans="1:4" r="384">
+      <c s="1" r="A384" t="n">
         <v>1661</v>
       </c>
       <c r="B384" t="s">
@@ -7131,8 +7120,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="1">
+    <row spans="1:4" r="385">
+      <c s="1" r="A385" t="n">
         <v>1662</v>
       </c>
       <c r="B385" t="s">
@@ -7145,8 +7134,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="1">
+    <row spans="1:4" r="386">
+      <c s="1" r="A386" t="n">
         <v>1663</v>
       </c>
       <c r="B386" t="s">
@@ -7159,8 +7148,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="1">
+    <row spans="1:4" r="387">
+      <c s="1" r="A387" t="n">
         <v>1664</v>
       </c>
       <c r="B387" t="s">
@@ -7173,8 +7162,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="1">
+    <row spans="1:4" r="388">
+      <c s="1" r="A388" t="n">
         <v>1665</v>
       </c>
       <c r="B388" t="s">
@@ -7187,8 +7176,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="1">
+    <row spans="1:4" r="389">
+      <c s="1" r="A389" t="n">
         <v>1666</v>
       </c>
       <c r="B389" t="s">
@@ -7201,8 +7190,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="1">
+    <row spans="1:4" r="390">
+      <c s="1" r="A390" t="n">
         <v>1667</v>
       </c>
       <c r="B390" t="s">
@@ -7215,8 +7204,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="1">
+    <row spans="1:4" r="391">
+      <c s="1" r="A391" t="n">
         <v>1668</v>
       </c>
       <c r="B391" t="s">
@@ -7229,8 +7218,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="1">
+    <row spans="1:4" r="392">
+      <c s="1" r="A392" t="n">
         <v>1669</v>
       </c>
       <c r="B392" t="s">
@@ -7243,8 +7232,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="1">
+    <row spans="1:4" r="393">
+      <c s="1" r="A393" t="n">
         <v>1670</v>
       </c>
       <c r="B393" t="s">
@@ -7257,8 +7246,8 @@
         <v>446</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="1">
+    <row spans="1:4" r="394">
+      <c s="1" r="A394" t="n">
         <v>1671</v>
       </c>
       <c r="B394" t="s">
@@ -7271,8 +7260,8 @@
         <v>447</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="1">
+    <row spans="1:4" r="395">
+      <c s="1" r="A395" t="n">
         <v>1672</v>
       </c>
       <c r="B395" t="s">
@@ -7285,8 +7274,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="1">
+    <row spans="1:4" r="396">
+      <c s="1" r="A396" t="n">
         <v>1673</v>
       </c>
       <c r="B396" t="s">
@@ -7299,8 +7288,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="1">
+    <row spans="1:4" r="397">
+      <c s="1" r="A397" t="n">
         <v>1674</v>
       </c>
       <c r="B397" t="s">
@@ -7313,8 +7302,8 @@
         <v>449</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="1">
+    <row spans="1:4" r="398">
+      <c s="1" r="A398" t="n">
         <v>1675</v>
       </c>
       <c r="B398" t="s">
@@ -7327,8 +7316,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="1">
+    <row spans="1:4" r="399">
+      <c s="1" r="A399" t="n">
         <v>1676</v>
       </c>
       <c r="B399" t="s">
@@ -7341,8 +7330,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="1">
+    <row spans="1:4" r="400">
+      <c s="1" r="A400" t="n">
         <v>1677</v>
       </c>
       <c r="B400" t="s">
@@ -7355,8 +7344,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="1">
+    <row spans="1:4" r="401">
+      <c s="1" r="A401" t="n">
         <v>1678</v>
       </c>
       <c r="B401" t="s">
@@ -7369,8 +7358,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="1">
+    <row spans="1:4" r="402">
+      <c s="1" r="A402" t="n">
         <v>1679</v>
       </c>
       <c r="B402" t="s">
@@ -7383,8 +7372,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="1">
+    <row spans="1:4" r="403">
+      <c s="1" r="A403" t="n">
         <v>1680</v>
       </c>
       <c r="B403" t="s">
@@ -7397,8 +7386,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="1">
+    <row spans="1:4" r="404">
+      <c s="1" r="A404" t="n">
         <v>1681</v>
       </c>
       <c r="B404" t="s">
@@ -7411,8 +7400,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="1">
+    <row spans="1:4" r="405">
+      <c s="1" r="A405" t="n">
         <v>1682</v>
       </c>
       <c r="B405" t="s">
@@ -7425,8 +7414,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="1">
+    <row spans="1:4" r="406">
+      <c s="1" r="A406" t="n">
         <v>1683</v>
       </c>
       <c r="B406" t="s">
@@ -7439,8 +7428,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="1">
+    <row spans="1:4" r="407">
+      <c s="1" r="A407" t="n">
         <v>1684</v>
       </c>
       <c r="B407" t="s">
@@ -7453,8 +7442,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="1">
+    <row spans="1:4" r="408">
+      <c s="1" r="A408" t="n">
         <v>1685</v>
       </c>
       <c r="B408" t="s">
@@ -7468,6 +7457,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="532">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +28,1287 @@
     <t>title</t>
   </si>
   <si>
+    <t>1299</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Вазон бетонный уличный квадратный</t>
+  </si>
+  <si>
+    <t>3999</t>
+  </si>
+  <si>
+    <t>Вазон бетонный уличный шестиугольный</t>
+  </si>
+  <si>
+    <t>Вазон бетонный уличный круглый</t>
+  </si>
+  <si>
+    <t>2499</t>
+  </si>
+  <si>
+    <t>Вазон бетонный уличный прямоугольный</t>
+  </si>
+  <si>
+    <t>3499</t>
+  </si>
+  <si>
+    <t>21900</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>Линейный привод DoorHan Swing.5000</t>
+  </si>
+  <si>
+    <t>23500</t>
+  </si>
+  <si>
+    <t>Линейный привод KRONO 310</t>
+  </si>
+  <si>
+    <t>24900</t>
+  </si>
+  <si>
+    <t>Линейный привод CAME ATI 3000</t>
+  </si>
+  <si>
+    <t>27900</t>
+  </si>
+  <si>
+    <t>Рычажный привод CAME FAST 7000</t>
+  </si>
+  <si>
+    <t>31900</t>
+  </si>
+  <si>
+    <t>Рычажный привод CAME FERNI 1000</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Полусфера бетонная</t>
+  </si>
+  <si>
+    <t>от 299</t>
+  </si>
+  <si>
+    <t>Полусфера с арматурой</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>Полусфера крашеная</t>
+  </si>
+  <si>
+    <t>Полусфера крашеная с арматурой</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>Полусфера шестигранная с арматурой</t>
+  </si>
+  <si>
+    <t>Полусфера шестигранная крашеная</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>Полусфера шестигранная крашеная с арматурой</t>
+  </si>
+  <si>
+    <t>Полусфера бетонная высокая</t>
+  </si>
+  <si>
+    <t>1499</t>
+  </si>
+  <si>
+    <t>Полусфера бетонная высокая с арматурой</t>
+  </si>
+  <si>
+    <t>Полусфера бетонная высокая крашеная</t>
+  </si>
+  <si>
+    <t>1699</t>
+  </si>
+  <si>
+    <t>Полусфера бетонная высокая с арматурой крашеная</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>Полусфера бетонная высокая крашеная с арматурой</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>Столбик бетонный шестигранный</t>
+  </si>
+  <si>
+    <t>Столбик бетонный шестигранный с арматурой</t>
+  </si>
+  <si>
+    <t>1449</t>
+  </si>
+  <si>
+    <t>Столбик бетонный восьмигранный</t>
+  </si>
+  <si>
+    <t>Столбик бетонный восьмигранный с арматурой</t>
+  </si>
+  <si>
+    <t>1799</t>
+  </si>
+  <si>
+    <t>Полусфера офактуренная серая</t>
+  </si>
+  <si>
+    <t>Полусфера офактуренная серая с арматурой</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>Полусфера офактуренная красная</t>
+  </si>
+  <si>
+    <t>Полусфера офактуренная красная с арматурой</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>Полусфера супертяжелая</t>
+  </si>
+  <si>
+    <t>от 999</t>
+  </si>
+  <si>
+    <t>Полусфера супертяжелая с арматурой</t>
+  </si>
+  <si>
+    <t>5999</t>
+  </si>
+  <si>
+    <t>от 1999</t>
+  </si>
+  <si>
+    <t>Полусфера супертяжелая крашеная</t>
+  </si>
+  <si>
+    <t>Полусфера супертяжелая крашеная с арматурой</t>
+  </si>
+  <si>
+    <t>Тяжелая бетонная урна для мусора</t>
+  </si>
+  <si>
+    <t>Стандартная бетонная урна</t>
+  </si>
+  <si>
+    <t>2599</t>
+  </si>
+  <si>
+    <t>Урна бетонная эконом</t>
+  </si>
+  <si>
+    <t>2699</t>
+  </si>
+  <si>
+    <t>Урна бетонная капля</t>
+  </si>
+  <si>
+    <t>Урна бетонная уличная для мусора</t>
+  </si>
+  <si>
+    <t>Урна уличная для мусора</t>
+  </si>
+  <si>
+    <t>Урна бетонная волна</t>
+  </si>
+  <si>
+    <t>Урна для мусора</t>
+  </si>
+  <si>
+    <t>Урна бетонная ромб</t>
+  </si>
+  <si>
+    <t>Парковая урна для мусора</t>
+  </si>
+  <si>
+    <t>Тяжелая бетонная урна</t>
+  </si>
+  <si>
+    <t>Круглый вкладыш для бетонной урны оцинкованный</t>
+  </si>
+  <si>
+    <t>Квадратный вкладыш для бетонной урны оцинкованный</t>
+  </si>
+  <si>
+    <t>Треугольный вкладыш для бетонной урны оцинкованный</t>
+  </si>
+  <si>
+    <t>Пластиковая сетка. Экопарковка</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>Веха сигнальная</t>
+  </si>
+  <si>
+    <t>Аварийное ограждение - 50м</t>
+  </si>
+  <si>
+    <t>Аварийное ограждение - 20м</t>
+  </si>
+  <si>
+    <t>Аварийное ограждение - 25м</t>
+  </si>
+  <si>
+    <t>2999</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>Решетка садовая - 5м</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>Решетка садовая - 10м</t>
+  </si>
+  <si>
+    <t>Решетка садовая - 20м</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>Сетка - 5м</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>Сетка - 10м</t>
+  </si>
+  <si>
+    <t>3122</t>
+  </si>
+  <si>
+    <t>Решетка садовая - 15м</t>
+  </si>
+  <si>
+    <t>6194</t>
+  </si>
+  <si>
+    <t>Решетка садовая - 30м</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>Решетка заборная  - 15м</t>
+  </si>
+  <si>
+    <t>11324</t>
+  </si>
+  <si>
+    <t>Решетка заборная  - 30м</t>
+  </si>
+  <si>
+    <t>Решетка заборная  - 25м</t>
+  </si>
+  <si>
+    <t>7700</t>
+  </si>
+  <si>
+    <t>2087</t>
+  </si>
+  <si>
+    <t>Решетка заборная  - 10м</t>
+  </si>
+  <si>
+    <t>5187</t>
+  </si>
+  <si>
+    <t>Противомоскитная сетка - 30м</t>
+  </si>
+  <si>
+    <t>4509</t>
+  </si>
+  <si>
+    <t>Защита строительных лесов - 100м</t>
+  </si>
+  <si>
+    <t>Решетка газонная - 15м</t>
+  </si>
+  <si>
+    <t>Решетка газонная - 30м</t>
+  </si>
+  <si>
+    <t>Геосетка газонная - 30м</t>
+  </si>
+  <si>
+    <t>8199</t>
+  </si>
+  <si>
+    <t>Геосетка тротуарная - 25м</t>
+  </si>
+  <si>
+    <t>3521</t>
+  </si>
+  <si>
+    <t>Геосетка тротуарная - 30м</t>
+  </si>
+  <si>
+    <t>Геосетка тротуарная - 50м</t>
+  </si>
+  <si>
+    <t>13844</t>
+  </si>
+  <si>
+    <t>Общестроительная сетка - 10м</t>
+  </si>
+  <si>
+    <t>Общестроительная сетка - 25м</t>
+  </si>
+  <si>
+    <t>Общестроительная сетка - 50м</t>
+  </si>
+  <si>
+    <t>Кладочная сетка - 100м</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>Универсал S - 100-2 - 100м</t>
+  </si>
+  <si>
+    <t>2714</t>
+  </si>
+  <si>
+    <t>Штукатурная сетка</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>Универсал M - 100м</t>
+  </si>
+  <si>
+    <t>3978</t>
+  </si>
+  <si>
+    <t>Универсал L - 100м</t>
+  </si>
+  <si>
+    <t>4163</t>
+  </si>
+  <si>
+    <t>Защита саженцев - 5м</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>Защита саженцев - 10м</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>Подставка под сигнальную веху</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>Бордюрная лента - 10м</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>2287</t>
+  </si>
+  <si>
+    <t>Бордюрная лента - 30м</t>
+  </si>
+  <si>
+    <t>Дорожные знаки треугольные</t>
+  </si>
+  <si>
+    <t>Дорожные знаки квадратные</t>
+  </si>
+  <si>
+    <t>Дорожные знаки круглые</t>
+  </si>
+  <si>
+    <t>Дорожные знаки</t>
+  </si>
+  <si>
+    <t>Дорожные знаки таблички</t>
+  </si>
+  <si>
+    <t>Дорожные знаки СТОП</t>
+  </si>
+  <si>
+    <t>Дорожные знаки сервиса</t>
+  </si>
+  <si>
+    <t>Дорожные знаки движения по полосам</t>
+  </si>
+  <si>
+    <t>Дорожные знаки выезд</t>
+  </si>
+  <si>
+    <t>Дорожные знаки ЖД</t>
+  </si>
+  <si>
+    <t>Дорожные знаки поворота</t>
+  </si>
+  <si>
+    <t>Дорожные знаки препятствия</t>
+  </si>
+  <si>
+    <t>Дорожные знаки указатели</t>
+  </si>
+  <si>
+    <t>Дорожные знаки щиты</t>
+  </si>
+  <si>
+    <t>Фундамент дорожного знака</t>
+  </si>
+  <si>
+    <t>Стойка дорожного знака</t>
+  </si>
+  <si>
+    <t>Крепеж дорожного знака</t>
+  </si>
+  <si>
+    <t>2490</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Средний блок искусственной дорожной неровности ИДН.900С</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Средний блок искусственной дорожной неровности ИДН.900К</t>
+  </si>
+  <si>
+    <t>2690</t>
+  </si>
+  <si>
+    <t>Средний блок искусственной дорожной неровности ИДН.900СА</t>
+  </si>
+  <si>
+    <t>1590</t>
+  </si>
+  <si>
+    <t>Средний блок искусственной дорожной неровности ИДН.900КА</t>
+  </si>
+  <si>
+    <t>Средний блок искусственной дорожной неровности ИДН.500С</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>Средний блок искусственной дорожной неровности ИДН.500К</t>
+  </si>
+  <si>
+    <t>Средний блок искусственной дорожной неровности ИДН.500СА</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>Средний блок искусственной дорожной неровности ИДН.500КА</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>Средний блок искусственной дорожной неровности ИДН.350С</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>Средний блок искусственной дорожной неровности ИДН.350К</t>
+  </si>
+  <si>
+    <t>8730</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.500.3м</t>
+  </si>
+  <si>
+    <t>11510</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.500.4м</t>
+  </si>
+  <si>
+    <t>14290</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.500.5м</t>
+  </si>
+  <si>
+    <t>17070</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.500.6м</t>
+  </si>
+  <si>
+    <t>19850</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.500.7м</t>
+  </si>
+  <si>
+    <t>22630</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.500.8м</t>
+  </si>
+  <si>
+    <t>7020</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.350.3м</t>
+  </si>
+  <si>
+    <t>9360</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.350.4м</t>
+  </si>
+  <si>
+    <t>11700</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.350.5м</t>
+  </si>
+  <si>
+    <t>14040</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.350.6м</t>
+  </si>
+  <si>
+    <t>16380</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.350.7м</t>
+  </si>
+  <si>
+    <t>18720</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.350.8м</t>
+  </si>
+  <si>
+    <t>15230</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.900.3м</t>
+  </si>
+  <si>
+    <t>20210</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.900.4м</t>
+  </si>
+  <si>
+    <t>25190</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.900.5м</t>
+  </si>
+  <si>
+    <t>30170</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.900.6м</t>
+  </si>
+  <si>
+    <t>35150</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.900.7м</t>
+  </si>
+  <si>
+    <t>40130</t>
+  </si>
+  <si>
+    <t>Искусственная дорожная неровность ИДН.900.8м</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
+    <t>Лента Внимание теплосеть</t>
+  </si>
+  <si>
+    <t>1314</t>
+  </si>
+  <si>
+    <t>Лента Внимание канализация</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>Лента Осторожно! Оптический кабель</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>Лента Не копать - ниже кабель</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>Лента ОСТОРОЖНО КАБЕЛЬ</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>1829</t>
+  </si>
+  <si>
+    <t>2482</t>
+  </si>
+  <si>
+    <t>3102</t>
+  </si>
+  <si>
+    <t>3528</t>
+  </si>
+  <si>
+    <t>Лента оградительная Эконом</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Лента оградительная Стандарт</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Лента оградительная Усиленная</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Лента оградительная Опасная зона!</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>Лента оградительная Проход запрещен!</t>
+  </si>
+  <si>
+    <t>Лента оградительная Внимание ДТП</t>
+  </si>
+  <si>
+    <t>Лента оградительная Опасная зона МЧС России телефон 01</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>Лента оградительная Зона таможенного контроля</t>
+  </si>
+  <si>
+    <t>Лента Газпромрегионгаз - Огнеопасно Газ</t>
+  </si>
+  <si>
+    <t>Лента  Газ</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>Лента  Опасно Газ</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>Лента  ОПАСНО Газ</t>
+  </si>
+  <si>
+    <t>Лента Внимание водопровод</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Конус сигнальный</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>Автоконус с вехой</t>
+  </si>
+  <si>
+    <t>Конус дорожный</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>Конус дорожный с ухом для цепи</t>
+  </si>
+  <si>
+    <t>Конус дорожный с утяжелителем</t>
+  </si>
+  <si>
+    <t>Конус дорожный с утяжелитем и ухом для цепи</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>Конус парковочный мягкий</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>Лампа сигнальная CAME</t>
+  </si>
+  <si>
+    <t>Лампа сигнальная Doorhan</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>Наклейки светоотражающие</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>Фотоэлементы безопасности Doorhan</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Фотоэлементы CAME</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>Стойка для DOC-элементов</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Стойка для DIR-элементов</t>
+  </si>
+  <si>
+    <t>2900</t>
+  </si>
+  <si>
+    <t>Комплект беспроводных фотоэлементов</t>
+  </si>
+  <si>
+    <t>26990</t>
+  </si>
+  <si>
+    <t>от 12999</t>
+  </si>
+  <si>
+    <t>Шлагбаум автоматический</t>
+  </si>
+  <si>
+    <t>31990</t>
+  </si>
+  <si>
+    <t>от 10999</t>
+  </si>
+  <si>
+    <t>Шлагбаум автоматический эконом</t>
+  </si>
+  <si>
+    <t>34990</t>
+  </si>
+  <si>
+    <t>от 11999</t>
+  </si>
+  <si>
+    <t>Шлагбаум автоматический стандарт</t>
+  </si>
+  <si>
+    <t>52990</t>
+  </si>
+  <si>
+    <t>от 14999</t>
+  </si>
+  <si>
+    <t>45990</t>
+  </si>
+  <si>
+    <t>Шлагбаум автоматический премиум</t>
+  </si>
+  <si>
+    <t>48990</t>
+  </si>
+  <si>
+    <t>73990</t>
+  </si>
+  <si>
+    <t>76990</t>
+  </si>
+  <si>
+    <t>от 15999</t>
+  </si>
+  <si>
+    <t>29990</t>
+  </si>
+  <si>
+    <t>41990</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>Рейка для шлагбаума CAME 2.7 м</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>Рейка для шлагбаума CAME 4.2 м</t>
+  </si>
+  <si>
+    <t>6900</t>
+  </si>
+  <si>
+    <t>Рейка для шлагбаума CAME 6.85 м</t>
+  </si>
+  <si>
+    <t>2750</t>
+  </si>
+  <si>
+    <t>Система радиоуправления шлагбаумом</t>
+  </si>
+  <si>
+    <t>4100</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>Кабель для подключения дюралайта</t>
+  </si>
+  <si>
+    <t>350 р/м</t>
+  </si>
+  <si>
+    <t>Дюралайт</t>
+  </si>
+  <si>
+    <t>4900</t>
+  </si>
+  <si>
+    <t>Шторка стрелы шлагбаума</t>
+  </si>
+  <si>
+    <t>Радиобрелок с двумя кнопками</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>Радиобрелок с четырмя кнопками</t>
+  </si>
+  <si>
+    <t>от 490</t>
+  </si>
+  <si>
+    <t>Ребра безопасности рейки шлагбаума CAME</t>
+  </si>
+  <si>
+    <t>Ребра безопасности рейки шлагбаума NICE</t>
+  </si>
+  <si>
+    <t>3400</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Пост управления шлагбаумом</t>
+  </si>
+  <si>
+    <t>Опорная стойка для стрелы шлагбаума</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>Система радиоуправления выносная</t>
+  </si>
+  <si>
+    <t>5499</t>
+  </si>
+  <si>
+    <t>Скамейка бетонная парковая</t>
+  </si>
+  <si>
+    <t>Лавка бетонная парковая</t>
+  </si>
+  <si>
+    <t>7340</t>
+  </si>
+  <si>
+    <t>Скамейка уличная</t>
+  </si>
+  <si>
+    <t>5490</t>
+  </si>
+  <si>
+    <t>Лавка уличная</t>
+  </si>
+  <si>
+    <t>6190</t>
+  </si>
+  <si>
+    <t>Скамейка садовая со спинкой</t>
+  </si>
+  <si>
+    <t>6390</t>
+  </si>
+  <si>
+    <t>Скамейка парковая</t>
+  </si>
+  <si>
+    <t>6940</t>
+  </si>
+  <si>
+    <t>8560</t>
+  </si>
+  <si>
+    <t>Скамейка бетонная парковая со спинкой</t>
+  </si>
+  <si>
+    <t>7270</t>
+  </si>
+  <si>
+    <t>7390</t>
+  </si>
+  <si>
+    <t>Скамейка уличная тяжелая</t>
+  </si>
+  <si>
+    <t>11630</t>
+  </si>
+  <si>
+    <t>Лавка уличная гранитная</t>
+  </si>
+  <si>
+    <t>6999</t>
+  </si>
+  <si>
+    <t>Скамейка бетонная тяжелая</t>
+  </si>
+  <si>
+    <t>Скамейка со спинкой тяжелая</t>
+  </si>
+  <si>
+    <t>6499</t>
+  </si>
+  <si>
+    <t>5750</t>
+  </si>
+  <si>
+    <t>6750</t>
+  </si>
+  <si>
+    <t>Скамейка парковая со спинкой</t>
+  </si>
+  <si>
+    <t>111990</t>
+  </si>
+  <si>
+    <t>от 15000</t>
+  </si>
+  <si>
+    <t>Полуростовой роторный турникет Ома 16.581</t>
+  </si>
+  <si>
+    <t>129990</t>
+  </si>
+  <si>
+    <t>Полуростовой роторный турникет Ома 16.587</t>
+  </si>
+  <si>
+    <t>215300</t>
+  </si>
+  <si>
+    <t>от 39000</t>
+  </si>
+  <si>
+    <t>Турникет полноростовой Ростов-Дон ПР1/3</t>
+  </si>
+  <si>
+    <t>178400</t>
+  </si>
+  <si>
+    <t>Турникет полноростовой Ростов-Дон ПР1Л/3</t>
+  </si>
+  <si>
+    <t>393600</t>
+  </si>
+  <si>
+    <t>от 59000</t>
+  </si>
+  <si>
+    <t>Турникет полноростовой Ростов-Дон ПР2/3</t>
+  </si>
+  <si>
+    <t>37900</t>
+  </si>
+  <si>
+    <t>от 7500</t>
+  </si>
+  <si>
+    <t>Турникет-трипод Ростов Дон Т9М</t>
+  </si>
+  <si>
+    <t>33990</t>
+  </si>
+  <si>
+    <t>от 6800</t>
+  </si>
+  <si>
+    <t>Турникет-трипод ОМА 26.461/1</t>
+  </si>
+  <si>
+    <t>34900</t>
+  </si>
+  <si>
+    <t>от 7000</t>
+  </si>
+  <si>
+    <t>Турникет-трипод Ростов Дон Т2ММ</t>
+  </si>
+  <si>
+    <t>41800</t>
+  </si>
+  <si>
+    <t>от 8400</t>
+  </si>
+  <si>
+    <t>Турникет Ростов Дон Т83М</t>
+  </si>
+  <si>
+    <t>68600</t>
+  </si>
+  <si>
+    <t>от 13700</t>
+  </si>
+  <si>
+    <t>Турникет-трипод Praktika T.01</t>
+  </si>
+  <si>
+    <t>от 10600</t>
+  </si>
+  <si>
+    <t>Турникет-трипод ОМА 26.561</t>
+  </si>
+  <si>
+    <t>63990</t>
+  </si>
+  <si>
+    <t>от 12800</t>
+  </si>
+  <si>
+    <t>Турникет-трипод ОМА 26.461/2</t>
+  </si>
+  <si>
+    <t>66990</t>
+  </si>
+  <si>
+    <t>от 13400</t>
+  </si>
+  <si>
+    <t>Турникет Ростов Дон Т283М</t>
+  </si>
+  <si>
+    <t>79990</t>
+  </si>
+  <si>
+    <t>от 16000</t>
+  </si>
+  <si>
+    <t>Турникет-трипод тумбовый Praktika T.02</t>
+  </si>
+  <si>
+    <t>67300</t>
+  </si>
+  <si>
+    <t>от 13500</t>
+  </si>
+  <si>
+    <t>Турникет тумбовый Ростов Дон ТТ10</t>
+  </si>
+  <si>
+    <t>17350</t>
+  </si>
+  <si>
+    <t>от 4900</t>
+  </si>
+  <si>
+    <t>Турникет роторный Ростов-Дон Р31М</t>
+  </si>
+  <si>
+    <t>70400</t>
+  </si>
+  <si>
+    <t>от 12000</t>
+  </si>
+  <si>
+    <t>Турникет Ростов-Дон Р2М1/3</t>
+  </si>
+  <si>
+    <t>Турникет Ростов-Дон Р2М2/3</t>
+  </si>
+  <si>
+    <t>76400</t>
+  </si>
+  <si>
+    <t>от 9900</t>
+  </si>
+  <si>
+    <t>Турникет Ростов-Дон Р2С/3</t>
+  </si>
+  <si>
+    <t>Барьер парковочный треугольник</t>
+  </si>
+  <si>
+    <t>Стандартный парковочный барьер</t>
+  </si>
+  <si>
+    <t>Усиленный парковочный барьер</t>
+  </si>
+  <si>
+    <t>Парковочный барьер из нержавеющей стали</t>
+  </si>
+  <si>
     <t>899</t>
   </si>
   <si>
@@ -37,21 +1318,9 @@
     <t>Столбик парковочный бетонируемый</t>
   </si>
   <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
     <t>Столбик парковочный анкерный</t>
   </si>
   <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Столбик парковочный передвижной</t>
   </si>
   <si>
@@ -127,1267 +1396,220 @@
     <t>184000</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>Конус сигнальный</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>Автоконус с вехой</t>
-  </si>
-  <si>
-    <t>Конус дорожный</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>Конус дорожный с ухом для цепи</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>Конус дорожный с утяжелителем</t>
-  </si>
-  <si>
-    <t>599</t>
-  </si>
-  <si>
-    <t>Конус дорожный с утяжелитем и ухом для цепи</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>Конус парковочный мягкий</t>
-  </si>
-  <si>
-    <t>Круглый вкладыш для бетонной урны оцинкованный</t>
-  </si>
-  <si>
-    <t>Квадратный вкладыш для бетонной урны оцинкованный</t>
-  </si>
-  <si>
-    <t>Треугольный вкладыш для бетонной урны оцинкованный</t>
-  </si>
-  <si>
-    <t>Тяжелая бетонная урна для мусора</t>
-  </si>
-  <si>
-    <t>1599</t>
-  </si>
-  <si>
-    <t>Стандартная бетонная урна</t>
-  </si>
-  <si>
-    <t>2599</t>
-  </si>
-  <si>
-    <t>Урна бетонная эконом</t>
-  </si>
-  <si>
-    <t>2699</t>
-  </si>
-  <si>
-    <t>Урна бетонная капля</t>
-  </si>
-  <si>
-    <t>Урна бетонная уличная для мусора</t>
-  </si>
-  <si>
-    <t>Урна уличная для мусора</t>
-  </si>
-  <si>
-    <t>Урна бетонная волна</t>
-  </si>
-  <si>
-    <t>Урна для мусора</t>
-  </si>
-  <si>
-    <t>Урна бетонная ромб</t>
-  </si>
-  <si>
-    <t>Парковая урна для мусора</t>
-  </si>
-  <si>
-    <t>Тяжелая бетонная урна</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>Пост управления шлагбаумом</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>Система радиоуправления выносная</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>Рейка для шлагбаума CAME 2.7 м</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>Рейка для шлагбаума CAME 4.2 м</t>
-  </si>
-  <si>
-    <t>6900</t>
-  </si>
-  <si>
-    <t>Рейка для шлагбаума CAME 6.85 м</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Ребра безопасности рейки шлагбаума CAME</t>
-  </si>
-  <si>
-    <t>Ребра безопасности рейки шлагбаума NICE</t>
-  </si>
-  <si>
-    <t>3400</t>
-  </si>
-  <si>
-    <t>2750</t>
-  </si>
-  <si>
-    <t>Система радиоуправления шлагбаумом</t>
-  </si>
-  <si>
-    <t>4100</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>Радиобрелок с двумя кнопками</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>Радиобрелок с четырмя кнопками</t>
-  </si>
-  <si>
-    <t>950</t>
-  </si>
-  <si>
-    <t>от 490</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>Фотоэлементы безопасности Doorhan</t>
-  </si>
-  <si>
-    <t>Фотоэлементы CAME</t>
-  </si>
-  <si>
-    <t>1250</t>
-  </si>
-  <si>
-    <t>Стойка для DOC-элементов</t>
-  </si>
-  <si>
-    <t>Стойка для DIR-элементов</t>
-  </si>
-  <si>
-    <t>2900</t>
-  </si>
-  <si>
-    <t>Комплект беспроводных фотоэлементов</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>Кабель для подключения дюралайта</t>
-  </si>
-  <si>
-    <t>350 р/м</t>
-  </si>
-  <si>
-    <t>Дюралайт</t>
-  </si>
-  <si>
-    <t>4900</t>
-  </si>
-  <si>
-    <t>Шторка стрелы шлагбаума</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>Наклейки светоотражающие</t>
-  </si>
-  <si>
-    <t>Опорная стойка для стрелы шлагбаума</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>3200</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>Лампа сигнальная CAME</t>
-  </si>
-  <si>
-    <t>Лампа сигнальная Doorhan</t>
-  </si>
-  <si>
-    <t>26990</t>
-  </si>
-  <si>
-    <t>от 12999</t>
-  </si>
-  <si>
-    <t>Шлагбаум автоматический</t>
-  </si>
-  <si>
-    <t>31990</t>
-  </si>
-  <si>
-    <t>от 10999</t>
-  </si>
-  <si>
-    <t>Шлагбаум автоматический эконом</t>
-  </si>
-  <si>
-    <t>34990</t>
-  </si>
-  <si>
-    <t>от 11999</t>
-  </si>
-  <si>
-    <t>Шлагбаум автоматический стандарт</t>
-  </si>
-  <si>
-    <t>52990</t>
-  </si>
-  <si>
-    <t>от 14999</t>
-  </si>
-  <si>
-    <t>45990</t>
-  </si>
-  <si>
-    <t>Шлагбаум автоматический премиум</t>
-  </si>
-  <si>
-    <t>48990</t>
-  </si>
-  <si>
-    <t>73990</t>
-  </si>
-  <si>
-    <t>76990</t>
-  </si>
-  <si>
-    <t>от 15999</t>
-  </si>
-  <si>
-    <t>29990</t>
-  </si>
-  <si>
-    <t>41990</t>
-  </si>
-  <si>
-    <t>Пластиковая сетка. Экопарковка</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>Бордюрная лента - 10м</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>2287</t>
-  </si>
-  <si>
-    <t>Бордюрная лента - 30м</t>
-  </si>
-  <si>
-    <t>2499</t>
-  </si>
-  <si>
-    <t>Аварийное ограждение - 50м</t>
-  </si>
-  <si>
-    <t>Аварийное ограждение - 20м</t>
-  </si>
-  <si>
-    <t>3499</t>
-  </si>
-  <si>
-    <t>Аварийное ограждение - 25м</t>
-  </si>
-  <si>
-    <t>2999</t>
-  </si>
-  <si>
-    <t>3999</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>Решетка садовая - 5м</t>
-  </si>
-  <si>
-    <t>1060</t>
-  </si>
-  <si>
-    <t>Решетка садовая - 10м</t>
-  </si>
-  <si>
-    <t>Решетка садовая - 20м</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>Сетка - 5м</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>Сетка - 10м</t>
-  </si>
-  <si>
-    <t>3122</t>
-  </si>
-  <si>
-    <t>Решетка садовая - 15м</t>
-  </si>
-  <si>
-    <t>6194</t>
-  </si>
-  <si>
-    <t>Решетка садовая - 30м</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>1152</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>Решетка заборная  - 15м</t>
-  </si>
-  <si>
-    <t>11324</t>
-  </si>
-  <si>
-    <t>Решетка заборная  - 30м</t>
-  </si>
-  <si>
-    <t>Решетка заборная  - 25м</t>
-  </si>
-  <si>
-    <t>7700</t>
-  </si>
-  <si>
-    <t>2087</t>
-  </si>
-  <si>
-    <t>Решетка заборная  - 10м</t>
-  </si>
-  <si>
-    <t>5187</t>
-  </si>
-  <si>
-    <t>Противомоскитная сетка - 30м</t>
-  </si>
-  <si>
-    <t>4509</t>
-  </si>
-  <si>
-    <t>Защита строительных лесов - 100м</t>
-  </si>
-  <si>
-    <t>Решетка газонная - 15м</t>
-  </si>
-  <si>
-    <t>Решетка газонная - 30м</t>
-  </si>
-  <si>
-    <t>Геосетка газонная - 30м</t>
-  </si>
-  <si>
-    <t>8199</t>
-  </si>
-  <si>
-    <t>Геосетка тротуарная - 25м</t>
-  </si>
-  <si>
-    <t>3521</t>
-  </si>
-  <si>
-    <t>Геосетка тротуарная - 30м</t>
-  </si>
-  <si>
-    <t>Геосетка тротуарная - 50м</t>
-  </si>
-  <si>
-    <t>13844</t>
-  </si>
-  <si>
-    <t>Общестроительная сетка - 10м</t>
-  </si>
-  <si>
-    <t>Общестроительная сетка - 25м</t>
-  </si>
-  <si>
-    <t>Общестроительная сетка - 50м</t>
-  </si>
-  <si>
-    <t>Кладочная сетка - 100м</t>
-  </si>
-  <si>
-    <t>678</t>
-  </si>
-  <si>
-    <t>Универсал S - 100-2 - 100м</t>
-  </si>
-  <si>
-    <t>2714</t>
-  </si>
-  <si>
-    <t>Штукатурная сетка</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>Универсал M - 100м</t>
-  </si>
-  <si>
-    <t>3978</t>
-  </si>
-  <si>
-    <t>Универсал L - 100м</t>
-  </si>
-  <si>
-    <t>4163</t>
-  </si>
-  <si>
-    <t>Защита саженцев - 5м</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>Защита саженцев - 10м</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>Подставка под сигнальную веху</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>Веха сигнальная</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Полусфера бетонная</t>
-  </si>
-  <si>
-    <t>от 299</t>
-  </si>
-  <si>
-    <t>Полусфера с арматурой</t>
-  </si>
-  <si>
-    <t>Полусфера крашеная</t>
-  </si>
-  <si>
-    <t>Полусфера крашеная с арматурой</t>
-  </si>
-  <si>
-    <t>Полусфера шестигранная,Полусфера шестигранная с арматурой</t>
-  </si>
-  <si>
-    <t>Полусфера шестигранная крашеная</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>Полусфера шестигранная крашеная с арматурой</t>
-  </si>
-  <si>
-    <t>Полусфера бетонная высокая</t>
-  </si>
-  <si>
-    <t>1499</t>
-  </si>
-  <si>
-    <t>Полусфера бетонная высокая с арматурой</t>
-  </si>
-  <si>
-    <t>Полусфера бетонная высокая крашеная</t>
-  </si>
-  <si>
-    <t>1699</t>
-  </si>
-  <si>
-    <t>Полусфера бетонная высокая с арматурой крашеная</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Полусфера крашеная,Полусфера крашеная с арматурой</t>
-  </si>
-  <si>
-    <t>949</t>
-  </si>
-  <si>
-    <t>Полусфера бетонная высокая крашеная с арматурой</t>
-  </si>
-  <si>
-    <t>Столбик бетонный шестигранный</t>
-  </si>
-  <si>
-    <t>Столбик бетонный шестигранный с арматурой</t>
-  </si>
-  <si>
-    <t>1449</t>
-  </si>
-  <si>
-    <t>Столбик бетонный восьмигранный</t>
-  </si>
-  <si>
-    <t>Столбик бетонный восьмигранный с арматурой</t>
-  </si>
-  <si>
-    <t>1799</t>
-  </si>
-  <si>
-    <t>Полусфера офактуренная серая</t>
-  </si>
-  <si>
-    <t>Полусфера офактуренная серая с арматурой</t>
-  </si>
-  <si>
-    <t>Полусфера офактуренная красная</t>
-  </si>
-  <si>
-    <t>Полусфера офактуренная красная с арматурой</t>
-  </si>
-  <si>
-    <t>Полусфера супертяжелая</t>
-  </si>
-  <si>
-    <t>от 999</t>
-  </si>
-  <si>
-    <t>Полусфера супертяжелая с арматурой</t>
-  </si>
-  <si>
-    <t>5999</t>
-  </si>
-  <si>
-    <t>от 1999</t>
-  </si>
-  <si>
-    <t>Полусфера супертяжелая крашеная</t>
-  </si>
-  <si>
-    <t>Полусфера супертяжелая крашеная с арматурой</t>
-  </si>
-  <si>
-    <t>Барьер парковочный треугольник</t>
-  </si>
-  <si>
-    <t>Стандартный парковочный барьер</t>
-  </si>
-  <si>
-    <t>Усиленный парковочный барьер</t>
-  </si>
-  <si>
-    <t>Парковочный барьер из нержавеющей стали</t>
-  </si>
-  <si>
-    <t>111990</t>
-  </si>
-  <si>
-    <t>от 15000</t>
-  </si>
-  <si>
-    <t>Полуростовой роторный турникет Ома 16.581</t>
-  </si>
-  <si>
-    <t>129990</t>
-  </si>
-  <si>
-    <t>Полуростовой роторный турникет Ома 16.587</t>
-  </si>
-  <si>
-    <t>17350</t>
-  </si>
-  <si>
-    <t>от 4900</t>
-  </si>
-  <si>
-    <t>Турникет роторный Ростов-Дон Р31М</t>
-  </si>
-  <si>
-    <t>70400</t>
-  </si>
-  <si>
-    <t>от 12000</t>
-  </si>
-  <si>
-    <t>Турникет Ростов-Дон Р2М1/3</t>
-  </si>
-  <si>
-    <t>Турникет Ростов-Дон Р2М2/3</t>
-  </si>
-  <si>
-    <t>76400</t>
-  </si>
-  <si>
-    <t>от 9900</t>
-  </si>
-  <si>
-    <t>Турникет Ростов-Дон Р2С/3</t>
-  </si>
-  <si>
-    <t>37900</t>
-  </si>
-  <si>
-    <t>от 7500</t>
-  </si>
-  <si>
-    <t>Турникет-трипод Ростов Дон Т9М</t>
-  </si>
-  <si>
-    <t>33990</t>
-  </si>
-  <si>
-    <t>от 6800</t>
-  </si>
-  <si>
-    <t>Турникет-трипод ОМА 26.461/1</t>
-  </si>
-  <si>
-    <t>34900</t>
-  </si>
-  <si>
-    <t>от 7000</t>
-  </si>
-  <si>
-    <t>Турникет-трипод Ростов Дон Т2ММ</t>
-  </si>
-  <si>
-    <t>41800</t>
-  </si>
-  <si>
-    <t>от 8400</t>
-  </si>
-  <si>
-    <t>Турникет Ростов Дон Т83М</t>
-  </si>
-  <si>
-    <t>68600</t>
-  </si>
-  <si>
-    <t>от 13700</t>
-  </si>
-  <si>
-    <t>Турникет-трипод Praktika T.01</t>
-  </si>
-  <si>
-    <t>от 10600</t>
-  </si>
-  <si>
-    <t>Турникет-трипод ОМА 26.561</t>
-  </si>
-  <si>
-    <t>63990</t>
-  </si>
-  <si>
-    <t>от 12800</t>
-  </si>
-  <si>
-    <t>Турникет-трипод ОМА 26.461/2</t>
-  </si>
-  <si>
-    <t>66990</t>
-  </si>
-  <si>
-    <t>от 13400</t>
-  </si>
-  <si>
-    <t>Турникет Ростов Дон Т283М</t>
-  </si>
-  <si>
-    <t>79990</t>
-  </si>
-  <si>
-    <t>от 16000</t>
-  </si>
-  <si>
-    <t>Турникет-трипод тумбовый Praktika T.02</t>
-  </si>
-  <si>
-    <t>67300</t>
-  </si>
-  <si>
-    <t>от 13500</t>
-  </si>
-  <si>
-    <t>Турникет тумбовый Ростов Дон ТТ10</t>
-  </si>
-  <si>
-    <t>215300</t>
-  </si>
-  <si>
-    <t>от 39000</t>
-  </si>
-  <si>
-    <t>Турникет полноростовой Ростов-Дон ПР1/3</t>
-  </si>
-  <si>
-    <t>178400</t>
-  </si>
-  <si>
-    <t>Турникет полноростовой Ростов-Дон ПР1Л/3</t>
-  </si>
-  <si>
-    <t>393600</t>
-  </si>
-  <si>
-    <t>от 59000</t>
-  </si>
-  <si>
-    <t>Турникет полноростовой Ростов-Дон ПР2/3</t>
-  </si>
-  <si>
-    <t>1170</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>Средний блок искусственной дорожной неровности ИДН.350С</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>Средний блок искусственной дорожной неровности ИДН.350К</t>
-  </si>
-  <si>
-    <t>15230</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.900.3м</t>
-  </si>
-  <si>
-    <t>20210</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.900.4м</t>
-  </si>
-  <si>
-    <t>25190</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.900.5м</t>
-  </si>
-  <si>
-    <t>30170</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.900.6м</t>
-  </si>
-  <si>
-    <t>35150</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.900.7м</t>
-  </si>
-  <si>
-    <t>40130</t>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.900.8м</t>
-  </si>
-  <si>
-    <t>7020</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.350.3м</t>
-  </si>
-  <si>
-    <t>9360</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.350.4м</t>
-  </si>
-  <si>
-    <t>11700</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.350.5м</t>
-  </si>
-  <si>
-    <t>14040</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.350.6м</t>
-  </si>
-  <si>
-    <t>16380</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.350.7м</t>
-  </si>
-  <si>
-    <t>18720</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.350.8м</t>
-  </si>
-  <si>
-    <t>2490</t>
-  </si>
-  <si>
-    <t>Средний блок искусственной дорожной неровности ИДН.900С</t>
-  </si>
-  <si>
-    <t>1390</t>
-  </si>
-  <si>
-    <t>Средний блок искусственной дорожной неровности ИДН.900К</t>
-  </si>
-  <si>
-    <t>2690</t>
-  </si>
-  <si>
-    <t>Средний блок искусственной дорожной неровности ИДН.900СА</t>
-  </si>
-  <si>
-    <t>1590</t>
-  </si>
-  <si>
-    <t>Средний блок искусственной дорожной неровности ИДН.900КА</t>
-  </si>
-  <si>
-    <t>8730</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.500.3м</t>
-  </si>
-  <si>
-    <t>11510</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.500.4м</t>
-  </si>
-  <si>
-    <t>14290</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.500.5м</t>
-  </si>
-  <si>
-    <t>17070</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.500.6м</t>
-  </si>
-  <si>
-    <t>19850</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.500.7м</t>
-  </si>
-  <si>
-    <t>22630</t>
-  </si>
-  <si>
-    <t>Искусственная дорожная неровность ИДН.500.8м</t>
-  </si>
-  <si>
-    <t>Средний блок искусственной дорожной неровности ИДН.500С</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>Средний блок искусственной дорожной неровности ИДН.500К</t>
-  </si>
-  <si>
-    <t>Средний блок искусственной дорожной неровности ИДН.500СА</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>Средний блок искусственной дорожной неровности ИДН.500КА</t>
-  </si>
-  <si>
-    <t>1299</t>
-  </si>
-  <si>
-    <t>Вазон бетонный уличный квадратный</t>
-  </si>
-  <si>
-    <t>Вазон бетонный уличный шестиугольный</t>
-  </si>
-  <si>
-    <t>Вазон бетонный уличный круглый</t>
-  </si>
-  <si>
-    <t>Вазон бетонный уличный прямоугольный</t>
-  </si>
-  <si>
-    <t>5499</t>
-  </si>
-  <si>
-    <t>Скамейка бетонная парковая</t>
-  </si>
-  <si>
-    <t>Лавка бетонная парковая</t>
-  </si>
-  <si>
-    <t>7340</t>
-  </si>
-  <si>
-    <t>Скамейка уличная</t>
-  </si>
-  <si>
-    <t>5490</t>
-  </si>
-  <si>
-    <t>Лавка уличная</t>
-  </si>
-  <si>
-    <t>6190</t>
-  </si>
-  <si>
-    <t>Скамейка садовая со спинкой</t>
-  </si>
-  <si>
-    <t>6390</t>
-  </si>
-  <si>
-    <t>Скамейка парковая</t>
-  </si>
-  <si>
-    <t>6940</t>
-  </si>
-  <si>
-    <t>8560</t>
-  </si>
-  <si>
-    <t>Скамейка бетонная парковая со спинкой</t>
-  </si>
-  <si>
-    <t>7270</t>
-  </si>
-  <si>
-    <t>7390</t>
-  </si>
-  <si>
-    <t>Скамейка уличная тяжелая</t>
-  </si>
-  <si>
-    <t>11630</t>
-  </si>
-  <si>
-    <t>Лавка уличная гранитная</t>
-  </si>
-  <si>
-    <t>6999</t>
-  </si>
-  <si>
-    <t>Скамейка бетонная тяжелая</t>
-  </si>
-  <si>
-    <t>Скамейка со спинкой тяжелая</t>
-  </si>
-  <si>
-    <t>6499</t>
-  </si>
-  <si>
-    <t>5750</t>
-  </si>
-  <si>
-    <t>6750</t>
-  </si>
-  <si>
-    <t>Скамейка парковая со спинкой</t>
-  </si>
-  <si>
-    <t>1795</t>
-  </si>
-  <si>
-    <t>Лента Внимание канализация</t>
-  </si>
-  <si>
-    <t>1314</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>Лента Не копать - ниже кабель</t>
-  </si>
-  <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>Лента Газпромрегионгаз - Огнеопасно Газ</t>
-  </si>
-  <si>
-    <t>Лента  Газ</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>Лента  Опасно Газ</t>
-  </si>
-  <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>Лента  ОПАСНО Газ</t>
-  </si>
-  <si>
-    <t>Лента Внимание водопровод</t>
-  </si>
-  <si>
-    <t>Лента оградительная Эконом</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>Лента оградительная Стандарт</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>Лента оградительная Усиленная</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>Лента оградительная Опасная зона!</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>Лента оградительная Проход запрещен!</t>
-  </si>
-  <si>
-    <t>Лента оградительная Внимание ДТП</t>
-  </si>
-  <si>
-    <t>Лента оградительная Опасная зона МЧС России телефон 01</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>Лента оградительная Зона таможенного контроля</t>
-  </si>
-  <si>
-    <t>Лента Внимание теплосеть</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>Лента ОСТОРОЖНО КАБЕЛЬ</t>
-  </si>
-  <si>
-    <t>1029</t>
-  </si>
-  <si>
-    <t>1226</t>
-  </si>
-  <si>
-    <t>1829</t>
-  </si>
-  <si>
-    <t>2482</t>
-  </si>
-  <si>
-    <t>3102</t>
-  </si>
-  <si>
-    <t>3528</t>
-  </si>
-  <si>
-    <t>21900</t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>Линейный привод DoorHan Swing.5000</t>
-  </si>
-  <si>
-    <t>23500</t>
-  </si>
-  <si>
-    <t>Линейный привод KRONO 310</t>
-  </si>
-  <si>
-    <t>24900</t>
-  </si>
-  <si>
-    <t>Линейный привод CAME ATI 3000</t>
-  </si>
-  <si>
-    <t>27900</t>
-  </si>
-  <si>
-    <t>Рычажный привод CAME FAST 7000</t>
-  </si>
-  <si>
-    <t>31900</t>
-  </si>
-  <si>
-    <t>Рычажный привод CAME FERNI 1000</t>
-  </si>
-  <si>
-    <t>Дорожные знаки треугольные</t>
-  </si>
-  <si>
-    <t>Дорожные знаки квадратные</t>
-  </si>
-  <si>
-    <t>Дорожные знаки круглые</t>
-  </si>
-  <si>
-    <t>Дорожные знаки</t>
-  </si>
-  <si>
-    <t>Дорожные знаки таблички</t>
-  </si>
-  <si>
-    <t>Дорожные знаки СТОП</t>
-  </si>
-  <si>
-    <t>Дорожные знаки сервиса</t>
-  </si>
-  <si>
-    <t>Дорожные знаки движения по полосам</t>
-  </si>
-  <si>
-    <t>Дорожные знаки выезд</t>
-  </si>
-  <si>
-    <t>Дорожные знаки ЖД</t>
-  </si>
-  <si>
-    <t>Дорожные знаки поворота</t>
-  </si>
-  <si>
-    <t>Дорожные знаки препятствия</t>
-  </si>
-  <si>
-    <t>Дорожные знаки указатели</t>
-  </si>
-  <si>
-    <t>Дорожные знаки щиты</t>
-  </si>
-  <si>
-    <t>Фундамент дорожного знака</t>
-  </si>
-  <si>
-    <t>Стойка дорожного знака</t>
-  </si>
-  <si>
-    <t>Крепеж дорожного знака</t>
+    <t>10960р</t>
+  </si>
+  <si>
+    <t>1499р</t>
+  </si>
+  <si>
+    <t>Флагшток Почёт - 6м</t>
+  </si>
+  <si>
+    <t>12160р</t>
+  </si>
+  <si>
+    <t>Флагшток Почёт - 8м</t>
+  </si>
+  <si>
+    <t>16160р</t>
+  </si>
+  <si>
+    <t>Флагшток Почёт - 9м</t>
+  </si>
+  <si>
+    <t>16910р</t>
+  </si>
+  <si>
+    <t>Флагшток Почёт - 10м</t>
+  </si>
+  <si>
+    <t>22360р</t>
+  </si>
+  <si>
+    <t>Флагшток Почёт - 12м</t>
+  </si>
+  <si>
+    <t>14460р</t>
+  </si>
+  <si>
+    <t>Флагшток Почёт крашеный - 8м</t>
+  </si>
+  <si>
+    <t>19210р</t>
+  </si>
+  <si>
+    <t>Флагшток Почёт крашеный - 10м</t>
+  </si>
+  <si>
+    <t>24860р</t>
+  </si>
+  <si>
+    <t>Флагшток Почёт крашеный - 12м</t>
+  </si>
+  <si>
+    <t>14100р</t>
+  </si>
+  <si>
+    <t>Флагшток Престиж - 6м</t>
+  </si>
+  <si>
+    <t>15300р</t>
+  </si>
+  <si>
+    <t>Флагшток Престиж - 8м</t>
+  </si>
+  <si>
+    <t>19300р</t>
+  </si>
+  <si>
+    <t>Флагшток Престиж - 9м</t>
+  </si>
+  <si>
+    <t>20050р</t>
+  </si>
+  <si>
+    <t>Флагшток Престиж - 10м</t>
+  </si>
+  <si>
+    <t>25500р</t>
+  </si>
+  <si>
+    <t>Флагшток Престиж - 12м</t>
+  </si>
+  <si>
+    <t>17600р</t>
+  </si>
+  <si>
+    <t>Флагшток Престиж крашеный - 8м</t>
+  </si>
+  <si>
+    <t>22350р</t>
+  </si>
+  <si>
+    <t>Флагшток Престиж крашеный - 10м</t>
+  </si>
+  <si>
+    <t>28000р</t>
+  </si>
+  <si>
+    <t>Флагшток Престиж крашеный - 12м</t>
+  </si>
+  <si>
+    <t>15470р</t>
+  </si>
+  <si>
+    <t>Флагшток Триумф - 6м</t>
+  </si>
+  <si>
+    <t>16670р</t>
+  </si>
+  <si>
+    <t>Флагшток Триумф - 8м</t>
+  </si>
+  <si>
+    <t>20670р</t>
+  </si>
+  <si>
+    <t>Флагшток Триумф - 9м</t>
+  </si>
+  <si>
+    <t>21420р</t>
+  </si>
+  <si>
+    <t>Флагшток Триумф - 10м</t>
+  </si>
+  <si>
+    <t>26870р</t>
+  </si>
+  <si>
+    <t>Флагшток Триумф - 12м</t>
+  </si>
+  <si>
+    <t>18970р</t>
+  </si>
+  <si>
+    <t>Флагшток Триумф крашеный - 8м</t>
+  </si>
+  <si>
+    <t>23720р</t>
+  </si>
+  <si>
+    <t>Флагшток Триумф крашеный - 10м</t>
+  </si>
+  <si>
+    <t>29370р</t>
+  </si>
+  <si>
+    <t>Флагшток Триумф крашеный - 12м</t>
+  </si>
+  <si>
+    <t>6860р</t>
+  </si>
+  <si>
+    <t>499р</t>
+  </si>
+  <si>
+    <t>Флагшток ТИТУЛ-С - 3.5м</t>
+  </si>
+  <si>
+    <t>7290р</t>
+  </si>
+  <si>
+    <t>Флагшток ТИТУЛ-С - 4.5м</t>
+  </si>
+  <si>
+    <t>10000р</t>
+  </si>
+  <si>
+    <t>Флагшток ТИТУЛ-Б - 3.5м</t>
+  </si>
+  <si>
+    <t>10430р</t>
+  </si>
+  <si>
+    <t>Флагшток ТИТУЛ-Б - 4.5м</t>
+  </si>
+  <si>
+    <t>1965р</t>
+  </si>
+  <si>
+    <t>Флагшток Бриз - 2.4м</t>
+  </si>
+  <si>
+    <t>2155р</t>
+  </si>
+  <si>
+    <t>Флагшток Бриз - 3.6м</t>
+  </si>
+  <si>
+    <t>2345р</t>
+  </si>
+  <si>
+    <t>Флагшток Бриз - 4.8м</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>Флагшток Бастион одинарный</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Флагшток Бастион двойной</t>
+  </si>
+  <si>
+    <t>2524</t>
+  </si>
+  <si>
+    <t>Флагшток Бастион тройной</t>
+  </si>
+  <si>
+    <t>4999</t>
+  </si>
+  <si>
+    <t>Бетонная тумба для флагштока</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,7 +1982,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
-        <v>1027</v>
+        <v>2311</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1774,35 +1996,35 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
-        <v>1028</v>
+        <v>2312</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
-        <v>1029</v>
+        <v>2313</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="n">
-        <v>1030</v>
+        <v>2314</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1811,43 +2033,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="n">
-        <v>1031</v>
+        <v>2315</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="n">
-        <v>1032</v>
+        <v>2316</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="n">
-        <v>1033</v>
+        <v>2317</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1858,1217 +2080,1217 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="n">
-        <v>1034</v>
+        <v>2318</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="n">
-        <v>1035</v>
+        <v>2319</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="n">
-        <v>1036</v>
+        <v>2320</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="n">
-        <v>1037</v>
+        <v>2321</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="n">
-        <v>1038</v>
+        <v>2322</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="n">
-        <v>1039</v>
+        <v>2323</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="n">
-        <v>1040</v>
+        <v>2324</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="n">
-        <v>1041</v>
+        <v>2325</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="n">
-        <v>1042</v>
+        <v>2326</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="n">
-        <v>1043</v>
+        <v>2327</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="n">
-        <v>1044</v>
+        <v>2328</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="n">
-        <v>1045</v>
+        <v>2329</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="n">
-        <v>1046</v>
+        <v>2330</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="n">
-        <v>1047</v>
+        <v>2331</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="n">
-        <v>1048</v>
+        <v>2332</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="n">
-        <v>1049</v>
+        <v>2333</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="n">
-        <v>1050</v>
+        <v>2334</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="n">
-        <v>1051</v>
+        <v>2335</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="n">
-        <v>1052</v>
+        <v>2336</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="n">
-        <v>1053</v>
+        <v>2337</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="n">
-        <v>1054</v>
+        <v>2338</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="n">
-        <v>1055</v>
+        <v>2339</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="n">
-        <v>1056</v>
+        <v>2340</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="n">
-        <v>1057</v>
+        <v>2341</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="n">
-        <v>1058</v>
+        <v>2342</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="n">
-        <v>1059</v>
+        <v>2343</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="n">
-        <v>1060</v>
+        <v>2344</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="n">
-        <v>1061</v>
+        <v>2345</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="n">
-        <v>1062</v>
+        <v>2346</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="n">
-        <v>1063</v>
+        <v>2347</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="n">
-        <v>1064</v>
+        <v>2348</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="n">
-        <v>1065</v>
+        <v>2349</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="n">
-        <v>1066</v>
+        <v>2350</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="n">
-        <v>1067</v>
+        <v>2351</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="n">
-        <v>1068</v>
+        <v>2352</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="n">
-        <v>1069</v>
+        <v>2353</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="n">
-        <v>1070</v>
+        <v>2354</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="n">
-        <v>1071</v>
+        <v>2355</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="n">
-        <v>1072</v>
+        <v>2356</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="n">
-        <v>1073</v>
+        <v>2357</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="n">
-        <v>1074</v>
+        <v>2358</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="n">
-        <v>1075</v>
+        <v>2359</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="n">
-        <v>1076</v>
+        <v>2360</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="n">
-        <v>1077</v>
+        <v>2361</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="n">
-        <v>1078</v>
+        <v>2362</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="n">
-        <v>1079</v>
+        <v>2363</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="n">
-        <v>1080</v>
+        <v>2364</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="n">
-        <v>1081</v>
+        <v>2365</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="n">
-        <v>1082</v>
+        <v>2366</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="n">
-        <v>1083</v>
+        <v>2367</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="n">
-        <v>1084</v>
+        <v>2368</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="n">
-        <v>1085</v>
+        <v>2369</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="n">
-        <v>1086</v>
+        <v>2370</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="n">
-        <v>1087</v>
+        <v>2371</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="n">
-        <v>1088</v>
+        <v>2372</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="n">
-        <v>1089</v>
+        <v>2373</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="n">
-        <v>1090</v>
+        <v>2374</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="n">
-        <v>1091</v>
+        <v>2375</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="n">
-        <v>1092</v>
+        <v>2376</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="n">
-        <v>1093</v>
+        <v>2377</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="n">
-        <v>1094</v>
+        <v>2378</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="n">
-        <v>1095</v>
+        <v>2379</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="n">
-        <v>1096</v>
+        <v>2380</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="n">
-        <v>1097</v>
+        <v>2381</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="n">
-        <v>1098</v>
+        <v>2382</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="n">
-        <v>1099</v>
+        <v>2383</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="n">
-        <v>1100</v>
+        <v>2384</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="n">
-        <v>1101</v>
+        <v>2385</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="n">
-        <v>1102</v>
+        <v>2386</v>
       </c>
       <c r="B77" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="n">
-        <v>1103</v>
+        <v>2387</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="n">
-        <v>1104</v>
+        <v>2388</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="n">
-        <v>1105</v>
+        <v>2389</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="n">
-        <v>1106</v>
+        <v>2390</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="n">
-        <v>1107</v>
+        <v>2391</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="n">
-        <v>1108</v>
+        <v>2392</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="n">
-        <v>1109</v>
+        <v>2393</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="n">
-        <v>1110</v>
+        <v>2394</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="n">
-        <v>1111</v>
+        <v>2395</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="n">
-        <v>1112</v>
+        <v>2396</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="n">
-        <v>1113</v>
+        <v>2397</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="n">
-        <v>1114</v>
+        <v>2398</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="n">
-        <v>1115</v>
+        <v>2399</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="n">
-        <v>1116</v>
+        <v>2400</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="n">
-        <v>1117</v>
+        <v>2401</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="n">
-        <v>1118</v>
+        <v>2402</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="n">
-        <v>1119</v>
+        <v>2403</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="n">
-        <v>1120</v>
+        <v>2404</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
         <v>94</v>
@@ -3076,2155 +3298,2155 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="n">
-        <v>1121</v>
+        <v>2405</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="n">
-        <v>1122</v>
+        <v>2406</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="n">
-        <v>1123</v>
+        <v>2407</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="n">
-        <v>1124</v>
+        <v>2408</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="n">
-        <v>1125</v>
+        <v>2409</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="n">
-        <v>1126</v>
+        <v>2410</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="n">
-        <v>1127</v>
+        <v>2411</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="n">
-        <v>1128</v>
+        <v>2412</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="n">
-        <v>1129</v>
+        <v>2413</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="n">
-        <v>1130</v>
+        <v>2414</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="n">
-        <v>1131</v>
+        <v>2415</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="n">
-        <v>1132</v>
+        <v>2416</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="n">
-        <v>1133</v>
+        <v>2417</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="n">
-        <v>1134</v>
+        <v>2418</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="n">
-        <v>1135</v>
+        <v>2419</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C110" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="n">
-        <v>1136</v>
+        <v>2420</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="n">
-        <v>1137</v>
+        <v>2421</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="n">
-        <v>1138</v>
+        <v>2422</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="n">
-        <v>1139</v>
+        <v>2423</v>
       </c>
       <c r="B114" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="n">
-        <v>1140</v>
+        <v>2424</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="n">
-        <v>1141</v>
+        <v>2425</v>
       </c>
       <c r="B116" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="n">
-        <v>1142</v>
+        <v>2426</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C117" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="n">
-        <v>1143</v>
+        <v>2427</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D118" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="n">
-        <v>1144</v>
+        <v>2428</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="n">
-        <v>1145</v>
+        <v>2429</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C120" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="n">
-        <v>1146</v>
+        <v>2430</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="n">
-        <v>1147</v>
+        <v>2431</v>
       </c>
       <c r="B122" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D122" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="n">
-        <v>1148</v>
+        <v>2432</v>
       </c>
       <c r="B123" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="n">
-        <v>1149</v>
+        <v>2433</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="n">
-        <v>1150</v>
+        <v>2434</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="n">
-        <v>1151</v>
+        <v>2435</v>
       </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="n">
-        <v>1152</v>
+        <v>2436</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="n">
-        <v>1153</v>
+        <v>2437</v>
       </c>
       <c r="B128" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="n">
-        <v>1154</v>
+        <v>2438</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="n">
-        <v>1155</v>
+        <v>2439</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="n">
-        <v>1156</v>
+        <v>2440</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="n">
-        <v>1157</v>
+        <v>2441</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="n">
-        <v>1158</v>
+        <v>2442</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="n">
-        <v>1159</v>
+        <v>2443</v>
       </c>
       <c r="B134" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D134" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="n">
-        <v>1160</v>
+        <v>2444</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="n">
-        <v>1161</v>
+        <v>2445</v>
       </c>
       <c r="B136" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="n">
-        <v>1162</v>
+        <v>2446</v>
       </c>
       <c r="B137" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="n">
-        <v>1163</v>
+        <v>2447</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D138" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="n">
-        <v>1164</v>
+        <v>2448</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="n">
-        <v>1165</v>
+        <v>2449</v>
       </c>
       <c r="B140" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="n">
-        <v>1166</v>
+        <v>2450</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="n">
-        <v>1167</v>
+        <v>2451</v>
       </c>
       <c r="B142" t="s">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="n">
-        <v>1168</v>
+        <v>2452</v>
       </c>
       <c r="B143" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="n">
-        <v>1169</v>
+        <v>2453</v>
       </c>
       <c r="B144" t="s">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="n">
-        <v>1170</v>
+        <v>2454</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="n">
-        <v>1171</v>
+        <v>2455</v>
       </c>
       <c r="B146" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="n">
-        <v>1172</v>
+        <v>2456</v>
       </c>
       <c r="B147" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="n">
-        <v>1173</v>
+        <v>2457</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="n">
-        <v>1174</v>
+        <v>2458</v>
       </c>
       <c r="B149" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="D149" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="n">
-        <v>1175</v>
+        <v>2459</v>
       </c>
       <c r="B150" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="D150" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="n">
-        <v>1176</v>
+        <v>2460</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="D151" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="n">
-        <v>1177</v>
+        <v>2461</v>
       </c>
       <c r="B152" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="D152" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="n">
-        <v>1178</v>
+        <v>2462</v>
       </c>
       <c r="B153" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="D153" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="n">
-        <v>1179</v>
+        <v>2463</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="D154" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="n">
-        <v>1180</v>
+        <v>2464</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="D155" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="n">
-        <v>1181</v>
+        <v>2465</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="D156" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="n">
-        <v>1182</v>
+        <v>2466</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="D157" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="n">
-        <v>1183</v>
+        <v>2467</v>
       </c>
       <c r="B158" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="D158" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="n">
-        <v>1184</v>
+        <v>2468</v>
       </c>
       <c r="B159" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="D159" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="n">
-        <v>1185</v>
+        <v>2469</v>
       </c>
       <c r="B160" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="D160" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="n">
-        <v>1186</v>
+        <v>2470</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="D161" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="n">
-        <v>1187</v>
+        <v>2471</v>
       </c>
       <c r="B162" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="D162" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="n">
-        <v>1188</v>
+        <v>2472</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="D163" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="n">
-        <v>1189</v>
+        <v>2473</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="D164" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="n">
-        <v>1190</v>
+        <v>2474</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="D165" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="n">
-        <v>1191</v>
+        <v>2475</v>
       </c>
       <c r="B166" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="D166" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="n">
-        <v>1192</v>
+        <v>2476</v>
       </c>
       <c r="B167" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="D167" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="n">
-        <v>1193</v>
+        <v>2477</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="D168" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="n">
-        <v>1194</v>
+        <v>2478</v>
       </c>
       <c r="B169" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="D169" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="n">
-        <v>1195</v>
+        <v>2479</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="D170" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="n">
-        <v>1196</v>
+        <v>2480</v>
       </c>
       <c r="B171" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="D171" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="n">
-        <v>1197</v>
+        <v>2481</v>
       </c>
       <c r="B172" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="D172" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="n">
-        <v>1198</v>
+        <v>2482</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="D173" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="n">
-        <v>1199</v>
+        <v>2483</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="D174" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="n">
-        <v>1200</v>
+        <v>2484</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="D175" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="n">
-        <v>1201</v>
+        <v>2485</v>
       </c>
       <c r="B176" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="D176" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="n">
-        <v>1202</v>
+        <v>2486</v>
       </c>
       <c r="B177" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D177" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="n">
-        <v>1203</v>
+        <v>2487</v>
       </c>
       <c r="B178" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D178" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="n">
-        <v>1204</v>
+        <v>2488</v>
       </c>
       <c r="B179" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="n">
-        <v>1205</v>
+        <v>2489</v>
       </c>
       <c r="B180" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D180" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="n">
-        <v>1206</v>
+        <v>2490</v>
       </c>
       <c r="B181" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="n">
-        <v>1207</v>
+        <v>2491</v>
       </c>
       <c r="B182" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D182" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="n">
-        <v>1208</v>
+        <v>2492</v>
       </c>
       <c r="B183" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="n">
-        <v>1209</v>
+        <v>2493</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="C184" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="D184" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="n">
-        <v>1210</v>
+        <v>2494</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="C185" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="D185" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="n">
-        <v>1211</v>
+        <v>2495</v>
       </c>
       <c r="B186" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C186" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="n">
-        <v>1212</v>
+        <v>2496</v>
       </c>
       <c r="B187" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="C187" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="n">
-        <v>1213</v>
+        <v>2497</v>
       </c>
       <c r="B188" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="C188" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="D188" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="n">
-        <v>1214</v>
+        <v>2498</v>
       </c>
       <c r="B189" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C189" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="D189" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="n">
-        <v>1215</v>
+        <v>2499</v>
       </c>
       <c r="B190" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="C190" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="n">
-        <v>1216</v>
+        <v>2500</v>
       </c>
       <c r="B191" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="C191" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="n">
-        <v>1217</v>
+        <v>2501</v>
       </c>
       <c r="B192" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="C192" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D192" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="n">
-        <v>1218</v>
+        <v>2502</v>
       </c>
       <c r="B193" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="C193" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D193" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="n">
-        <v>1219</v>
+        <v>2503</v>
       </c>
       <c r="B194" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="n">
-        <v>1220</v>
+        <v>2504</v>
       </c>
       <c r="B195" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="C195" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="n">
-        <v>1221</v>
+        <v>2505</v>
       </c>
       <c r="B196" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="C196" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="n">
-        <v>1222</v>
+        <v>2506</v>
       </c>
       <c r="B197" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="D197" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="n">
-        <v>1223</v>
+        <v>2507</v>
       </c>
       <c r="B198" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="C198" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="n">
-        <v>1224</v>
+        <v>2508</v>
       </c>
       <c r="B199" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="D199" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="n">
-        <v>1225</v>
+        <v>2509</v>
       </c>
       <c r="B200" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="D200" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="n">
-        <v>1226</v>
+        <v>2510</v>
       </c>
       <c r="B201" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="C201" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="D201" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="n">
-        <v>1227</v>
+        <v>2511</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="C202" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="D202" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="n">
-        <v>1228</v>
+        <v>2512</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>259</v>
       </c>
       <c r="C203" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="D203" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="n">
-        <v>1229</v>
+        <v>2513</v>
       </c>
       <c r="B204" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="C204" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="D204" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="n">
-        <v>1230</v>
+        <v>2514</v>
       </c>
       <c r="B205" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="C205" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D205" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="n">
-        <v>1231</v>
+        <v>2515</v>
       </c>
       <c r="B206" t="s">
-        <v>232</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="D206" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="n">
-        <v>1232</v>
+        <v>2516</v>
       </c>
       <c r="B207" t="s">
-        <v>232</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="n">
-        <v>1233</v>
+        <v>2517</v>
       </c>
       <c r="B208" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="D208" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="n">
-        <v>1234</v>
+        <v>2518</v>
       </c>
       <c r="B209" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="C209" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="D209" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="n">
-        <v>1235</v>
+        <v>2519</v>
       </c>
       <c r="B210" t="s">
-        <v>55</v>
+        <v>271</v>
       </c>
       <c r="C210" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="D210" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1" t="n">
-        <v>1236</v>
+        <v>2520</v>
       </c>
       <c r="B211" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="D211" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1" t="n">
-        <v>1237</v>
+        <v>2521</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="n">
-        <v>1238</v>
+        <v>2522</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="C213" t="s">
-        <v>238</v>
+        <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1" t="n">
-        <v>1239</v>
+        <v>2523</v>
       </c>
       <c r="B214" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="C214" t="s">
-        <v>241</v>
+        <v>5</v>
       </c>
       <c r="D214" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="n">
-        <v>1240</v>
+        <v>2524</v>
       </c>
       <c r="B215" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="C215" t="s">
-        <v>241</v>
+        <v>5</v>
       </c>
       <c r="D215" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="n">
-        <v>1241</v>
+        <v>2525</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="C216" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D216" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1" t="n">
-        <v>1242</v>
+        <v>2526</v>
       </c>
       <c r="B217" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="C217" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D217" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="n">
-        <v>1243</v>
+        <v>2527</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C218" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D218" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1" t="n">
-        <v>1244</v>
+        <v>2528</v>
       </c>
       <c r="B219" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="C219" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="D219" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1" t="n">
-        <v>1245</v>
+        <v>2529</v>
       </c>
       <c r="B220" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="C220" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
       <c r="D220" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1" t="n">
-        <v>1246</v>
+        <v>2530</v>
       </c>
       <c r="B221" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="C221" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
       <c r="D221" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1" t="n">
-        <v>1247</v>
+        <v>2531</v>
       </c>
       <c r="B222" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="C222" t="s">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="D222" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1" t="n">
-        <v>1248</v>
+        <v>2532</v>
       </c>
       <c r="B223" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="C223" t="s">
-        <v>257</v>
+        <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="n">
-        <v>1249</v>
+        <v>2533</v>
       </c>
       <c r="B224" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="C224" t="s">
-        <v>257</v>
+        <v>5</v>
       </c>
       <c r="D224" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="1" t="n">
-        <v>1250</v>
+        <v>2534</v>
       </c>
       <c r="B225" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="C225" t="s">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="D225" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="1" t="n">
-        <v>1251</v>
+        <v>2535</v>
       </c>
       <c r="B226" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="C226" t="s">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="D226" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="1" t="n">
-        <v>1252</v>
+        <v>2536</v>
       </c>
       <c r="B227" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="C227" t="s">
-        <v>267</v>
+        <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="1" t="n">
-        <v>1253</v>
+        <v>2537</v>
       </c>
       <c r="B228" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="C228" t="s">
-        <v>270</v>
+        <v>5</v>
       </c>
       <c r="D228" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="1" t="n">
-        <v>1254</v>
+        <v>2538</v>
       </c>
       <c r="B229" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C229" t="s">
-        <v>273</v>
+        <v>5</v>
       </c>
       <c r="D229" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="1" t="n">
-        <v>1255</v>
+        <v>2539</v>
       </c>
       <c r="B230" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="C230" t="s">
-        <v>276</v>
+        <v>5</v>
       </c>
       <c r="D230" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="1" t="n">
-        <v>1256</v>
+        <v>2540</v>
       </c>
       <c r="B231" t="s">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="C231" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="D231" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="1" t="n">
-        <v>1257</v>
+        <v>2541</v>
       </c>
       <c r="B232" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="C232" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="D232" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1" t="n">
-        <v>1258</v>
+        <v>2542</v>
       </c>
       <c r="B233" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C233" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="D233" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="1" t="n">
-        <v>1259</v>
+        <v>2543</v>
       </c>
       <c r="B234" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C234" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="D234" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="1" t="n">
-        <v>1260</v>
+        <v>2544</v>
       </c>
       <c r="B235" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C235" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="D235" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="1" t="n">
-        <v>1261</v>
+        <v>2545</v>
       </c>
       <c r="B236" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C236" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D236" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="1" t="n">
-        <v>1262</v>
+        <v>2546</v>
       </c>
       <c r="B237" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C237" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D237" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="1" t="n">
-        <v>1263</v>
+        <v>2547</v>
       </c>
       <c r="B238" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C238" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D238" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="1" t="n">
-        <v>1264</v>
+        <v>2548</v>
       </c>
       <c r="B239" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C239" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D239" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="1" t="n">
-        <v>1265</v>
+        <v>2549</v>
       </c>
       <c r="B240" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C240" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D240" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="1" t="n">
-        <v>1266</v>
+        <v>2550</v>
       </c>
       <c r="B241" t="s">
         <v>306</v>
       </c>
       <c r="C241" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D241" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="1" t="n">
-        <v>1267</v>
+        <v>2551</v>
       </c>
       <c r="B242" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C242" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D242" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="1" t="n">
-        <v>1268</v>
+        <v>2552</v>
       </c>
       <c r="B243" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C243" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D243" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="1" t="n">
-        <v>1269</v>
+        <v>2553</v>
       </c>
       <c r="B244" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C244" t="s">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="D244" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="1" t="n">
-        <v>1270</v>
+        <v>2554</v>
       </c>
       <c r="B245" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C245" t="s">
-        <v>319</v>
+        <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="1" t="n">
-        <v>1271</v>
+        <v>2555</v>
       </c>
       <c r="B246" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C246" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
       <c r="D246" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="1" t="n">
-        <v>1272</v>
+        <v>2556</v>
       </c>
       <c r="B247" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C247" t="s">
-        <v>307</v>
+        <v>5</v>
       </c>
       <c r="D247" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="1" t="n">
-        <v>1273</v>
+        <v>2557</v>
       </c>
       <c r="B248" t="s">
+        <v>327</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+      <c r="D248" t="s">
         <v>326</v>
-      </c>
-      <c r="C248" t="s">
-        <v>310</v>
-      </c>
-      <c r="D248" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="1" t="n">
-        <v>1274</v>
+        <v>2558</v>
       </c>
       <c r="B249" t="s">
         <v>328</v>
       </c>
       <c r="C249" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="D249" t="s">
         <v>329</v>
@@ -5232,13 +5454,13 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="1" t="n">
-        <v>1275</v>
+        <v>2559</v>
       </c>
       <c r="B250" t="s">
         <v>330</v>
       </c>
       <c r="C250" t="s">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="D250" t="s">
         <v>331</v>
@@ -5246,13 +5468,13 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="1" t="n">
-        <v>1276</v>
+        <v>2560</v>
       </c>
       <c r="B251" t="s">
         <v>332</v>
       </c>
       <c r="C251" t="s">
-        <v>319</v>
+        <v>5</v>
       </c>
       <c r="D251" t="s">
         <v>333</v>
@@ -5260,2200 +5482,1626 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="1" t="n">
-        <v>1277</v>
+        <v>2561</v>
       </c>
       <c r="B252" t="s">
+        <v>296</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252" t="s">
         <v>334</v>
-      </c>
-      <c r="C252" t="s">
-        <v>322</v>
-      </c>
-      <c r="D252" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="1" t="n">
-        <v>1278</v>
+        <v>2562</v>
       </c>
       <c r="B253" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C253" t="s">
-        <v>301</v>
+        <v>5</v>
       </c>
       <c r="D253" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="1" t="n">
-        <v>1279</v>
+        <v>2563</v>
       </c>
       <c r="B254" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C254" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="D254" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="1" t="n">
-        <v>1280</v>
+        <v>2564</v>
       </c>
       <c r="B255" t="s">
-        <v>340</v>
+        <v>96</v>
       </c>
       <c r="C255" t="s">
-        <v>301</v>
+        <v>5</v>
       </c>
       <c r="D255" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="1" t="n">
-        <v>1281</v>
+        <v>2565</v>
       </c>
       <c r="B256" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C256" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="D256" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1" t="n">
-        <v>1282</v>
+        <v>2566</v>
       </c>
       <c r="B257" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="C257" t="s">
-        <v>307</v>
+        <v>5</v>
       </c>
       <c r="D257" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1" t="n">
-        <v>1283</v>
+        <v>2567</v>
       </c>
       <c r="B258" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="C258" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="D258" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1" t="n">
-        <v>1284</v>
+        <v>2568</v>
       </c>
       <c r="B259" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C259" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="D259" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1" t="n">
-        <v>1285</v>
+        <v>2569</v>
       </c>
       <c r="B260" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="C260" t="s">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="D260" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1" t="n">
-        <v>1286</v>
+        <v>2570</v>
       </c>
       <c r="B261" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C261" t="s">
-        <v>319</v>
+        <v>5</v>
       </c>
       <c r="D261" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1" t="n">
-        <v>1287</v>
+        <v>2571</v>
       </c>
       <c r="B262" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C262" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
       <c r="D262" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1" t="n">
-        <v>1288</v>
+        <v>2572</v>
       </c>
       <c r="B263" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C263" t="s">
-        <v>301</v>
+        <v>5</v>
       </c>
       <c r="D263" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1" t="n">
-        <v>1289</v>
+        <v>2573</v>
       </c>
       <c r="B264" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C264" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="D264" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1" t="n">
-        <v>1290</v>
+        <v>2574</v>
       </c>
       <c r="B265" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C265" t="s">
-        <v>301</v>
+        <v>5</v>
       </c>
       <c r="D265" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1" t="n">
-        <v>1291</v>
+        <v>2575</v>
       </c>
       <c r="B266" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C266" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="D266" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1" t="n">
-        <v>1292</v>
+        <v>2576</v>
       </c>
       <c r="B267" t="s">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D267" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1" t="n">
-        <v>1293</v>
+        <v>2577</v>
       </c>
       <c r="B268" t="s">
-        <v>146</v>
+        <v>352</v>
       </c>
       <c r="C268" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D268" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1" t="n">
-        <v>1294</v>
+        <v>2578</v>
       </c>
       <c r="B269" t="s">
-        <v>146</v>
+        <v>354</v>
       </c>
       <c r="C269" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D269" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1" t="n">
-        <v>1295</v>
+        <v>2579</v>
       </c>
       <c r="B270" t="s">
-        <v>140</v>
+        <v>356</v>
       </c>
       <c r="C270" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D270" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1" t="n">
-        <v>1296</v>
+        <v>2580</v>
       </c>
       <c r="B271" t="s">
-        <v>143</v>
+        <v>358</v>
       </c>
       <c r="C271" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D271" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1" t="n">
-        <v>1297</v>
+        <v>2581</v>
       </c>
       <c r="B272" t="s">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="C272" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D272" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1" t="n">
-        <v>1298</v>
+        <v>2582</v>
       </c>
       <c r="B273" t="s">
-        <v>143</v>
+        <v>361</v>
       </c>
       <c r="C273" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D273" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="n">
-        <v>1299</v>
+        <v>2583</v>
       </c>
       <c r="B274" t="s">
-        <v>143</v>
+        <v>356</v>
       </c>
       <c r="C274" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D274" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="n">
-        <v>1300</v>
+        <v>2584</v>
       </c>
       <c r="B275" t="s">
-        <v>143</v>
+        <v>363</v>
       </c>
       <c r="C275" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D275" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="n">
-        <v>1301</v>
+        <v>2585</v>
       </c>
       <c r="B276" t="s">
-        <v>143</v>
+        <v>364</v>
       </c>
       <c r="C276" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D276" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="n">
-        <v>1302</v>
+        <v>2586</v>
       </c>
       <c r="B277" t="s">
-        <v>143</v>
+        <v>366</v>
       </c>
       <c r="C277" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D277" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="n">
-        <v>1303</v>
+        <v>2587</v>
       </c>
       <c r="B278" t="s">
-        <v>143</v>
+        <v>368</v>
       </c>
       <c r="C278" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D278" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1" t="n">
-        <v>1304</v>
+        <v>2588</v>
       </c>
       <c r="B279" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C279" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D279" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="n">
-        <v>1305</v>
+        <v>2589</v>
       </c>
       <c r="B280" t="s">
-        <v>146</v>
+        <v>371</v>
       </c>
       <c r="C280" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D280" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="n">
-        <v>1306</v>
+        <v>2590</v>
       </c>
       <c r="B281" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C281" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D281" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="n">
-        <v>1307</v>
+        <v>2591</v>
       </c>
       <c r="B282" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C282" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D282" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="n">
-        <v>1308</v>
+        <v>2592</v>
       </c>
       <c r="B283" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C283" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="D283" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="n">
-        <v>1309</v>
+        <v>2593</v>
       </c>
       <c r="B284" t="s">
+        <v>378</v>
+      </c>
+      <c r="C284" t="s">
         <v>376</v>
       </c>
-      <c r="C284" t="s">
-        <v>11</v>
-      </c>
       <c r="D284" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="n">
-        <v>1310</v>
+        <v>2594</v>
       </c>
       <c r="B285" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C285" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
       <c r="D285" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="n">
-        <v>1311</v>
+        <v>2595</v>
       </c>
       <c r="B286" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C286" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
       <c r="D286" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="n">
-        <v>1312</v>
+        <v>2596</v>
       </c>
       <c r="B287" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C287" t="s">
-        <v>11</v>
+        <v>386</v>
       </c>
       <c r="D287" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="n">
-        <v>1313</v>
+        <v>2597</v>
       </c>
       <c r="B288" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C288" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="D288" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="n">
-        <v>1314</v>
+        <v>2598</v>
       </c>
       <c r="B289" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C289" t="s">
-        <v>11</v>
+        <v>392</v>
       </c>
       <c r="D289" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="n">
-        <v>1315</v>
+        <v>2599</v>
       </c>
       <c r="B290" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C290" t="s">
-        <v>11</v>
+        <v>395</v>
       </c>
       <c r="D290" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="n">
-        <v>1316</v>
+        <v>2600</v>
       </c>
       <c r="B291" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C291" t="s">
-        <v>11</v>
+        <v>398</v>
       </c>
       <c r="D291" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="n">
-        <v>1317</v>
+        <v>2601</v>
       </c>
       <c r="B292" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="C292" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
       <c r="D292" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="n">
-        <v>1318</v>
+        <v>2602</v>
       </c>
       <c r="B293" t="s">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="C293" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
       <c r="D293" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="n">
-        <v>1319</v>
+        <v>2603</v>
       </c>
       <c r="B294" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="C294" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="D294" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="n">
-        <v>1320</v>
+        <v>2604</v>
       </c>
       <c r="B295" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C295" t="s">
-        <v>11</v>
+        <v>409</v>
       </c>
       <c r="D295" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="n">
-        <v>1321</v>
+        <v>2605</v>
       </c>
       <c r="B296" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="C296" t="s">
-        <v>11</v>
+        <v>412</v>
       </c>
       <c r="D296" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="n">
-        <v>1322</v>
+        <v>2606</v>
       </c>
       <c r="B297" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="C297" t="s">
-        <v>11</v>
+        <v>415</v>
       </c>
       <c r="D297" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="n">
-        <v>1323</v>
+        <v>2607</v>
       </c>
       <c r="B298" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="C298" t="s">
-        <v>11</v>
+        <v>418</v>
       </c>
       <c r="D298" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="n">
-        <v>1324</v>
+        <v>2608</v>
       </c>
       <c r="B299" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="C299" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="D299" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="n">
-        <v>1325</v>
+        <v>2609</v>
       </c>
       <c r="B300" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="C300" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="D300" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="n">
-        <v>1326</v>
+        <v>2610</v>
       </c>
       <c r="B301" t="s">
-        <v>149</v>
+        <v>424</v>
       </c>
       <c r="C301" t="s">
-        <v>11</v>
+        <v>425</v>
       </c>
       <c r="D301" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="n">
-        <v>1327</v>
+        <v>2611</v>
       </c>
       <c r="B302" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C302" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D302" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="n">
-        <v>1328</v>
+        <v>2612</v>
       </c>
       <c r="B303" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C303" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D303" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="n">
-        <v>1329</v>
+        <v>2613</v>
       </c>
       <c r="B304" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C304" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D304" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="n">
-        <v>1330</v>
+        <v>2614</v>
       </c>
       <c r="B305" t="s">
-        <v>402</v>
+        <v>7</v>
       </c>
       <c r="C305" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D305" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="n">
-        <v>1331</v>
+        <v>2615</v>
       </c>
       <c r="B306" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="C306" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="D306" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="n">
-        <v>1332</v>
+        <v>2616</v>
       </c>
       <c r="B307" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C307" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D307" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="n">
-        <v>1333</v>
+        <v>2617</v>
       </c>
       <c r="B308" t="s">
-        <v>393</v>
+        <v>59</v>
       </c>
       <c r="C308" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D308" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="n">
-        <v>1334</v>
+        <v>2618</v>
       </c>
       <c r="B309" t="s">
-        <v>395</v>
+        <v>59</v>
       </c>
       <c r="C309" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="D309" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="n">
-        <v>1335</v>
+        <v>2619</v>
       </c>
       <c r="B310" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C310" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="D310" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="n">
-        <v>1336</v>
+        <v>2620</v>
       </c>
       <c r="B311" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="C311" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D311" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="n">
-        <v>1337</v>
+        <v>2621</v>
       </c>
       <c r="B312" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="C312" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="D312" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="n">
-        <v>1338</v>
+        <v>2622</v>
       </c>
       <c r="B313" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="C313" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D313" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="n">
-        <v>1339</v>
+        <v>2623</v>
       </c>
       <c r="B314" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="C314" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D314" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="n">
-        <v>1340</v>
+        <v>2624</v>
       </c>
       <c r="B315" t="s">
-        <v>11</v>
+        <v>441</v>
       </c>
       <c r="C315" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D315" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="n">
-        <v>1341</v>
+        <v>2625</v>
       </c>
       <c r="B316" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C316" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D316" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="n">
-        <v>1342</v>
+        <v>2626</v>
       </c>
       <c r="B317" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C317" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D317" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="n">
-        <v>1343</v>
+        <v>2627</v>
       </c>
       <c r="B318" t="s">
-        <v>415</v>
+        <v>5</v>
       </c>
       <c r="C318" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D318" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="n">
-        <v>1344</v>
+        <v>2628</v>
       </c>
       <c r="B319" t="s">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="C319" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D319" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="n">
-        <v>1345</v>
+        <v>2629</v>
       </c>
       <c r="B320" t="s">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="C320" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="D320" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="n">
-        <v>1346</v>
+        <v>2630</v>
       </c>
       <c r="B321" t="s">
-        <v>419</v>
+        <v>5</v>
       </c>
       <c r="C321" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="D321" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="n">
-        <v>1347</v>
+        <v>2631</v>
       </c>
       <c r="B322" t="s">
-        <v>393</v>
+        <v>5</v>
       </c>
       <c r="C322" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D322" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="n">
-        <v>1348</v>
+        <v>2632</v>
       </c>
       <c r="B323" t="s">
-        <v>395</v>
+        <v>5</v>
       </c>
       <c r="C323" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D323" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="n">
-        <v>1349</v>
+        <v>2633</v>
       </c>
       <c r="B324" t="s">
-        <v>422</v>
+        <v>5</v>
       </c>
       <c r="C324" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="D324" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="n">
-        <v>1350</v>
+        <v>2634</v>
       </c>
       <c r="B325" t="s">
-        <v>424</v>
+        <v>5</v>
       </c>
       <c r="C325" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="D325" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="n">
-        <v>1351</v>
+        <v>2635</v>
       </c>
       <c r="B326" t="s">
-        <v>425</v>
+        <v>5</v>
       </c>
       <c r="C326" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="D326" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="n">
-        <v>1352</v>
+        <v>2636</v>
       </c>
       <c r="B327" t="s">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="C327" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="D327" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="n">
-        <v>1353</v>
+        <v>2637</v>
       </c>
       <c r="B328" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="C328" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="D328" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="n">
-        <v>1354</v>
+        <v>2638</v>
       </c>
       <c r="B329" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="C329" t="s">
-        <v>11</v>
+        <v>456</v>
       </c>
       <c r="D329" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="n">
-        <v>1355</v>
+        <v>2639</v>
       </c>
       <c r="B330" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="C330" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="D330" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="n">
-        <v>1356</v>
+        <v>2640</v>
       </c>
       <c r="B331" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="C331" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="D331" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="n">
-        <v>1357</v>
+        <v>2641</v>
       </c>
       <c r="B332" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="C332" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D332" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="n">
-        <v>1358</v>
+        <v>2642</v>
       </c>
       <c r="B333" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="C333" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D333" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="n">
-        <v>1359</v>
+        <v>2643</v>
       </c>
       <c r="B334" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="C334" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D334" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="n">
-        <v>1360</v>
+        <v>2644</v>
       </c>
       <c r="B335" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="C335" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D335" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="n">
-        <v>1361</v>
+        <v>2645</v>
       </c>
       <c r="B336" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="C336" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D336" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="n">
-        <v>1362</v>
+        <v>2646</v>
       </c>
       <c r="B337" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="C337" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D337" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="n">
-        <v>1363</v>
+        <v>2647</v>
       </c>
       <c r="B338" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="C338" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D338" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="n">
-        <v>1364</v>
+        <v>2648</v>
       </c>
       <c r="B339" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="C339" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D339" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="n">
-        <v>1365</v>
+        <v>2649</v>
       </c>
       <c r="B340" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="C340" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D340" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="n">
-        <v>1366</v>
+        <v>2650</v>
       </c>
       <c r="B341" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="C341" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D341" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="n">
-        <v>1367</v>
+        <v>2651</v>
       </c>
       <c r="B342" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="C342" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D342" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="n">
-        <v>1368</v>
+        <v>2652</v>
       </c>
       <c r="B343" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="C343" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D343" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="n">
-        <v>1369</v>
+        <v>2653</v>
       </c>
       <c r="B344" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="C344" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D344" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="n">
-        <v>1370</v>
+        <v>2654</v>
       </c>
       <c r="B345" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="C345" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D345" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="n">
-        <v>1623</v>
+        <v>2655</v>
       </c>
       <c r="B346" t="s">
-        <v>11</v>
+        <v>489</v>
       </c>
       <c r="C346" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="D346" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="n">
-        <v>1624</v>
+        <v>2656</v>
       </c>
       <c r="B347" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
       <c r="C347" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="D347" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="n">
-        <v>1625</v>
+        <v>2657</v>
       </c>
       <c r="B348" t="s">
-        <v>11</v>
+        <v>493</v>
       </c>
       <c r="C348" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="D348" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="n">
-        <v>1626</v>
+        <v>2658</v>
       </c>
       <c r="B349" t="s">
-        <v>11</v>
+        <v>495</v>
       </c>
       <c r="C349" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="D349" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="n">
-        <v>1627</v>
+        <v>2659</v>
       </c>
       <c r="B350" t="s">
-        <v>11</v>
+        <v>497</v>
       </c>
       <c r="C350" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="D350" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="n">
-        <v>1628</v>
+        <v>2660</v>
       </c>
       <c r="B351" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="C351" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="D351" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="n">
-        <v>1629</v>
+        <v>2661</v>
       </c>
       <c r="B352" t="s">
-        <v>11</v>
+        <v>501</v>
       </c>
       <c r="C352" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="D352" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="n">
-        <v>1630</v>
+        <v>2662</v>
       </c>
       <c r="B353" t="s">
-        <v>11</v>
+        <v>503</v>
       </c>
       <c r="C353" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="D353" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="n">
-        <v>1631</v>
+        <v>2663</v>
       </c>
       <c r="B354" t="s">
-        <v>11</v>
+        <v>505</v>
       </c>
       <c r="C354" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="D354" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="n">
-        <v>1632</v>
+        <v>2664</v>
       </c>
       <c r="B355" t="s">
-        <v>11</v>
+        <v>507</v>
       </c>
       <c r="C355" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="D355" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="n">
-        <v>1633</v>
+        <v>2665</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
       <c r="C356" t="s">
-        <v>11</v>
+        <v>510</v>
       </c>
       <c r="D356" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="n">
-        <v>1634</v>
+        <v>2666</v>
       </c>
       <c r="B357" t="s">
-        <v>11</v>
+        <v>512</v>
       </c>
       <c r="C357" t="s">
-        <v>11</v>
+        <v>510</v>
       </c>
       <c r="D357" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="n">
-        <v>1635</v>
+        <v>2667</v>
       </c>
       <c r="B358" t="s">
-        <v>11</v>
+        <v>514</v>
       </c>
       <c r="C358" t="s">
-        <v>11</v>
+        <v>510</v>
       </c>
       <c r="D358" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="n">
-        <v>1636</v>
+        <v>2668</v>
       </c>
       <c r="B359" t="s">
-        <v>11</v>
+        <v>516</v>
       </c>
       <c r="C359" t="s">
-        <v>11</v>
+        <v>510</v>
       </c>
       <c r="D359" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="n">
-        <v>1637</v>
+        <v>2669</v>
       </c>
       <c r="B360" t="s">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="C360" t="s">
-        <v>11</v>
+        <v>510</v>
       </c>
       <c r="D360" t="s">
-        <v>451</v>
+        <v>519</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="n">
-        <v>1638</v>
+        <v>2670</v>
       </c>
       <c r="B361" t="s">
-        <v>11</v>
+        <v>520</v>
       </c>
       <c r="C361" t="s">
-        <v>11</v>
+        <v>510</v>
       </c>
       <c r="D361" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="n">
-        <v>1639</v>
+        <v>2671</v>
       </c>
       <c r="B362" t="s">
-        <v>11</v>
+        <v>522</v>
       </c>
       <c r="C362" t="s">
-        <v>11</v>
+        <v>510</v>
       </c>
       <c r="D362" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="n">
-        <v>1640</v>
+        <v>2672</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>524</v>
       </c>
       <c r="C363" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D363" t="s">
-        <v>454</v>
+        <v>525</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="n">
-        <v>1641</v>
+        <v>2673</v>
       </c>
       <c r="B364" t="s">
-        <v>11</v>
+        <v>526</v>
       </c>
       <c r="C364" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D364" t="s">
-        <v>455</v>
+        <v>527</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="n">
-        <v>1642</v>
+        <v>2674</v>
       </c>
       <c r="B365" t="s">
-        <v>11</v>
+        <v>528</v>
       </c>
       <c r="C365" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D365" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="n">
-        <v>1643</v>
+        <v>2675</v>
       </c>
       <c r="B366" t="s">
-        <v>11</v>
+        <v>530</v>
       </c>
       <c r="C366" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D366" t="s">
-        <v>457</v>
+        <v>531</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="n">
-        <v>1644</v>
+        <v>2676</v>
       </c>
       <c r="B367" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C367" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D367" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="1" t="n">
-        <v>1645</v>
-      </c>
-      <c r="B368" t="s">
-        <v>11</v>
-      </c>
-      <c r="C368" t="s">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="1" t="n">
-        <v>1646</v>
-      </c>
-      <c r="B369" t="s">
-        <v>11</v>
-      </c>
-      <c r="C369" t="s">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="1" t="n">
-        <v>1647</v>
-      </c>
-      <c r="B370" t="s">
-        <v>11</v>
-      </c>
-      <c r="C370" t="s">
-        <v>11</v>
-      </c>
-      <c r="D370" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="1" t="n">
-        <v>1648</v>
-      </c>
-      <c r="B371" t="s">
-        <v>11</v>
-      </c>
-      <c r="C371" t="s">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="1" t="n">
-        <v>1649</v>
-      </c>
-      <c r="B372" t="s">
-        <v>11</v>
-      </c>
-      <c r="C372" t="s">
-        <v>11</v>
-      </c>
-      <c r="D372" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="1" t="n">
-        <v>1650</v>
-      </c>
-      <c r="B373" t="s">
-        <v>11</v>
-      </c>
-      <c r="C373" t="s">
-        <v>11</v>
-      </c>
-      <c r="D373" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="1" t="n">
-        <v>1651</v>
-      </c>
-      <c r="B374" t="s">
-        <v>11</v>
-      </c>
-      <c r="C374" t="s">
-        <v>11</v>
-      </c>
-      <c r="D374" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="1" t="n">
-        <v>1652</v>
-      </c>
-      <c r="B375" t="s">
-        <v>11</v>
-      </c>
-      <c r="C375" t="s">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="1" t="n">
-        <v>1653</v>
-      </c>
-      <c r="B376" t="s">
-        <v>11</v>
-      </c>
-      <c r="C376" t="s">
-        <v>11</v>
-      </c>
-      <c r="D376" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="1" t="n">
-        <v>1654</v>
-      </c>
-      <c r="B377" t="s">
-        <v>11</v>
-      </c>
-      <c r="C377" t="s">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="1" t="n">
-        <v>1655</v>
-      </c>
-      <c r="B378" t="s">
-        <v>11</v>
-      </c>
-      <c r="C378" t="s">
-        <v>11</v>
-      </c>
-      <c r="D378" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="1" t="n">
-        <v>1656</v>
-      </c>
-      <c r="B379" t="s">
-        <v>11</v>
-      </c>
-      <c r="C379" t="s">
-        <v>11</v>
-      </c>
-      <c r="D379" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="1" t="n">
-        <v>1657</v>
-      </c>
-      <c r="B380" t="s">
-        <v>11</v>
-      </c>
-      <c r="C380" t="s">
-        <v>11</v>
-      </c>
-      <c r="D380" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="1" t="n">
-        <v>1658</v>
-      </c>
-      <c r="B381" t="s">
-        <v>11</v>
-      </c>
-      <c r="C381" t="s">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="1" t="n">
-        <v>1659</v>
-      </c>
-      <c r="B382" t="s">
-        <v>11</v>
-      </c>
-      <c r="C382" t="s">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="1" t="n">
-        <v>1660</v>
-      </c>
-      <c r="B383" t="s">
-        <v>11</v>
-      </c>
-      <c r="C383" t="s">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="1" t="n">
-        <v>1661</v>
-      </c>
-      <c r="B384" t="s">
-        <v>11</v>
-      </c>
-      <c r="C384" t="s">
-        <v>11</v>
-      </c>
-      <c r="D384" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="1" t="n">
-        <v>1662</v>
-      </c>
-      <c r="B385" t="s">
-        <v>11</v>
-      </c>
-      <c r="C385" t="s">
-        <v>11</v>
-      </c>
-      <c r="D385" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="1" t="n">
-        <v>1663</v>
-      </c>
-      <c r="B386" t="s">
-        <v>11</v>
-      </c>
-      <c r="C386" t="s">
-        <v>11</v>
-      </c>
-      <c r="D386" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="1" t="n">
-        <v>1664</v>
-      </c>
-      <c r="B387" t="s">
-        <v>11</v>
-      </c>
-      <c r="C387" t="s">
-        <v>11</v>
-      </c>
-      <c r="D387" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="1" t="n">
-        <v>1665</v>
-      </c>
-      <c r="B388" t="s">
-        <v>11</v>
-      </c>
-      <c r="C388" t="s">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="1" t="n">
-        <v>1666</v>
-      </c>
-      <c r="B389" t="s">
-        <v>11</v>
-      </c>
-      <c r="C389" t="s">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="1" t="n">
-        <v>1667</v>
-      </c>
-      <c r="B390" t="s">
-        <v>11</v>
-      </c>
-      <c r="C390" t="s">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="1" t="n">
-        <v>1668</v>
-      </c>
-      <c r="B391" t="s">
-        <v>11</v>
-      </c>
-      <c r="C391" t="s">
-        <v>11</v>
-      </c>
-      <c r="D391" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="1" t="n">
-        <v>1669</v>
-      </c>
-      <c r="B392" t="s">
-        <v>11</v>
-      </c>
-      <c r="C392" t="s">
-        <v>11</v>
-      </c>
-      <c r="D392" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="1" t="n">
-        <v>1670</v>
-      </c>
-      <c r="B393" t="s">
-        <v>11</v>
-      </c>
-      <c r="C393" t="s">
-        <v>11</v>
-      </c>
-      <c r="D393" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="1" t="n">
-        <v>1671</v>
-      </c>
-      <c r="B394" t="s">
-        <v>11</v>
-      </c>
-      <c r="C394" t="s">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="1" t="n">
-        <v>1672</v>
-      </c>
-      <c r="B395" t="s">
-        <v>11</v>
-      </c>
-      <c r="C395" t="s">
-        <v>11</v>
-      </c>
-      <c r="D395" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="1" t="n">
-        <v>1673</v>
-      </c>
-      <c r="B396" t="s">
-        <v>11</v>
-      </c>
-      <c r="C396" t="s">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="1" t="n">
-        <v>1674</v>
-      </c>
-      <c r="B397" t="s">
-        <v>11</v>
-      </c>
-      <c r="C397" t="s">
-        <v>11</v>
-      </c>
-      <c r="D397" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="1" t="n">
-        <v>1675</v>
-      </c>
-      <c r="B398" t="s">
-        <v>11</v>
-      </c>
-      <c r="C398" t="s">
-        <v>11</v>
-      </c>
-      <c r="D398" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="1" t="n">
-        <v>1676</v>
-      </c>
-      <c r="B399" t="s">
-        <v>11</v>
-      </c>
-      <c r="C399" t="s">
-        <v>11</v>
-      </c>
-      <c r="D399" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="1" t="n">
-        <v>1677</v>
-      </c>
-      <c r="B400" t="s">
-        <v>11</v>
-      </c>
-      <c r="C400" t="s">
-        <v>11</v>
-      </c>
-      <c r="D400" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4">
-      <c r="A401" s="1" t="n">
-        <v>1678</v>
-      </c>
-      <c r="B401" t="s">
-        <v>11</v>
-      </c>
-      <c r="C401" t="s">
-        <v>11</v>
-      </c>
-      <c r="D401" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="1" t="n">
-        <v>1679</v>
-      </c>
-      <c r="B402" t="s">
-        <v>11</v>
-      </c>
-      <c r="C402" t="s">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="1" t="n">
-        <v>1680</v>
-      </c>
-      <c r="B403" t="s">
-        <v>11</v>
-      </c>
-      <c r="C403" t="s">
-        <v>11</v>
-      </c>
-      <c r="D403" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="1" t="n">
-        <v>1681</v>
-      </c>
-      <c r="B404" t="s">
-        <v>11</v>
-      </c>
-      <c r="C404" t="s">
-        <v>11</v>
-      </c>
-      <c r="D404" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="1" t="n">
-        <v>1682</v>
-      </c>
-      <c r="B405" t="s">
-        <v>11</v>
-      </c>
-      <c r="C405" t="s">
-        <v>11</v>
-      </c>
-      <c r="D405" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="1" t="n">
-        <v>1683</v>
-      </c>
-      <c r="B406" t="s">
-        <v>11</v>
-      </c>
-      <c r="C406" t="s">
-        <v>11</v>
-      </c>
-      <c r="D406" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="1" t="n">
-        <v>1684</v>
-      </c>
-      <c r="B407" t="s">
-        <v>11</v>
-      </c>
-      <c r="C407" t="s">
-        <v>11</v>
-      </c>
-      <c r="D407" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="1" t="n">
-        <v>1685</v>
-      </c>
-      <c r="B408" t="s">
-        <v>11</v>
-      </c>
-      <c r="C408" t="s">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s">
-        <v>457</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
